--- a/exp/Sim_20241213.xlsx
+++ b/exp/Sim_20241213.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6944CEA9-7CF6-5E4A-A97F-73191D23E914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920DD79D-A30A-AA46-9DDF-7FE7F617C32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2460" windowWidth="30900" windowHeight="16280" activeTab="7" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="2280" yWindow="2460" windowWidth="33720" windowHeight="14340" activeTab="7" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="105">
   <si>
     <t>Paper value</t>
   </si>
@@ -337,6 +337,27 @@
   </si>
   <si>
     <t>x with smax of edge_index[1], no norm2</t>
+  </si>
+  <si>
+    <t>x with smax of edge_index[1], norm2</t>
+  </si>
+  <si>
+    <t>smax with norm1 (from)</t>
+  </si>
+  <si>
+    <t>smax with norm1 (to)</t>
+  </si>
+  <si>
+    <t>raw with norm2</t>
+  </si>
+  <si>
+    <t>replica LightGCN, lambda</t>
+  </si>
+  <si>
+    <t>max epoch</t>
+  </si>
+  <si>
+    <t>#edges</t>
   </si>
 </sst>
 </file>
@@ -354,7 +375,7 @@
     <numFmt numFmtId="170" formatCode="0.000%"/>
     <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -429,6 +450,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -590,7 +617,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -676,6 +703,48 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -688,6 +757,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,9 +767,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -730,45 +799,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="7" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2051,7 +2107,7 @@
   <dimension ref="B4:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2070,456 +2126,457 @@
     <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="69" t="s">
+      <c r="J4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="69" t="s">
+      <c r="M4" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="51" t="s">
         <v>22</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="2:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="53">
         <v>1682</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="53">
         <v>943</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="54">
         <v>100000</v>
       </c>
-      <c r="F5" s="73">
-        <f>E5/(C5*D5)</f>
+      <c r="F5" s="55">
+        <f t="shared" ref="F5:F10" si="0">E5/(C5*D5)</f>
         <v>6.3046693642245313E-2</v>
       </c>
-      <c r="G5" s="74">
-        <f t="shared" ref="G5" si="0">100%-F5</f>
+      <c r="G5" s="56">
+        <f t="shared" ref="G5" si="1">100%-F5</f>
         <v>0.93695330635775465</v>
       </c>
-      <c r="H5" s="71">
-        <f>E5*2</f>
+      <c r="H5" s="53">
+        <f t="shared" ref="H5:H10" si="2">E5*2</f>
         <v>200000</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71">
-        <f>C5+D5</f>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53">
+        <f t="shared" ref="J5:J10" si="3">C5+D5</f>
         <v>2625</v>
       </c>
-      <c r="K5" s="75">
-        <f>H5/J5</f>
+      <c r="K5" s="57">
+        <f t="shared" ref="K5:K10" si="4">H5/J5</f>
         <v>76.19047619047619</v>
       </c>
-      <c r="L5" s="76">
-        <f>H5/(J5*(J5-1))</f>
+      <c r="L5" s="58">
+        <f t="shared" ref="L5:L10" si="5">H5/(J5*(J5-1))</f>
         <v>2.9036004645760744E-2</v>
       </c>
-      <c r="M5" s="70" t="s">
+      <c r="M5" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="75">
-        <f>E5/C5</f>
+      <c r="O5" s="57">
+        <f t="shared" ref="O5:O10" si="6">E5/C5</f>
         <v>59.453032104637337</v>
       </c>
-      <c r="P5" s="75">
-        <f>E5/D5</f>
+      <c r="P5" s="57">
+        <f t="shared" ref="P5:P10" si="7">E5/D5</f>
         <v>106.04453870625663</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
     </row>
     <row r="6" spans="2:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="53">
         <v>3952</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="53">
         <v>6040</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="54">
         <v>1000209</v>
       </c>
-      <c r="F6" s="73">
-        <f>E6/(C6*D6)</f>
+      <c r="F6" s="55">
+        <f t="shared" si="0"/>
         <v>4.1902205606349038E-2</v>
       </c>
-      <c r="G6" s="74">
+      <c r="G6" s="56">
         <f>100%-F6</f>
         <v>0.95809779439365095</v>
       </c>
-      <c r="H6" s="71">
-        <f>E6*2</f>
+      <c r="H6" s="53">
+        <f t="shared" si="2"/>
         <v>2000418</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71">
-        <f>C6+D6</f>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53">
+        <f t="shared" si="3"/>
         <v>9992</v>
       </c>
-      <c r="K6" s="75">
-        <f>H6/J6</f>
+      <c r="K6" s="57">
+        <f t="shared" si="4"/>
         <v>200.20196156925542</v>
       </c>
-      <c r="L6" s="76">
-        <f>H6/(J6*(J6-1))</f>
+      <c r="L6" s="58">
+        <f t="shared" si="5"/>
         <v>2.0038230564433532E-2</v>
       </c>
-      <c r="M6" s="70" t="s">
+      <c r="M6" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="70" t="s">
+      <c r="N6" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="75">
-        <f>E6/C6</f>
+      <c r="O6" s="57">
+        <f t="shared" si="6"/>
         <v>253.08932186234819</v>
       </c>
-      <c r="P6" s="75">
-        <f>E6/D6</f>
+      <c r="P6" s="57">
+        <f t="shared" si="7"/>
         <v>165.5975165562914</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="9">
         <v>40</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="9">
         <v>160</v>
       </c>
-      <c r="S6" s="77">
+      <c r="S6" s="70">
         <f>O6/Q6</f>
         <v>6.327233046558705</v>
       </c>
-      <c r="T6" s="77">
+      <c r="T6" s="70">
         <f>P6/R6</f>
         <v>1.0349844784768212</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="53">
         <v>1878</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="53">
         <v>4476</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="54">
         <v>52624</v>
       </c>
-      <c r="F7" s="78">
-        <f>E7/(C7*D7)</f>
+      <c r="F7" s="59">
+        <f t="shared" si="0"/>
         <v>6.260343890644793E-3</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="56">
         <f>100%-F7</f>
         <v>0.99373965610935522</v>
       </c>
-      <c r="H7" s="71">
-        <f>E7*2</f>
+      <c r="H7" s="53">
+        <f t="shared" si="2"/>
         <v>105248</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="53">
         <f>H7*80%</f>
         <v>84198.400000000009</v>
       </c>
-      <c r="J7" s="71">
-        <f>C7+D7</f>
+      <c r="J7" s="53">
+        <f t="shared" si="3"/>
         <v>6354</v>
       </c>
-      <c r="K7" s="75">
-        <f>H7/J7</f>
+      <c r="K7" s="57">
+        <f t="shared" si="4"/>
         <v>16.564054139124959</v>
       </c>
-      <c r="L7" s="76">
-        <f>H7/(J7*(J7-1))</f>
+      <c r="L7" s="58">
+        <f t="shared" si="5"/>
         <v>2.6072806767078482E-3</v>
       </c>
-      <c r="M7" s="70" t="s">
+      <c r="M7" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="N7" s="70" t="s">
+      <c r="N7" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="75">
-        <f>E7/C7</f>
+      <c r="O7" s="57">
+        <f t="shared" si="6"/>
         <v>28.021299254526092</v>
       </c>
-      <c r="P7" s="75">
-        <f>E7/D7</f>
+      <c r="P7" s="57">
+        <f t="shared" si="7"/>
         <v>11.756925826630921</v>
       </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
     </row>
     <row r="8" spans="2:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="80">
+      <c r="C8" s="61">
         <v>29858</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="61">
         <v>40981</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="62">
         <v>1027370</v>
       </c>
-      <c r="F8" s="78">
-        <f>E8/(C8*D8)</f>
+      <c r="F8" s="59">
+        <f t="shared" si="0"/>
         <v>8.3962162285704375E-4</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="56">
         <f>100%-F8</f>
         <v>0.999160378377143</v>
       </c>
-      <c r="H8" s="71">
-        <f>E8*2</f>
+      <c r="H8" s="53">
+        <f t="shared" si="2"/>
         <v>2054740</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="53">
         <f>H8*80%</f>
         <v>1643792</v>
       </c>
-      <c r="J8" s="71">
-        <f>C8+D8</f>
+      <c r="J8" s="53">
+        <f t="shared" si="3"/>
         <v>70839</v>
       </c>
-      <c r="K8" s="75">
-        <f>H8/J8</f>
+      <c r="K8" s="57">
+        <f t="shared" si="4"/>
         <v>29.005773655754599</v>
       </c>
-      <c r="L8" s="76">
-        <f>H8/(J8*(J8-1))</f>
+      <c r="L8" s="58">
+        <f t="shared" si="5"/>
         <v>4.094662985368672E-4</v>
       </c>
-      <c r="M8" s="70" t="s">
+      <c r="M8" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="70" t="s">
+      <c r="N8" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="75">
-        <f>E8/C8</f>
+      <c r="O8" s="57">
+        <f t="shared" si="6"/>
         <v>34.408533726304505</v>
       </c>
-      <c r="P8" s="75">
-        <f>E8/D8</f>
+      <c r="P8" s="57">
+        <f t="shared" si="7"/>
         <v>25.06942241526561</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="9">
         <v>20</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="9">
         <v>25</v>
       </c>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
     </row>
     <row r="9" spans="2:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="61">
         <v>31668</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="61">
         <v>38048</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="62">
         <v>1561406</v>
       </c>
-      <c r="F9" s="78">
-        <f>E9/(C9*D9)</f>
+      <c r="F9" s="59">
+        <f t="shared" si="0"/>
         <v>1.2958757851778645E-3</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="56">
         <f>100%-F9</f>
         <v>0.99870412421482213</v>
       </c>
-      <c r="H9" s="71">
-        <f>E9*2</f>
+      <c r="H9" s="53">
+        <f t="shared" si="2"/>
         <v>3122812</v>
       </c>
-      <c r="I9" s="71">
+      <c r="I9" s="53">
         <f>H9*80%</f>
         <v>2498249.6</v>
       </c>
-      <c r="J9" s="71">
-        <f>C9+D9</f>
+      <c r="J9" s="53">
+        <f t="shared" si="3"/>
         <v>69716</v>
       </c>
-      <c r="K9" s="75">
-        <f>H9/J9</f>
+      <c r="K9" s="57">
+        <f t="shared" si="4"/>
         <v>44.793332950829075</v>
       </c>
-      <c r="L9" s="76">
-        <f>H9/(J9*(J9-1))</f>
+      <c r="L9" s="58">
+        <f t="shared" si="5"/>
         <v>6.4252073371339131E-4</v>
       </c>
-      <c r="M9" s="70" t="s">
+      <c r="M9" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="70" t="s">
+      <c r="N9" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="O9" s="75">
-        <f>E9/C9</f>
+      <c r="O9" s="57">
+        <f t="shared" si="6"/>
         <v>49.305481874447395</v>
       </c>
-      <c r="P9" s="75">
-        <f>E9/D9</f>
+      <c r="P9" s="57">
+        <f t="shared" si="7"/>
         <v>41.037794365012616</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="9">
         <v>45</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="9">
         <v>40</v>
       </c>
-      <c r="S9" s="77">
+      <c r="S9" s="70">
         <f>O9/Q9</f>
         <v>1.0956773749877198</v>
       </c>
-      <c r="T9" s="77">
+      <c r="T9" s="70">
         <f>P9/R9</f>
         <v>1.0259448591253153</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="80">
+      <c r="C10" s="61">
         <v>52643</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="61">
         <v>91599</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="62">
         <v>2984108</v>
       </c>
-      <c r="F10" s="78">
-        <f>E10/(C10*D10)</f>
+      <c r="F10" s="59">
+        <f t="shared" si="0"/>
         <v>6.1884683448499807E-4</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G10" s="56">
         <f>100%-F10</f>
         <v>0.99938115316551501</v>
       </c>
-      <c r="H10" s="71">
-        <f>E10*2</f>
+      <c r="H10" s="53">
+        <f t="shared" si="2"/>
         <v>5968216</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="53">
         <f>H10*80%</f>
         <v>4774572.8</v>
       </c>
-      <c r="J10" s="71">
-        <f>C10+D10</f>
+      <c r="J10" s="53">
+        <f t="shared" si="3"/>
         <v>144242</v>
       </c>
-      <c r="K10" s="75">
-        <f>H10/J10</f>
+      <c r="K10" s="57">
+        <f t="shared" si="4"/>
         <v>41.376409090278834</v>
       </c>
-      <c r="L10" s="76">
-        <f>H10/(J10*(J10-1))</f>
+      <c r="L10" s="58">
+        <f t="shared" si="5"/>
         <v>2.8685608870070812E-4</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="M10" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="N10" s="70" t="s">
+      <c r="N10" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="75">
-        <f>E10/C10</f>
+      <c r="O10" s="57">
+        <f t="shared" si="6"/>
         <v>56.685751191991336</v>
       </c>
-      <c r="P10" s="75">
-        <f>E10/D10</f>
+      <c r="P10" s="57">
+        <f t="shared" si="7"/>
         <v>32.577953907793756</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="9">
         <v>18</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="9">
         <v>40</v>
       </c>
-      <c r="S10" s="77">
+      <c r="S10" s="70">
         <f>O10/Q10</f>
         <v>3.1492083995550741</v>
       </c>
-      <c r="T10" s="77">
+      <c r="T10" s="70">
         <f>P10/R10</f>
         <v>0.81444884769484394</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="22" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2532,50 +2589,50 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="2:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="53">
         <v>7403</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="53">
         <v>17192</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="54">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="59">
         <f>E12/(C12*D12)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="56">
         <f>100%-F12</f>
         <v>1</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="53">
         <f>E12*2</f>
         <v>0</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="53">
         <f>H12*80%</f>
         <v>0</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="53">
         <f>C12+D12</f>
         <v>24595</v>
       </c>
-      <c r="K12" s="75">
+      <c r="K12" s="57">
         <f>H12/J12</f>
         <v>0</v>
       </c>
-      <c r="L12" s="76">
+      <c r="L12" s="58">
         <f>H12/(J12*(J12-1))</f>
         <v>0</v>
       </c>
@@ -2583,10 +2640,10 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C13" s="34"/>
@@ -2652,18 +2709,18 @@
   </cols>
   <sheetData>
     <row r="10" spans="5:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="79"/>
       <c r="Q10" s="6" t="s">
         <v>58</v>
       </c>
@@ -2826,18 +2883,18 @@
       <c r="N16" s="2"/>
     </row>
     <row r="18" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="79"/>
       <c r="Q18" s="6" t="s">
         <v>51</v>
       </c>
@@ -3055,18 +3112,18 @@
       </c>
     </row>
     <row r="26" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="53"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="79"/>
     </row>
     <row r="27" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E27" s="31"/>
@@ -3222,14 +3279,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82757750-2341-5941-B5A9-350C8E89CB41}">
-  <dimension ref="E5:Q57"/>
+  <dimension ref="D5:T108"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
@@ -3238,17 +3296,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E6" s="36"/>
@@ -3256,12 +3314,12 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="58" t="s">
+      <c r="J6" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E7" s="37" t="s">
@@ -3413,17 +3471,17 @@
       </c>
     </row>
     <row r="15" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
     </row>
     <row r="16" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E16" s="36"/>
@@ -3431,12 +3489,12 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="58" t="s">
+      <c r="J16" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
     </row>
     <row r="17" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E17" s="37" t="s">
@@ -3592,21 +3650,21 @@
       <c r="M22" s="9"/>
     </row>
     <row r="27" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
     </row>
     <row r="28" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E28" s="37" t="s">
@@ -3732,7 +3790,7 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E33" s="33"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -3747,33 +3805,36 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="37" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E37" s="54" t="s">
+    <row r="37" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E37" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-    </row>
-    <row r="38" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E38" s="55" t="s">
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+    </row>
+    <row r="38" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E38" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="57"/>
-    </row>
-    <row r="39" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="F38" s="83"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="84"/>
+    </row>
+    <row r="39" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D39" s="73" t="s">
+        <v>104</v>
+      </c>
       <c r="E39" s="37" t="s">
         <v>7</v>
       </c>
@@ -3802,7 +3863,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D40" s="76">
+        <v>1620256</v>
+      </c>
       <c r="E40" s="33">
         <v>1E-3</v>
       </c>
@@ -3825,16 +3889,19 @@
         <v>5.28E-2</v>
       </c>
       <c r="L40" s="14">
-        <f>(2*J40*K40)/(J40+K40)</f>
+        <f t="shared" ref="L40:L46" si="0">(2*J40*K40)/(J40+K40)</f>
         <v>8.0596950672645745E-2</v>
       </c>
       <c r="M40" s="14">
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="41" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D41" s="76">
+        <v>1620256</v>
+      </c>
       <c r="E41" s="33">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="F41" s="9">
         <v>2</v>
@@ -3843,28 +3910,31 @@
         <v>1024</v>
       </c>
       <c r="H41" s="9">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="I41" s="9">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="J41" s="9">
-        <v>0.17169999999999999</v>
+        <v>0.17119999999999999</v>
       </c>
       <c r="K41" s="9">
-        <v>5.2900000000000003E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="L41" s="14">
-        <f>(2*J41*K41)/(J41+K41)</f>
-        <v>8.0880943900267135E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.1175044563279855E-2</v>
       </c>
       <c r="M41" s="9">
-        <v>0.1472</v>
-      </c>
-    </row>
-    <row r="42" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+        <v>0.14549999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D42" s="76">
+        <v>1620256</v>
+      </c>
       <c r="E42" s="33">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="F42" s="9">
         <v>2</v>
@@ -3876,409 +3946,1681 @@
         <v>400</v>
       </c>
       <c r="I42" s="9">
+        <v>220</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="K42" s="9">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="L42" s="14">
+        <f t="shared" si="0"/>
+        <v>8.0880943900267135E-2</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.1472</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D43" s="76">
+        <v>1620256</v>
+      </c>
+      <c r="E43" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F43" s="9">
+        <v>2</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H43" s="9">
+        <v>400</v>
+      </c>
+      <c r="I43" s="9">
         <v>100</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J43" s="9">
         <v>0.15629999999999999</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K43" s="9">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="L42" s="14">
-        <f>(2*J42*K42)/(J42+K42)</f>
+      <c r="L43" s="14">
+        <f t="shared" si="0"/>
         <v>7.2622691552062871E-2</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M43" s="9">
         <v>0.14430000000000001</v>
       </c>
     </row>
-    <row r="43" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E43" s="33"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E44" s="33"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="9"/>
-    </row>
-    <row r="47" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E47" s="54" t="s">
+    <row r="44" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D44" s="76">
+        <v>1620256</v>
+      </c>
+      <c r="E44" s="33">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F44" s="9">
+        <v>2</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I44" s="9">
+        <v>940</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0.17560000000000001</v>
+      </c>
+      <c r="K44" s="9">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="L44" s="14">
+        <f t="shared" si="0"/>
+        <v>0.11308911196911198</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0.15090000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D45" s="76">
+        <v>1620256</v>
+      </c>
+      <c r="E45" s="33">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F45" s="9">
+        <v>2</v>
+      </c>
+      <c r="G45" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="9">
+        <v>970</v>
+      </c>
+      <c r="J45" s="9">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="K45" s="9">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="L45" s="14">
+        <f t="shared" si="0"/>
+        <v>8.3577123050259966E-2</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0.15029999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D46" s="76">
+        <v>1620256</v>
+      </c>
+      <c r="E46" s="33">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F46" s="9">
+        <v>2</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H46" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="9">
+        <v>220</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0.1739</v>
+      </c>
+      <c r="K46" s="9">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="L46" s="14">
+        <f t="shared" si="0"/>
+        <v>8.2176723759332451E-2</v>
+      </c>
+      <c r="M46" s="9">
+        <v>0.14929999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E47" s="28"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="71"/>
+      <c r="M47" s="46"/>
+    </row>
+    <row r="48" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E48" s="28"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="46"/>
+    </row>
+    <row r="49" spans="5:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="E49" s="28"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="46"/>
+    </row>
+    <row r="51" spans="5:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="E51" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-    </row>
-    <row r="48" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E48" s="37" t="s">
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
+    </row>
+    <row r="52" spans="5:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="E52" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="37" t="s">
+      <c r="F52" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G52" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H52" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="36" t="s">
+      <c r="I52" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="J48" s="37" t="s">
+      <c r="J52" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K48" s="37" t="s">
+      <c r="K52" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="L48" s="37" t="s">
+      <c r="L52" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="M48" s="37" t="s">
+      <c r="M52" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="37" t="s">
+      <c r="N52" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O48" s="37" t="s">
+      <c r="O52" s="37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="5:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="E49" s="3">
+    <row r="53" spans="5:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="E53" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F53" s="1">
         <v>2</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G53" s="1">
         <v>1024</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H53" s="1">
         <v>20</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I53" s="1">
         <v>20</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J53" s="1">
         <v>0.1024</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K53" s="1">
         <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="L49" s="7">
-        <f>(2*J49*K49)/(J49+K49)</f>
-        <v>4.8877918215613374E-2</v>
-      </c>
-      <c r="M49" s="1">
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="N49" s="1">
-        <v>40</v>
-      </c>
-      <c r="O49" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="5:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="E50" s="49">
-        <v>1E-4</v>
-      </c>
-      <c r="F50" s="50">
-        <v>2</v>
-      </c>
-      <c r="G50" s="50">
-        <v>1024</v>
-      </c>
-      <c r="H50" s="50">
-        <v>20</v>
-      </c>
-      <c r="I50" s="50">
-        <v>20</v>
-      </c>
-      <c r="J50" s="50">
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="K50" s="50">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="L50" s="7">
-        <f>(2*J50*K50)/(J50+K50)</f>
-        <v>4.9005196733481811E-2</v>
-      </c>
-      <c r="M50" s="50">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="N50" s="50">
-        <v>20</v>
-      </c>
-      <c r="O50" s="50">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="5:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="E51" s="49">
-        <v>1E-3</v>
-      </c>
-      <c r="F51" s="50">
-        <v>2</v>
-      </c>
-      <c r="G51" s="50">
-        <v>1024</v>
-      </c>
-      <c r="H51" s="50">
-        <v>30</v>
-      </c>
-      <c r="I51" s="50">
-        <v>30</v>
-      </c>
-      <c r="J51" s="50">
-        <v>0.1003</v>
-      </c>
-      <c r="K51" s="50">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="L51" s="7">
-        <f>(2*J51*K51)/(J51+K51)</f>
-        <v>4.8058832448824862E-2</v>
-      </c>
-      <c r="M51" s="50">
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="N51" s="50">
-        <v>40</v>
-      </c>
-      <c r="O51" s="50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="5:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="E53" s="28">
-        <v>10000</v>
-      </c>
-      <c r="F53" s="83">
-        <v>2</v>
-      </c>
-      <c r="G53" s="83">
-        <v>1024</v>
-      </c>
-      <c r="H53" s="83">
-        <v>70</v>
-      </c>
-      <c r="I53" s="83">
-        <v>70</v>
-      </c>
-      <c r="J53" s="83">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="K53" s="83">
-        <v>4.7800000000000002E-2</v>
       </c>
       <c r="L53" s="7">
         <f>(2*J53*K53)/(J53+K53)</f>
-        <v>7.2932936507936502E-2</v>
-      </c>
-      <c r="M53" s="83">
-        <v>0.12559999999999999</v>
-      </c>
-      <c r="N53" s="83">
-        <v>25</v>
-      </c>
-      <c r="O53" s="83">
+        <v>4.8877918215613374E-2</v>
+      </c>
+      <c r="M53" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="N53" s="1">
+        <v>40</v>
+      </c>
+      <c r="O53" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="5:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="E54" s="49">
+        <v>1E-4</v>
+      </c>
+      <c r="F54" s="50">
+        <v>2</v>
+      </c>
+      <c r="G54" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H54" s="50">
         <v>20</v>
       </c>
-      <c r="P53" s="50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="5:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="E54" s="28">
-        <v>10000</v>
-      </c>
-      <c r="F54" s="83">
-        <v>2</v>
-      </c>
-      <c r="G54" s="83">
-        <v>1024</v>
-      </c>
-      <c r="H54" s="83">
-        <v>70</v>
-      </c>
-      <c r="I54" s="83">
-        <v>70</v>
-      </c>
-      <c r="J54" s="83">
-        <v>0.1545</v>
-      </c>
-      <c r="K54" s="84">
-        <v>4.8000000000000001E-2</v>
+      <c r="I54" s="50">
+        <v>20</v>
+      </c>
+      <c r="J54" s="50">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="K54" s="50">
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="L54" s="7">
         <f>(2*J54*K54)/(J54+K54)</f>
-        <v>7.3244444444444431E-2</v>
-      </c>
-      <c r="M54" s="83">
-        <v>0.12640000000000001</v>
-      </c>
-      <c r="N54" s="83">
-        <v>25</v>
-      </c>
-      <c r="O54" s="83">
-        <v>25</v>
-      </c>
-      <c r="P54" s="50" t="s">
-        <v>90</v>
+        <v>4.9005196733481811E-2</v>
+      </c>
+      <c r="M54" s="50">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N54" s="50">
+        <v>20</v>
+      </c>
+      <c r="O54" s="50">
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="5:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="E55" s="28">
-        <v>10000</v>
-      </c>
-      <c r="F55" s="83">
+      <c r="E55" s="49">
+        <v>1E-3</v>
+      </c>
+      <c r="F55" s="50">
         <v>2</v>
       </c>
-      <c r="G55" s="83">
+      <c r="G55" s="50">
         <v>1024</v>
       </c>
-      <c r="H55" s="83">
-        <v>70</v>
-      </c>
-      <c r="I55" s="83">
-        <v>70</v>
-      </c>
-      <c r="J55" s="83">
-        <v>0.15479999999999999</v>
-      </c>
-      <c r="K55" s="83">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="L55" s="84">
+      <c r="H55" s="50">
+        <v>30</v>
+      </c>
+      <c r="I55" s="50">
+        <v>30</v>
+      </c>
+      <c r="J55" s="50">
+        <v>0.1003</v>
+      </c>
+      <c r="K55" s="50">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="L55" s="7">
         <f>(2*J55*K55)/(J55+K55)</f>
-        <v>7.3394578610152778E-2</v>
-      </c>
-      <c r="M55" s="83">
-        <v>0.1265</v>
-      </c>
-      <c r="N55" s="83">
-        <v>30</v>
-      </c>
-      <c r="O55" s="83">
-        <v>25</v>
-      </c>
-      <c r="P55" s="50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="5:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="E56" s="28">
-        <v>10000</v>
-      </c>
-      <c r="F56" s="83">
-        <v>2</v>
-      </c>
-      <c r="G56" s="83">
-        <v>1024</v>
-      </c>
-      <c r="H56" s="83">
-        <v>70</v>
-      </c>
-      <c r="I56" s="83">
-        <v>70</v>
-      </c>
-      <c r="J56" s="83">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="K56" s="83">
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="L56" s="84">
-        <f>(2*J56*K56)/(J56+K56)</f>
-        <v>7.3060555004955396E-2</v>
-      </c>
-      <c r="M56" s="83">
-        <v>0.1265</v>
-      </c>
-      <c r="N56" s="83">
-        <v>30</v>
-      </c>
-      <c r="O56" s="83">
+        <v>4.8058832448824862E-2</v>
+      </c>
+      <c r="M55" s="50">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="N55" s="50">
+        <v>40</v>
+      </c>
+      <c r="O55" s="50">
         <v>20</v>
-      </c>
-      <c r="P56" s="50" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="57" spans="5:16" ht="19" x14ac:dyDescent="0.25">
       <c r="E57" s="28">
         <v>10000</v>
       </c>
-      <c r="F57" s="83">
+      <c r="F57" s="50">
         <v>2</v>
       </c>
-      <c r="G57" s="83">
+      <c r="G57" s="50">
         <v>1024</v>
       </c>
-      <c r="H57" s="83">
+      <c r="H57" s="50">
         <v>70</v>
       </c>
-      <c r="I57" s="83">
+      <c r="I57" s="50">
         <v>70</v>
       </c>
-      <c r="J57" s="83">
-        <v>0.15479999999999999</v>
-      </c>
-      <c r="K57" s="83">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="L57" s="84">
+      <c r="J57" s="50">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="K57" s="50">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="L57" s="7">
         <f>(2*J57*K57)/(J57+K57)</f>
-        <v>7.3394578610152778E-2</v>
-      </c>
-      <c r="M57" s="83">
-        <v>0.1268</v>
-      </c>
-      <c r="N57" s="83">
-        <v>30</v>
-      </c>
-      <c r="O57" s="83">
-        <v>30</v>
+        <v>7.2932936507936502E-2</v>
+      </c>
+      <c r="M57" s="50">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="N57" s="50">
+        <v>25</v>
+      </c>
+      <c r="O57" s="50">
+        <v>20</v>
       </c>
       <c r="P57" s="50" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="58" spans="5:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="E58" s="28">
+        <v>10000</v>
+      </c>
+      <c r="F58" s="50">
+        <v>2</v>
+      </c>
+      <c r="G58" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H58" s="50">
+        <v>70</v>
+      </c>
+      <c r="I58" s="50">
+        <v>70</v>
+      </c>
+      <c r="J58" s="50">
+        <v>0.1545</v>
+      </c>
+      <c r="K58" s="64">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L58" s="7">
+        <f>(2*J58*K58)/(J58+K58)</f>
+        <v>7.3244444444444431E-2</v>
+      </c>
+      <c r="M58" s="50">
+        <v>0.12640000000000001</v>
+      </c>
+      <c r="N58" s="50">
+        <v>25</v>
+      </c>
+      <c r="O58" s="50">
+        <v>25</v>
+      </c>
+      <c r="P58" s="50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="5:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="E59" s="28">
+        <v>10000</v>
+      </c>
+      <c r="F59" s="50">
+        <v>2</v>
+      </c>
+      <c r="G59" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H59" s="50">
+        <v>70</v>
+      </c>
+      <c r="I59" s="50">
+        <v>70</v>
+      </c>
+      <c r="J59" s="50">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="K59" s="50">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="L59" s="64">
+        <f>(2*J59*K59)/(J59+K59)</f>
+        <v>7.3394578610152778E-2</v>
+      </c>
+      <c r="M59" s="50">
+        <v>0.1265</v>
+      </c>
+      <c r="N59" s="50">
+        <v>30</v>
+      </c>
+      <c r="O59" s="50">
+        <v>25</v>
+      </c>
+      <c r="P59" s="50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="5:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="E60" s="28">
+        <v>10000</v>
+      </c>
+      <c r="F60" s="50">
+        <v>2</v>
+      </c>
+      <c r="G60" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H60" s="50">
+        <v>70</v>
+      </c>
+      <c r="I60" s="50">
+        <v>70</v>
+      </c>
+      <c r="J60" s="50">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="K60" s="50">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="L60" s="64">
+        <f>(2*J60*K60)/(J60+K60)</f>
+        <v>7.3060555004955396E-2</v>
+      </c>
+      <c r="M60" s="50">
+        <v>0.1265</v>
+      </c>
+      <c r="N60" s="50">
+        <v>30</v>
+      </c>
+      <c r="O60" s="50">
+        <v>20</v>
+      </c>
+      <c r="P60" s="50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="5:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="E61" s="28">
+        <v>10000</v>
+      </c>
+      <c r="F61" s="50">
+        <v>2</v>
+      </c>
+      <c r="G61" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H61" s="50">
+        <v>70</v>
+      </c>
+      <c r="I61" s="50">
+        <v>70</v>
+      </c>
+      <c r="J61" s="50">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="K61" s="50">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="L61" s="64">
+        <f>(2*J61*K61)/(J61+K61)</f>
+        <v>7.3394578610152778E-2</v>
+      </c>
+      <c r="M61" s="50">
+        <v>0.1268</v>
+      </c>
+      <c r="N61" s="50">
+        <v>30</v>
+      </c>
+      <c r="O61" s="50">
+        <v>30</v>
+      </c>
+      <c r="P61" s="50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="4:20" ht="22" x14ac:dyDescent="0.3">
+      <c r="D69" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I69" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="J69" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="L69" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="N69" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D70" s="45">
+        <v>2124979</v>
+      </c>
+      <c r="E70" s="49">
+        <v>1E-3</v>
+      </c>
+      <c r="F70" s="50">
+        <v>2</v>
+      </c>
+      <c r="G70" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H70" s="50">
+        <v>30</v>
+      </c>
+      <c r="I70" s="50">
+        <v>10</v>
+      </c>
+      <c r="J70" s="50">
+        <v>0.1164</v>
+      </c>
+      <c r="K70" s="50">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="L70" s="64">
+        <f>(2*J70*K70)/(J70+K70)</f>
+        <v>5.5920626631853786E-2</v>
+      </c>
+      <c r="M70" s="64">
+        <v>0.09</v>
+      </c>
+      <c r="N70" s="50">
+        <v>30</v>
+      </c>
+      <c r="O70" s="50">
+        <v>30</v>
+      </c>
+      <c r="P70" s="50"/>
+      <c r="Q70" s="50"/>
+      <c r="R70" s="64">
+        <f>L70</f>
+        <v>5.5920626631853786E-2</v>
+      </c>
+      <c r="T70" s="50"/>
+    </row>
+    <row r="71" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D71" s="45"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50">
+        <v>30</v>
+      </c>
+      <c r="J71" s="50">
+        <v>0.13539999999999999</v>
+      </c>
+      <c r="K71" s="50">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="L71" s="64">
+        <f>(2*J71*K71)/(J71+K71)</f>
+        <v>6.4809438202247188E-2</v>
+      </c>
+      <c r="M71" s="50">
+        <v>0.10680000000000001</v>
+      </c>
+      <c r="N71" s="50"/>
+      <c r="O71" s="50"/>
+      <c r="P71" s="50"/>
+      <c r="Q71" s="72">
+        <f>M71/M70</f>
+        <v>1.1866666666666668</v>
+      </c>
+      <c r="R71" s="50"/>
+      <c r="T71" s="50">
+        <f>M71</f>
+        <v>0.10680000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D72" s="45"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="50"/>
+      <c r="R72" s="50"/>
+      <c r="T72" s="50"/>
+    </row>
+    <row r="73" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D73" s="45">
+        <v>2124979</v>
+      </c>
+      <c r="E73" s="49">
+        <v>1E-4</v>
+      </c>
+      <c r="F73" s="50">
+        <v>2</v>
+      </c>
+      <c r="G73" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H73" s="50">
+        <v>30</v>
+      </c>
+      <c r="I73" s="50">
+        <v>10</v>
+      </c>
+      <c r="J73" s="50">
+        <v>0.1202</v>
+      </c>
+      <c r="K73" s="50">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L73" s="64">
+        <f>(2*J73*K73)/(J73+K73)</f>
+        <v>5.7744627054361564E-2</v>
+      </c>
+      <c r="M73" s="50">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="N73" s="50">
+        <v>30</v>
+      </c>
+      <c r="O73" s="50">
+        <v>30</v>
+      </c>
+      <c r="P73" s="50"/>
+      <c r="Q73" s="50"/>
+      <c r="R73" s="64">
+        <f>L73</f>
+        <v>5.7744627054361564E-2</v>
+      </c>
+      <c r="T73" s="50"/>
+    </row>
+    <row r="74" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D74" s="45"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50">
+        <v>30</v>
+      </c>
+      <c r="J74" s="50">
+        <v>0.1426</v>
+      </c>
+      <c r="K74" s="50">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="L74" s="64">
+        <f>(2*J74*K74)/(J74+K74)</f>
+        <v>6.8064281900694079E-2</v>
+      </c>
+      <c r="M74" s="50">
+        <v>0.1164</v>
+      </c>
+      <c r="N74" s="50">
+        <v>30</v>
+      </c>
+      <c r="O74" s="50">
+        <v>30</v>
+      </c>
+      <c r="P74" s="50"/>
+      <c r="Q74" s="74">
+        <f>M74/M73</f>
+        <v>1.2188481675392671</v>
+      </c>
+      <c r="R74" s="50"/>
+      <c r="T74" s="50">
+        <f>M74</f>
+        <v>0.1164</v>
+      </c>
+    </row>
+    <row r="75" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D75" s="45"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="50"/>
+      <c r="Q75" s="50"/>
+      <c r="R75" s="50"/>
+      <c r="T75" s="50"/>
+    </row>
+    <row r="76" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D76" s="45"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="50"/>
+      <c r="P76" s="50"/>
+      <c r="Q76" s="50"/>
+      <c r="R76" s="50"/>
+      <c r="T76" s="50"/>
+    </row>
+    <row r="77" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D77" s="45">
+        <v>1975709</v>
+      </c>
+      <c r="E77" s="49">
+        <v>1E-4</v>
+      </c>
+      <c r="F77" s="50">
+        <v>2</v>
+      </c>
+      <c r="G77" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H77" s="50">
+        <v>30</v>
+      </c>
+      <c r="I77" s="50">
+        <v>10</v>
+      </c>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50">
+        <v>25</v>
+      </c>
+      <c r="O77" s="50">
+        <v>30</v>
+      </c>
+      <c r="P77" s="50"/>
+      <c r="Q77" s="50"/>
+      <c r="R77" s="50">
+        <f>L77</f>
+        <v>0</v>
+      </c>
+      <c r="T77" s="50"/>
+    </row>
+    <row r="78" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D78" s="41"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50">
+        <v>30</v>
+      </c>
+      <c r="J78" s="50">
+        <v>0.1431</v>
+      </c>
+      <c r="K78" s="50">
+        <v>4.48E-2</v>
+      </c>
+      <c r="L78" s="64">
+        <f>(2*J78*K78)/(J78+K78)</f>
+        <v>6.8237147418839808E-2</v>
+      </c>
+      <c r="M78" s="50">
+        <v>0.1166</v>
+      </c>
+      <c r="N78" s="50">
+        <v>25</v>
+      </c>
+      <c r="O78" s="50">
+        <v>30</v>
+      </c>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="50"/>
+      <c r="T78" s="50">
+        <f>M78</f>
+        <v>0.1166</v>
+      </c>
+    </row>
+    <row r="79" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D79" s="41"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="P79" s="50"/>
+      <c r="Q79" s="50"/>
+      <c r="R79" s="50"/>
+      <c r="T79" s="50"/>
+    </row>
+    <row r="80" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D80" s="45">
+        <v>1826429</v>
+      </c>
+      <c r="E80" s="49">
+        <v>1E-4</v>
+      </c>
+      <c r="F80" s="50">
+        <v>2</v>
+      </c>
+      <c r="G80" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H80" s="50">
+        <v>30</v>
+      </c>
+      <c r="I80" s="50">
+        <v>10</v>
+      </c>
+      <c r="J80" s="50">
+        <v>0.1202</v>
+      </c>
+      <c r="K80" s="50">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="L80" s="64">
+        <f>(2*J80*K80)/(J80+K80)</f>
+        <v>5.7860012634238796E-2</v>
+      </c>
+      <c r="M80" s="50">
+        <v>9.5600000000000004E-2</v>
+      </c>
+      <c r="N80" s="50">
+        <v>20</v>
+      </c>
+      <c r="O80" s="50">
+        <v>30</v>
+      </c>
+      <c r="P80" s="50"/>
+      <c r="Q80" s="50"/>
+      <c r="R80" s="64">
+        <f>L80</f>
+        <v>5.7860012634238796E-2</v>
+      </c>
+      <c r="T80" s="50"/>
+    </row>
+    <row r="81" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50">
+        <v>3</v>
+      </c>
+      <c r="J81" s="50">
+        <v>0.14269999999999999</v>
+      </c>
+      <c r="K81" s="50">
+        <v>4.48E-2</v>
+      </c>
+      <c r="L81" s="64">
+        <f>(2*J81*K81)/(J81+K81)</f>
+        <v>6.8191573333333325E-2</v>
+      </c>
+      <c r="M81" s="50">
+        <v>0.1164</v>
+      </c>
+      <c r="N81" s="50"/>
+      <c r="O81" s="50"/>
+      <c r="P81" s="50"/>
+      <c r="Q81" s="50"/>
+      <c r="R81" s="50"/>
+      <c r="T81" s="50">
+        <f>M81</f>
+        <v>0.1164</v>
+      </c>
+    </row>
+    <row r="82" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="50"/>
+      <c r="O82" s="50"/>
+      <c r="P82" s="50"/>
+      <c r="Q82" s="50"/>
+      <c r="R82" s="50"/>
+      <c r="T82" s="50"/>
+    </row>
+    <row r="83" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D83" s="45">
+        <v>1770877</v>
+      </c>
+      <c r="E83" s="49">
+        <v>1E-4</v>
+      </c>
+      <c r="F83" s="50">
+        <v>2</v>
+      </c>
+      <c r="G83" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H83" s="50">
+        <v>30</v>
+      </c>
+      <c r="I83" s="50">
+        <v>10</v>
+      </c>
+      <c r="J83" s="50">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="K83" s="50">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="L83" s="64">
+        <f>(2*J83*K83)/(J83+K83)</f>
+        <v>5.7248148148148145E-2</v>
+      </c>
+      <c r="M83" s="50">
+        <v>9.4E-2</v>
+      </c>
+      <c r="N83" s="50">
+        <v>25</v>
+      </c>
+      <c r="O83" s="50">
+        <v>25</v>
+      </c>
+      <c r="P83" s="50"/>
+      <c r="Q83" s="50"/>
+      <c r="R83" s="64">
+        <f>L83</f>
+        <v>5.7248148148148145E-2</v>
+      </c>
+      <c r="T83" s="50"/>
+    </row>
+    <row r="84" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="J84" s="50">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="K84" s="50">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="L84" s="64">
+        <f>(2*J84*K84)/(J84+K84)</f>
+        <v>6.7914178705189954E-2</v>
+      </c>
+      <c r="M84" s="50">
+        <v>0.1157</v>
+      </c>
+      <c r="R84" s="50"/>
+      <c r="T84" s="50">
+        <f>M84</f>
+        <v>0.1157</v>
+      </c>
+    </row>
+    <row r="85" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="R85" s="50"/>
+      <c r="T85" s="50"/>
+    </row>
+    <row r="86" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="R86" s="50"/>
+      <c r="T86" s="50"/>
+    </row>
+    <row r="87" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D87" s="45">
+        <v>2180519</v>
+      </c>
+      <c r="E87" s="49">
+        <v>1E-4</v>
+      </c>
+      <c r="F87" s="50">
+        <v>2</v>
+      </c>
+      <c r="G87" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H87" s="50">
+        <v>30</v>
+      </c>
+      <c r="I87" s="50">
+        <v>10</v>
+      </c>
+      <c r="J87" s="50">
+        <v>0.1207</v>
+      </c>
+      <c r="K87" s="50">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="L87" s="64">
+        <f>(2*J87*K87)/(J87+K87)</f>
+        <v>5.8148553459119491E-2</v>
+      </c>
+      <c r="M87">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="N87">
+        <v>35</v>
+      </c>
+      <c r="O87">
+        <v>25</v>
+      </c>
+      <c r="R87" s="64">
+        <f>L87</f>
+        <v>5.8148553459119491E-2</v>
+      </c>
+      <c r="T87" s="50"/>
+    </row>
+    <row r="88" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>30</v>
+      </c>
+      <c r="J88" s="50">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="K88" s="50">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="L88" s="64">
+        <f>(2*J88*K88)/(J88+K88)</f>
+        <v>6.8398619957537155E-2</v>
+      </c>
+      <c r="M88">
+        <v>0.1172</v>
+      </c>
+      <c r="T88" s="50">
+        <f>M88</f>
+        <v>0.1172</v>
+      </c>
+    </row>
+    <row r="89" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="T89" s="50"/>
+    </row>
+    <row r="90" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D90" s="75">
+        <v>2590051</v>
+      </c>
+      <c r="E90" s="49">
+        <v>1E-4</v>
+      </c>
+      <c r="F90" s="50">
+        <v>2</v>
+      </c>
+      <c r="G90" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H90" s="50">
+        <v>30</v>
+      </c>
+      <c r="I90" s="50">
+        <v>10</v>
+      </c>
+      <c r="J90" s="50">
+        <v>0.1215</v>
+      </c>
+      <c r="K90" s="50">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="L90" s="64">
+        <f>(2*J90*K90)/(J90+K90)</f>
+        <v>5.858713304184885E-2</v>
+      </c>
+      <c r="M90">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="N90">
+        <v>45</v>
+      </c>
+      <c r="O90">
+        <v>25</v>
+      </c>
+      <c r="R90" s="44">
+        <f>L90</f>
+        <v>5.858713304184885E-2</v>
+      </c>
+      <c r="T90" s="50"/>
+    </row>
+    <row r="91" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="J91" s="50">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="K91" s="50">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="L91" s="64">
+        <f>(2*J91*K91)/(J91+K91)</f>
+        <v>6.8364486975013294E-2</v>
+      </c>
+      <c r="M91">
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="T91" s="50">
+        <f>M91</f>
+        <v>0.11749999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D95" s="50">
+        <v>3408258</v>
+      </c>
+      <c r="E95" s="49">
+        <v>1E-4</v>
+      </c>
+      <c r="F95" s="50">
+        <v>2</v>
+      </c>
+      <c r="G95" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H95" s="50">
+        <v>30</v>
+      </c>
+      <c r="I95" s="50">
+        <v>10</v>
+      </c>
+      <c r="J95" s="50">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="K95" s="50">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="L95" s="64">
+        <f>(2*J95*K95)/(J95+K95)</f>
+        <v>5.8690568394753277E-2</v>
+      </c>
+      <c r="M95" s="50">
+        <v>0.10150000000000001</v>
+      </c>
+      <c r="N95" s="50">
+        <v>65</v>
+      </c>
+      <c r="O95" s="50">
+        <v>25</v>
+      </c>
+      <c r="P95" s="50"/>
+      <c r="Q95" s="50"/>
+      <c r="R95" s="44">
+        <f>L95</f>
+        <v>5.8690568394753277E-2</v>
+      </c>
+      <c r="S95" s="50"/>
+      <c r="T95" s="50"/>
+    </row>
+    <row r="96" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50">
+        <v>30</v>
+      </c>
+      <c r="J96" s="50">
+        <v>0.1411</v>
+      </c>
+      <c r="K96" s="50">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="L96" s="64">
+        <f>(2*J96*K96)/(J96+K96)</f>
+        <v>6.7545444743935312E-2</v>
+      </c>
+      <c r="M96" s="50">
+        <v>0.1169</v>
+      </c>
+      <c r="N96" s="50"/>
+      <c r="O96" s="50"/>
+      <c r="P96" s="50"/>
+      <c r="Q96" s="50"/>
+      <c r="R96" s="50"/>
+      <c r="S96" s="50"/>
+      <c r="T96" s="50">
+        <f>M96</f>
+        <v>0.1169</v>
+      </c>
+    </row>
+    <row r="97" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D97" s="50"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="50"/>
+      <c r="K97" s="50"/>
+      <c r="L97" s="50"/>
+      <c r="M97" s="50"/>
+      <c r="N97" s="50"/>
+      <c r="O97" s="50"/>
+      <c r="P97" s="50"/>
+      <c r="Q97" s="50"/>
+      <c r="R97" s="50"/>
+      <c r="S97" s="50"/>
+      <c r="T97" s="50"/>
+    </row>
+    <row r="98" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D98" s="50"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="50"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="50"/>
+      <c r="P98" s="50"/>
+      <c r="Q98" s="50"/>
+      <c r="R98" s="50"/>
+      <c r="S98" s="50"/>
+      <c r="T98" s="50"/>
+    </row>
+    <row r="99" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D99" s="50">
+        <v>2999338</v>
+      </c>
+      <c r="E99" s="49">
+        <v>1E-4</v>
+      </c>
+      <c r="F99" s="50">
+        <v>2</v>
+      </c>
+      <c r="G99" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H99" s="50">
+        <v>30</v>
+      </c>
+      <c r="I99" s="50">
+        <v>10</v>
+      </c>
+      <c r="J99" s="50">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="K99" s="50">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="L99" s="64">
+        <f>(2*J99*K99)/(J99+K99)</f>
+        <v>5.8852303860523036E-2</v>
+      </c>
+      <c r="M99" s="50">
+        <v>0.1013</v>
+      </c>
+      <c r="N99" s="50">
+        <v>55</v>
+      </c>
+      <c r="O99" s="50">
+        <v>25</v>
+      </c>
+      <c r="P99" s="50"/>
+      <c r="Q99" s="50"/>
+      <c r="R99" s="64">
+        <f>L99</f>
+        <v>5.8852303860523036E-2</v>
+      </c>
+      <c r="S99" s="50"/>
+      <c r="T99" s="50"/>
+    </row>
+    <row r="100" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50">
+        <v>30</v>
+      </c>
+      <c r="J100" s="50">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="K100" s="50">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="L100" s="64">
+        <f>(2*J100*K100)/(J100+K100)</f>
+        <v>6.7729860365198707E-2</v>
+      </c>
+      <c r="M100" s="50">
+        <v>0.1172</v>
+      </c>
+      <c r="N100" s="50"/>
+      <c r="O100" s="50"/>
+      <c r="P100" s="50"/>
+      <c r="Q100" s="50"/>
+      <c r="R100" s="50"/>
+      <c r="S100" s="50"/>
+      <c r="T100" s="50">
+        <f>M100</f>
+        <v>0.1172</v>
+      </c>
+    </row>
+    <row r="104" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D104" s="50">
+        <v>2999338</v>
+      </c>
+      <c r="E104" s="49">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F104" s="50">
+        <v>2</v>
+      </c>
+      <c r="G104" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H104" s="50">
+        <v>30</v>
+      </c>
+      <c r="I104" s="50">
+        <v>10</v>
+      </c>
+      <c r="J104" s="50">
+        <v>0.1221</v>
+      </c>
+      <c r="K104" s="50">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="L104" s="64">
+        <f>(2*J104*K104)/(J104+K104)</f>
+        <v>5.9002360248447204E-2</v>
+      </c>
+      <c r="M104" s="50">
+        <v>0.1018</v>
+      </c>
+      <c r="N104" s="50">
+        <v>55</v>
+      </c>
+      <c r="O104" s="50">
+        <v>25</v>
+      </c>
+      <c r="P104" s="50"/>
+      <c r="Q104" s="50"/>
+      <c r="R104" s="64">
+        <f>L104</f>
+        <v>5.9002360248447204E-2</v>
+      </c>
+      <c r="S104" s="50"/>
+      <c r="T104" s="50"/>
+    </row>
+    <row r="105" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50">
+        <v>30</v>
+      </c>
+      <c r="J105" s="50">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="K105" s="50">
+        <v>4.48E-2</v>
+      </c>
+      <c r="L105" s="64">
+        <f>(2*J105*K105)/(J105+K105)</f>
+        <v>6.8145804382683056E-2</v>
+      </c>
+      <c r="M105" s="50">
+        <v>0.1179</v>
+      </c>
+      <c r="N105" s="50"/>
+      <c r="O105" s="50"/>
+      <c r="P105" s="50"/>
+      <c r="Q105" s="50"/>
+      <c r="R105" s="50"/>
+      <c r="S105" s="50"/>
+      <c r="T105" s="50">
+        <f>M105</f>
+        <v>0.1179</v>
+      </c>
+    </row>
+    <row r="106" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="H106" s="50">
+        <v>150</v>
+      </c>
+      <c r="I106" s="50">
+        <v>110</v>
+      </c>
+      <c r="J106" s="50">
+        <v>0.1593</v>
+      </c>
+      <c r="K106" s="50">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="L106" s="64">
+        <f>(2*J106*K106)/(J106+K106)</f>
+        <v>7.5297123681687436E-2</v>
+      </c>
+      <c r="M106" s="50">
+        <v>0.13159999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D108" s="50">
+        <v>2999338</v>
+      </c>
+      <c r="E108" s="49">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108" s="50">
+        <v>1024</v>
+      </c>
+      <c r="H108" s="50">
+        <v>230</v>
+      </c>
+      <c r="I108" s="50">
+        <v>180</v>
+      </c>
+      <c r="J108" s="50">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="K108" s="50">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="L108" s="64">
+        <f>(2*J108*K108)/(J108+K108)</f>
+        <v>7.597572309151257E-2</v>
+      </c>
+      <c r="M108" s="50">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="N108" s="50">
+        <v>55</v>
+      </c>
+      <c r="O108" s="50">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E51:O51"/>
+    <mergeCell ref="E27:Q27"/>
+    <mergeCell ref="J6:M6"/>
     <mergeCell ref="E5:M5"/>
     <mergeCell ref="E15:M15"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="E37:M37"/>
     <mergeCell ref="E38:M38"/>
-    <mergeCell ref="E47:O47"/>
-    <mergeCell ref="E27:Q27"/>
-    <mergeCell ref="J6:M6"/>
   </mergeCells>
-  <conditionalFormatting sqref="M40:M42">
+  <conditionalFormatting sqref="L70:L96">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L99:L100">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L104:L106">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M42:M43 M40">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M57:M61">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M70:M88 M91">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R70:R87">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R70:R101">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R104:R105">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T70:T91">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T70:T105">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L108">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40:M46">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4336,56 +5678,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:28" ht="27" x14ac:dyDescent="0.35">
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
     </row>
     <row r="4" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67" t="s">
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="67" t="s">
+      <c r="M4" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
     </row>
     <row r="5" spans="3:28" ht="19" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -4445,16 +5787,16 @@
       </c>
     </row>
     <row r="6" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C6" s="64">
+      <c r="C6" s="90">
         <v>1000</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="94">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="94">
         <v>0.1492</v>
       </c>
       <c r="G6" s="7">
@@ -4467,7 +5809,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="68">
+      <c r="M6" s="94">
         <v>0.17549999999999999</v>
       </c>
       <c r="N6" s="1">
@@ -4476,7 +5818,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="68">
+      <c r="R6" s="94">
         <v>0.17549999999999999</v>
       </c>
       <c r="S6" s="1"/>
@@ -4484,12 +5826,12 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C7" s="65"/>
-      <c r="D7" s="68"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="94"/>
       <c r="G7" s="7">
         <v>0.14838999999999999</v>
       </c>
@@ -4504,7 +5846,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="68"/>
+      <c r="M7" s="94"/>
       <c r="N7" s="7">
         <v>0.17444000000000001</v>
       </c>
@@ -4513,7 +5855,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="68"/>
+      <c r="R7" s="94"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
         <v>5.3499999999999999E-2</v>
@@ -4524,7 +5866,7 @@
       </c>
     </row>
     <row r="8" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C8" s="66"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="23">
         <v>2</v>
       </c>
@@ -4566,13 +5908,13 @@
       </c>
     </row>
     <row r="13" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="X13" s="60" t="s">
+      <c r="X13" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="62"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="88"/>
     </row>
     <row r="14" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="X14" s="12" t="s">
@@ -4634,13 +5976,13 @@
       </c>
     </row>
     <row r="18" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="88"/>
       <c r="X18" s="10">
         <v>4</v>
       </c>
@@ -4704,19 +6046,19 @@
         <f>(2*D21*F21)/(D21+F21)</f>
         <v>8.3585657917309999E-2</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="63"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
     </row>
     <row r="22" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
@@ -4779,41 +6121,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
-  <dimension ref="D9:AA104"/>
+  <dimension ref="D9:AA115"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="P108" sqref="P108"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="4:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
-      <c r="N9" s="60" t="s">
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
+      <c r="N9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="62"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="88"/>
     </row>
     <row r="10" spans="4:24" ht="22" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -4989,26 +6330,26 @@
       <c r="S14" s="2"/>
     </row>
     <row r="18" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="62"/>
-      <c r="N18" s="60" t="s">
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="88"/>
+      <c r="N18" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="62"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="88"/>
     </row>
     <row r="19" spans="4:27" ht="22" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
@@ -5377,15 +6718,15 @@
       </c>
     </row>
     <row r="29" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="62"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="88"/>
       <c r="N29" s="38" t="s">
         <v>24</v>
       </c>
@@ -5589,16 +6930,16 @@
       <c r="V36" s="17"/>
     </row>
     <row r="37" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="62"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="88"/>
       <c r="N37" s="19"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -5716,16 +7057,16 @@
       <c r="K42" s="2"/>
     </row>
     <row r="48" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D48" s="60" t="s">
+      <c r="D48" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="62"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="88"/>
     </row>
     <row r="49" spans="4:11" ht="22" x14ac:dyDescent="0.3">
       <c r="D49" s="12" t="s">
@@ -5904,17 +7245,17 @@
       </c>
     </row>
     <row r="76" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D76" s="60" t="s">
+      <c r="D76" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="61"/>
-      <c r="L76" s="62"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="87"/>
+      <c r="J76" s="87"/>
+      <c r="K76" s="87"/>
+      <c r="L76" s="88"/>
     </row>
     <row r="77" spans="4:12" ht="22" x14ac:dyDescent="0.3">
       <c r="D77" s="12" t="s">
@@ -6063,18 +7404,18 @@
       </c>
     </row>
     <row r="91" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D91" s="60" t="s">
+      <c r="D91" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="61"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="61"/>
-      <c r="L91" s="61"/>
-      <c r="M91" s="62"/>
+      <c r="E91" s="87"/>
+      <c r="F91" s="87"/>
+      <c r="G91" s="87"/>
+      <c r="H91" s="87"/>
+      <c r="I91" s="87"/>
+      <c r="J91" s="87"/>
+      <c r="K91" s="87"/>
+      <c r="L91" s="87"/>
+      <c r="M91" s="88"/>
     </row>
     <row r="92" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D92" s="12" t="s">
@@ -6104,13 +7445,13 @@
       <c r="L92" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="M92" s="88" t="s">
+      <c r="M92" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N92" s="85" t="s">
+      <c r="N92" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="O92" s="85" t="s">
+      <c r="O92" s="65" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6235,7 +7576,7 @@
       <c r="M98" s="2"/>
     </row>
     <row r="99" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D99" s="89">
+      <c r="D99" s="10">
         <v>3</v>
       </c>
       <c r="E99" s="9">
@@ -6266,15 +7607,15 @@
       <c r="M99" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="N99" s="90">
+      <c r="N99" s="17">
         <v>45</v>
       </c>
-      <c r="O99" s="90">
+      <c r="O99" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="100" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D100" s="91">
+      <c r="D100" s="66">
         <v>3</v>
       </c>
       <c r="E100" s="9">
@@ -6360,8 +7701,156 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
     </row>
+    <row r="110" spans="4:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="D110" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="E110" s="95"/>
+      <c r="F110" s="95"/>
+      <c r="G110" s="95"/>
+      <c r="H110" s="95"/>
+      <c r="I110" s="95"/>
+      <c r="J110" s="95"/>
+      <c r="K110" s="95"/>
+    </row>
+    <row r="111" spans="4:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="D111" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="4:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="D112" s="10">
+        <v>1</v>
+      </c>
+      <c r="E112" s="9">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="F112" s="9">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="G112" s="9">
+        <v>2.86E-2</v>
+      </c>
+      <c r="H112" s="11">
+        <f>(2*E112*G112)/(E112+G112)</f>
+        <v>3.9418260869565222E-2</v>
+      </c>
+      <c r="I112" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="J112" s="9">
+        <v>470</v>
+      </c>
+      <c r="K112" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="113" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="D113" s="10">
+        <v>2</v>
+      </c>
+      <c r="E113" s="9">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="F113" s="9">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="G113" s="9">
+        <v>2.86E-2</v>
+      </c>
+      <c r="H113" s="11">
+        <f>(2*E113*G113)/(E113+G113)</f>
+        <v>3.9398911860718172E-2</v>
+      </c>
+      <c r="I113" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="J113" s="9">
+        <v>460</v>
+      </c>
+      <c r="K113" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="D114" s="10">
+        <v>3</v>
+      </c>
+      <c r="E114" s="9">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="F114" s="9">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="G114" s="14">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="H114" s="11">
+        <f>(2*E114*G114)/(E114+G114)</f>
+        <v>3.6476470588235291E-2</v>
+      </c>
+      <c r="I114" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="J114" s="9">
+        <v>410</v>
+      </c>
+      <c r="K114" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="115" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="D115" s="10">
+        <v>3</v>
+      </c>
+      <c r="E115" s="14">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="F115" s="14">
+        <v>5.16E-2</v>
+      </c>
+      <c r="G115" s="9">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="H115" s="11">
+        <f>(2*E115*G115)/(E115+G115)</f>
+        <v>3.9092864983534578E-2</v>
+      </c>
+      <c r="I115" s="33">
+        <v>1E-4</v>
+      </c>
+      <c r="J115" s="9">
+        <v>460</v>
+      </c>
+      <c r="K115" s="9">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="D110:K110"/>
+    <mergeCell ref="D91:M91"/>
     <mergeCell ref="N9:S9"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="D18:J18"/>
@@ -6370,7 +7859,6 @@
     <mergeCell ref="D37:K37"/>
     <mergeCell ref="D48:K48"/>
     <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D91:M91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6414,16 +7902,16 @@
       </c>
     </row>
     <row r="8" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
       <c r="T8" s="20">
         <f>P6/T6</f>
         <v>0.4025473933649289</v>
@@ -6588,13 +8076,13 @@
       </c>
     </row>
     <row r="24" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
     </row>
     <row r="25" spans="5:9" ht="22" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
@@ -6678,20 +8166,20 @@
       </c>
     </row>
     <row r="36" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="62"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="88"/>
     </row>
     <row r="37" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E37" s="12" t="s">
@@ -7111,33 +8599,33 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E92C1B-7A6F-A542-90FD-1DA37706EDAB}">
-  <dimension ref="F6:R38"/>
+  <dimension ref="F6:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="18" max="18" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="43.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="62"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="88"/>
     </row>
     <row r="7" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F7" s="12" t="s">
@@ -7176,7 +8664,7 @@
       <c r="Q7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="88" t="s">
+      <c r="R7" s="12" t="s">
         <v>91</v>
       </c>
     </row>
@@ -7235,7 +8723,7 @@
       <c r="Q9" s="9">
         <v>10</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7277,7 +8765,7 @@
       <c r="Q10" s="9">
         <v>10</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7319,7 +8807,7 @@
       <c r="Q11" s="9">
         <v>10</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7361,7 +8849,7 @@
       <c r="Q12" s="9">
         <v>15</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7403,7 +8891,7 @@
       <c r="Q13" s="9">
         <v>20</v>
       </c>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7445,7 +8933,7 @@
       <c r="Q14" s="48">
         <v>25</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7487,7 +8975,7 @@
       <c r="Q15" s="48">
         <v>30</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7529,7 +9017,7 @@
       <c r="Q16" s="48">
         <v>35</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7571,91 +9059,64 @@
       <c r="Q17" s="48">
         <v>30</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="R17" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="108"/>
+    </row>
+    <row r="19" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F19" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="62"/>
-    </row>
-    <row r="19" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F19" s="10">
-        <v>2</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.18290000000000001</v>
-      </c>
-      <c r="H19" s="9">
-        <v>4.9299999999999997E-2</v>
-      </c>
-      <c r="I19" s="9">
-        <f>(2*G19*H19)/(G19+H19)</f>
-        <v>7.7665546942291122E-2</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0.12939999999999999</v>
-      </c>
-      <c r="K19" s="9">
-        <v>200</v>
-      </c>
-      <c r="L19" s="9">
-        <v>450</v>
-      </c>
-      <c r="M19" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N19" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O19" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="P19" s="48">
-        <v>15</v>
-      </c>
-      <c r="Q19" s="48">
-        <v>30</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="88"/>
     </row>
     <row r="20" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F20" s="10">
         <v>2</v>
       </c>
       <c r="G20" s="9">
-        <v>0.28770000000000001</v>
+        <v>0.18290000000000001</v>
       </c>
       <c r="H20" s="9">
-        <v>8.0600000000000005E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
       <c r="I20" s="9">
-        <f>(2*G20*H20)/(G20+H20)</f>
-        <v>0.12592245452077114</v>
+        <f t="shared" ref="I20:I27" si="3">(2*G20*H20)/(G20+H20)</f>
+        <v>7.7665546942291122E-2</v>
       </c>
       <c r="J20" s="14">
-        <v>0.224</v>
+        <v>0.12939999999999999</v>
       </c>
       <c r="K20" s="9">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="L20" s="9">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="M20" s="33">
         <v>1E-3</v>
@@ -7672,29 +9133,29 @@
       <c r="Q20" s="48">
         <v>30</v>
       </c>
-      <c r="R20" s="2" t="s">
-        <v>96</v>
+      <c r="R20" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F21" s="10">
         <v>2</v>
       </c>
-      <c r="G21" s="14">
-        <v>0.28699999999999998</v>
+      <c r="G21" s="9">
+        <v>0.28770000000000001</v>
       </c>
       <c r="H21" s="9">
-        <v>8.0100000000000005E-2</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="I21" s="9">
-        <f>(2*G21*H21)/(G21+H21)</f>
-        <v>0.12524489239989106</v>
+        <f t="shared" si="3"/>
+        <v>0.12592245452077114</v>
       </c>
       <c r="J21" s="14">
-        <v>0.22409999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="K21" s="9">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L21" s="9">
         <v>1000</v>
@@ -7714,59 +9175,119 @@
       <c r="Q21" s="48">
         <v>30</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F22" s="10">
+        <v>2</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="H22" s="9">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12524489239989106</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="K22" s="9">
+        <v>950</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N22" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="48">
+        <v>30</v>
+      </c>
+      <c r="R22" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F22" s="10"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+    <row r="23" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F23" s="10">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="H23" s="9">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12004651826484017</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.216</v>
+      </c>
+      <c r="K23" s="9">
+        <v>990</v>
+      </c>
+      <c r="L23" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M23" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N23" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="48">
+        <v>30</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="24" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F24" s="10">
-        <v>4</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="e">
-        <f t="shared" ref="I24" si="3">(2*G24*H24)/(G24+H24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="43">
-        <v>160</v>
+        <v>2</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="H24" s="9">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12567823960880198</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0.22489999999999999</v>
+      </c>
+      <c r="K24" s="9">
+        <v>910</v>
       </c>
       <c r="L24" s="9">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="M24" s="33">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="N24" s="48" t="s">
         <v>79</v>
@@ -7774,137 +9295,482 @@
       <c r="O24" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="28" spans="6:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="F28" s="86" t="s">
+      <c r="P24" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="48">
+        <v>30</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F25" s="10">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.28060000000000002</v>
+      </c>
+      <c r="H25" s="9">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12292357361536323</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="K25" s="9">
+        <v>830</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M25" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O25" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="48">
+        <v>30</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F26" s="10">
+        <v>2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="H26" s="9">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12198058906030855</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="K26" s="9">
+        <v>950</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M26" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N26" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O26" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>30</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F27" s="10">
+        <v>3</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.2883</v>
+      </c>
+      <c r="H27" s="9">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12561307650569722</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="K27" s="9">
+        <v>950</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M27" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N27" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O27" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>30</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F28" s="10">
+        <v>4</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.2838</v>
+      </c>
+      <c r="H28" s="9">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" ref="I28:I31" si="4">(2*G28*H28)/(G28+H28)</f>
+        <v>0.12384000000000001</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0.2165</v>
+      </c>
+      <c r="K28" s="43">
+        <v>980</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M28" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N28" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O28" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="48">
+        <v>30</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F29" s="97"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="98"/>
+    </row>
+    <row r="31" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F31" s="10">
+        <v>2</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.2838</v>
+      </c>
+      <c r="H31" s="9">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="4"/>
+        <v>0.1243284534947716</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N31" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>35</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F32" s="10">
+        <v>3</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="H32" s="9">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" ref="I32" si="5">(2*G32*H32)/(G32+H32)</f>
+        <v>0.1229139755011136</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="K32" s="9">
+        <v>950</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N32" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O32" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>35</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F33" s="10">
+        <v>4</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="H33" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" ref="I33" si="6">(2*G33*H33)/(G33+H33)</f>
+        <v>0.12029334849346218</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M33" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N33" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="O33" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>35</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F34" s="67"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+    </row>
+    <row r="36" spans="6:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="F36" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-    </row>
-    <row r="29" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F29" s="10">
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+    </row>
+    <row r="37" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F37" s="10">
         <v>2</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G37" s="9">
         <v>0.2757</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H37" s="9">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="I29" s="9">
-        <f t="shared" ref="I29" si="4">(2*G29*H29)/(G29+H29)</f>
+      <c r="I37" s="9">
+        <f t="shared" ref="I37" si="7">(2*G37*H37)/(G37+H37)</f>
         <v>0.1214764140271493</v>
       </c>
-      <c r="J29" s="87">
+      <c r="J37" s="9">
         <v>0.22009999999999999</v>
       </c>
-      <c r="K29" s="87">
+      <c r="K37" s="9">
         <v>980</v>
       </c>
-      <c r="L29" s="87">
+      <c r="L37" s="9">
         <v>1000</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M37" s="33">
         <v>1E-3</v>
       </c>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-    </row>
-    <row r="30" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="J36">
-        <v>0.22489999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="J37">
-        <f>J36-J29</f>
-        <v>4.7999999999999987E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="J38" s="20">
-        <f>J37/J29</f>
-        <v>2.180826896865061E-2</v>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+    </row>
+    <row r="38" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="44" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="J44" s="14">
+        <f>J24-J31</f>
+        <v>1.5000000000000013E-3</v>
+      </c>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="J45" s="9">
+        <f>J27-J32</f>
+        <v>3.2999999999999974E-3</v>
+      </c>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="J46" s="9">
+        <f>J28-J33</f>
+        <v>3.2000000000000084E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F28:Q28"/>
-    <mergeCell ref="F18:R18"/>
+    <mergeCell ref="F36:Q36"/>
+    <mergeCell ref="F19:R19"/>
     <mergeCell ref="F6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -7916,7 +9782,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J22">
+  <conditionalFormatting sqref="J20:J25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -7928,7 +9806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+  <conditionalFormatting sqref="J20:J33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7940,7 +9818,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
+  <conditionalFormatting sqref="J28:J29">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:J46">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/exp/Sim_20241213.xlsx
+++ b/exp/Sim_20241213.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920DD79D-A30A-AA46-9DDF-7FE7F617C32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56D1FC-3E86-CB4C-9927-2672EF6A3218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2460" windowWidth="33720" windowHeight="14340" activeTab="7" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="2280" yWindow="2460" windowWidth="33720" windowHeight="14340" activeTab="2" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -3279,10 +3279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82757750-2341-5941-B5A9-350C8E89CB41}">
-  <dimension ref="D5:T108"/>
+  <dimension ref="D5:T109"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5462,6 +5462,45 @@
         <v>55</v>
       </c>
       <c r="O108" s="50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="4:20" ht="19" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>2590051</v>
+      </c>
+      <c r="E109" s="28">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>1024</v>
+      </c>
+      <c r="H109" s="50">
+        <v>110</v>
+      </c>
+      <c r="I109" s="50">
+        <v>180</v>
+      </c>
+      <c r="J109" s="64">
+        <v>0.16</v>
+      </c>
+      <c r="K109" s="50">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="L109" s="64">
+        <f>(2*J109*K109)/(J109+K109)</f>
+        <v>7.5608591885441515E-2</v>
+      </c>
+      <c r="M109" s="50">
+        <v>0.1318</v>
+      </c>
+      <c r="N109" s="50">
+        <v>55</v>
+      </c>
+      <c r="O109" s="50">
         <v>25</v>
       </c>
     </row>
@@ -5500,7 +5539,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L104:L106">
+  <conditionalFormatting sqref="L104:L106 L109">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8601,8 +8640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E92C1B-7A6F-A542-90FD-1DA37706EDAB}">
   <dimension ref="F6:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/exp/Sim_20241213.xlsx
+++ b/exp/Sim_20241213.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56D1FC-3E86-CB4C-9927-2672EF6A3218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A532C9B6-FC31-684A-A347-52D38551DB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2460" windowWidth="33720" windowHeight="14340" activeTab="2" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="2280" yWindow="2460" windowWidth="33720" windowHeight="18200" activeTab="5" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -617,7 +617,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -745,6 +745,17 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -805,26 +816,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2107,7 +2099,7 @@
   <dimension ref="B4:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2664,10 +2656,18 @@
     <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
+      <c r="E18" s="104">
+        <f>E9*0.8</f>
+        <v>1249124.8</v>
+      </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
+      <c r="E19" s="104">
+        <f>E18*2</f>
+        <v>2498249.6</v>
+      </c>
     </row>
     <row r="20" spans="3:13" ht="22" x14ac:dyDescent="0.3">
       <c r="M20" s="22"/>
@@ -2709,18 +2709,18 @@
   </cols>
   <sheetData>
     <row r="10" spans="5:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="79"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="86"/>
       <c r="Q10" s="6" t="s">
         <v>58</v>
       </c>
@@ -2883,18 +2883,18 @@
       <c r="N16" s="2"/>
     </row>
     <row r="18" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="79"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="86"/>
       <c r="Q18" s="6" t="s">
         <v>51</v>
       </c>
@@ -3112,18 +3112,18 @@
       </c>
     </row>
     <row r="26" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E26" s="77" t="s">
+      <c r="E26" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="79"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E27" s="31"/>
@@ -3281,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82757750-2341-5941-B5A9-350C8E89CB41}">
   <dimension ref="D5:T109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="N109" sqref="N109"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3296,17 +3296,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
     </row>
     <row r="6" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E6" s="36"/>
@@ -3314,12 +3314,12 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E7" s="37" t="s">
@@ -3471,17 +3471,17 @@
       </c>
     </row>
     <row r="15" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E15" s="80" t="s">
+      <c r="E15" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
     </row>
     <row r="16" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E16" s="36"/>
@@ -3489,12 +3489,12 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="81" t="s">
+      <c r="J16" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
     </row>
     <row r="17" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E17" s="37" t="s">
@@ -3650,21 +3650,21 @@
       <c r="M22" s="9"/>
     </row>
     <row r="27" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
     </row>
     <row r="28" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E28" s="37" t="s">
@@ -3806,30 +3806,30 @@
       <c r="Q33" s="9"/>
     </row>
     <row r="37" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E37" s="80" t="s">
+      <c r="E37" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
     </row>
     <row r="38" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E38" s="82" t="s">
+      <c r="E38" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="84"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="91"/>
     </row>
     <row r="39" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D39" s="73" t="s">
@@ -4128,19 +4128,19 @@
       <c r="M49" s="46"/>
     </row>
     <row r="51" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E51" s="80" t="s">
+      <c r="E51" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="80"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="87"/>
     </row>
     <row r="52" spans="5:16" ht="22" x14ac:dyDescent="0.3">
       <c r="E52" s="37" t="s">
@@ -5516,6 +5516,114 @@
     <mergeCell ref="E38:M38"/>
   </mergeCells>
   <conditionalFormatting sqref="L70:L96">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L99:L100">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L104:L106 L109">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L108">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40:M46">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M42:M43 M40">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M57:M61">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M70:M88 M91">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M70:M109">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R70:R87">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5527,7 +5635,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L99:L100">
+  <conditionalFormatting sqref="R70:R101">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R104:R105">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5539,55 +5659,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L104:L106 L109">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M42:M43 M40">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M57:M61">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M70:M88 M91">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R70:R87">
+  <conditionalFormatting sqref="T70:T91">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5599,68 +5671,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R70:R101">
+  <conditionalFormatting sqref="T70:T105">
     <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R104:R105">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T70:T91">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T70:T105">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L108">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M40:M46">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5717,56 +5729,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:28" ht="27" x14ac:dyDescent="0.35">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
     </row>
     <row r="4" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93" t="s">
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
     </row>
     <row r="5" spans="3:28" ht="19" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -5826,16 +5838,16 @@
       </c>
     </row>
     <row r="6" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C6" s="90">
+      <c r="C6" s="97">
         <v>1000</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="101">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="94">
+      <c r="F6" s="101">
         <v>0.1492</v>
       </c>
       <c r="G6" s="7">
@@ -5848,7 +5860,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="94">
+      <c r="M6" s="101">
         <v>0.17549999999999999</v>
       </c>
       <c r="N6" s="1">
@@ -5857,7 +5869,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="94">
+      <c r="R6" s="101">
         <v>0.17549999999999999</v>
       </c>
       <c r="S6" s="1"/>
@@ -5865,12 +5877,12 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C7" s="91"/>
-      <c r="D7" s="94"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="94"/>
+      <c r="F7" s="101"/>
       <c r="G7" s="7">
         <v>0.14838999999999999</v>
       </c>
@@ -5885,7 +5897,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="94"/>
+      <c r="M7" s="101"/>
       <c r="N7" s="7">
         <v>0.17444000000000001</v>
       </c>
@@ -5894,7 +5906,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="94"/>
+      <c r="R7" s="101"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
         <v>5.3499999999999999E-2</v>
@@ -5905,7 +5917,7 @@
       </c>
     </row>
     <row r="8" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C8" s="92"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="23">
         <v>2</v>
       </c>
@@ -5947,13 +5959,13 @@
       </c>
     </row>
     <row r="13" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="X13" s="86" t="s">
+      <c r="X13" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="88"/>
+      <c r="Y13" s="94"/>
+      <c r="Z13" s="94"/>
+      <c r="AA13" s="94"/>
+      <c r="AB13" s="95"/>
     </row>
     <row r="14" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="X14" s="12" t="s">
@@ -6015,13 +6027,13 @@
       </c>
     </row>
     <row r="18" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="88"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="95"/>
       <c r="X18" s="10">
         <v>4</v>
       </c>
@@ -6085,19 +6097,19 @@
         <f>(2*D21*F21)/(D21+F21)</f>
         <v>8.3585657917309999E-2</v>
       </c>
-      <c r="J21" s="89" t="s">
+      <c r="J21" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
     </row>
     <row r="22" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
@@ -6162,8 +6174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
   <dimension ref="D9:AA115"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="K122" sqref="K122"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6179,21 +6191,21 @@
   </cols>
   <sheetData>
     <row r="9" spans="4:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="N9" s="86" t="s">
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
+      <c r="N9" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="88"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="95"/>
     </row>
     <row r="10" spans="4:24" ht="22" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -6369,26 +6381,26 @@
       <c r="S14" s="2"/>
     </row>
     <row r="18" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="88"/>
-      <c r="N18" s="86" t="s">
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95"/>
+      <c r="N18" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="88"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="95"/>
     </row>
     <row r="19" spans="4:27" ht="22" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
@@ -6757,15 +6769,15 @@
       </c>
     </row>
     <row r="29" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="88"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="95"/>
       <c r="N29" s="38" t="s">
         <v>24</v>
       </c>
@@ -6969,16 +6981,16 @@
       <c r="V36" s="17"/>
     </row>
     <row r="37" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D37" s="86" t="s">
+      <c r="D37" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="88"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="95"/>
       <c r="N37" s="19"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -7096,16 +7108,16 @@
       <c r="K42" s="2"/>
     </row>
     <row r="48" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D48" s="86" t="s">
+      <c r="D48" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="88"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
+      <c r="H48" s="94"/>
+      <c r="I48" s="94"/>
+      <c r="J48" s="94"/>
+      <c r="K48" s="95"/>
     </row>
     <row r="49" spans="4:11" ht="22" x14ac:dyDescent="0.3">
       <c r="D49" s="12" t="s">
@@ -7284,17 +7296,17 @@
       </c>
     </row>
     <row r="76" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D76" s="86" t="s">
+      <c r="D76" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="E76" s="87"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="87"/>
-      <c r="J76" s="87"/>
-      <c r="K76" s="87"/>
-      <c r="L76" s="88"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="94"/>
+      <c r="G76" s="94"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="94"/>
+      <c r="K76" s="94"/>
+      <c r="L76" s="95"/>
     </row>
     <row r="77" spans="4:12" ht="22" x14ac:dyDescent="0.3">
       <c r="D77" s="12" t="s">
@@ -7443,18 +7455,18 @@
       </c>
     </row>
     <row r="91" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D91" s="86" t="s">
+      <c r="D91" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="E91" s="87"/>
-      <c r="F91" s="87"/>
-      <c r="G91" s="87"/>
-      <c r="H91" s="87"/>
-      <c r="I91" s="87"/>
-      <c r="J91" s="87"/>
-      <c r="K91" s="87"/>
-      <c r="L91" s="87"/>
-      <c r="M91" s="88"/>
+      <c r="E91" s="94"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="94"/>
+      <c r="H91" s="94"/>
+      <c r="I91" s="94"/>
+      <c r="J91" s="94"/>
+      <c r="K91" s="94"/>
+      <c r="L91" s="94"/>
+      <c r="M91" s="95"/>
     </row>
     <row r="92" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D92" s="12" t="s">
@@ -7741,16 +7753,16 @@
       <c r="M104" s="2"/>
     </row>
     <row r="110" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D110" s="95" t="s">
+      <c r="D110" s="102" t="s">
         <v>102</v>
       </c>
-      <c r="E110" s="95"/>
-      <c r="F110" s="95"/>
-      <c r="G110" s="95"/>
-      <c r="H110" s="95"/>
-      <c r="I110" s="95"/>
-      <c r="J110" s="95"/>
-      <c r="K110" s="95"/>
+      <c r="E110" s="102"/>
+      <c r="F110" s="102"/>
+      <c r="G110" s="102"/>
+      <c r="H110" s="102"/>
+      <c r="I110" s="102"/>
+      <c r="J110" s="102"/>
+      <c r="K110" s="102"/>
     </row>
     <row r="111" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D111" s="12" t="s">
@@ -7941,16 +7953,16 @@
       </c>
     </row>
     <row r="8" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="88"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="95"/>
       <c r="T8" s="20">
         <f>P6/T6</f>
         <v>0.4025473933649289</v>
@@ -8115,13 +8127,13 @@
       </c>
     </row>
     <row r="24" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E24" s="86" t="s">
+      <c r="E24" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="95"/>
     </row>
     <row r="25" spans="5:9" ht="22" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
@@ -8205,20 +8217,20 @@
       </c>
     </row>
     <row r="36" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E36" s="86" t="s">
+      <c r="E36" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="88"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="95"/>
     </row>
     <row r="37" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E37" s="12" t="s">
@@ -8650,21 +8662,21 @@
   </cols>
   <sheetData>
     <row r="6" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="88"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="95"/>
     </row>
     <row r="7" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F7" s="12" t="s">
@@ -9103,36 +9115,36 @@
       </c>
     </row>
     <row r="18" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F18" s="103"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="108"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="83"/>
     </row>
     <row r="19" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="88"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
     </row>
     <row r="20" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F20" s="10">
@@ -9513,19 +9525,19 @@
       </c>
     </row>
     <row r="29" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F29" s="97"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="98"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="46"/>
     </row>
     <row r="31" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F31" s="10">
@@ -9669,20 +9681,20 @@
       <c r="R34" s="46"/>
     </row>
     <row r="36" spans="6:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="F36" s="96" t="s">
+      <c r="F36" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
     </row>
     <row r="37" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F37" s="10">

--- a/exp/Sim_20241213.xlsx
+++ b/exp/Sim_20241213.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A532C9B6-FC31-684A-A347-52D38551DB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C68BE1-461E-924E-A976-970A04973630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2460" windowWidth="33720" windowHeight="18200" activeTab="5" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="2280" yWindow="2460" windowWidth="33720" windowHeight="10980" activeTab="8" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="yelp2018" sheetId="2" r:id="rId6"/>
     <sheet name="amazon-book" sheetId="8" r:id="rId7"/>
     <sheet name="lasfm" sheetId="10" r:id="rId8"/>
+    <sheet name="ml-100k" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="107">
   <si>
     <t>Paper value</t>
   </si>
@@ -358,6 +359,12 @@
   </si>
   <si>
     <t>#edges</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>LightGCN replica</t>
   </si>
 </sst>
 </file>
@@ -617,7 +624,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -756,6 +763,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,7 +824,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2099,7 +2109,7 @@
   <dimension ref="B4:T26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2656,7 +2666,7 @@
     <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="104">
+      <c r="E18" s="84">
         <f>E9*0.8</f>
         <v>1249124.8</v>
       </c>
@@ -2664,7 +2674,7 @@
     <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="104">
+      <c r="E19" s="84">
         <f>E18*2</f>
         <v>2498249.6</v>
       </c>
@@ -2709,18 +2719,18 @@
   </cols>
   <sheetData>
     <row r="10" spans="5:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="87"/>
       <c r="Q10" s="6" t="s">
         <v>58</v>
       </c>
@@ -2883,18 +2893,18 @@
       <c r="N16" s="2"/>
     </row>
     <row r="18" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="87"/>
       <c r="Q18" s="6" t="s">
         <v>51</v>
       </c>
@@ -3112,18 +3122,18 @@
       </c>
     </row>
     <row r="26" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="87"/>
     </row>
     <row r="27" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E27" s="31"/>
@@ -3281,7 +3291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82757750-2341-5941-B5A9-350C8E89CB41}">
   <dimension ref="D5:T109"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
@@ -3296,17 +3306,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
     </row>
     <row r="6" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E6" s="36"/>
@@ -3314,12 +3324,12 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="88" t="s">
+      <c r="J6" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
     </row>
     <row r="7" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E7" s="37" t="s">
@@ -3471,17 +3481,17 @@
       </c>
     </row>
     <row r="15" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
     </row>
     <row r="16" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E16" s="36"/>
@@ -3489,12 +3499,12 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="88" t="s">
+      <c r="J16" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
     </row>
     <row r="17" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E17" s="37" t="s">
@@ -3650,21 +3660,21 @@
       <c r="M22" s="9"/>
     </row>
     <row r="27" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E27" s="88" t="s">
+      <c r="E27" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
     </row>
     <row r="28" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E28" s="37" t="s">
@@ -3806,30 +3816,30 @@
       <c r="Q33" s="9"/>
     </row>
     <row r="37" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
     </row>
     <row r="38" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E38" s="89" t="s">
+      <c r="E38" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="92"/>
     </row>
     <row r="39" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D39" s="73" t="s">
@@ -4128,19 +4138,19 @@
       <c r="M49" s="46"/>
     </row>
     <row r="51" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E51" s="87" t="s">
+      <c r="E51" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="88"/>
     </row>
     <row r="52" spans="5:16" ht="22" x14ac:dyDescent="0.3">
       <c r="E52" s="37" t="s">
@@ -5729,56 +5739,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:28" ht="27" x14ac:dyDescent="0.35">
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
     </row>
     <row r="4" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="100" t="s">
+      <c r="M4" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="100" t="s">
+      <c r="R4" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
     </row>
     <row r="5" spans="3:28" ht="19" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -5838,16 +5848,16 @@
       </c>
     </row>
     <row r="6" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C6" s="97">
+      <c r="C6" s="98">
         <v>1000</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="102">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="101">
+      <c r="F6" s="102">
         <v>0.1492</v>
       </c>
       <c r="G6" s="7">
@@ -5860,7 +5870,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="101">
+      <c r="M6" s="102">
         <v>0.17549999999999999</v>
       </c>
       <c r="N6" s="1">
@@ -5869,7 +5879,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="101">
+      <c r="R6" s="102">
         <v>0.17549999999999999</v>
       </c>
       <c r="S6" s="1"/>
@@ -5877,12 +5887,12 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C7" s="98"/>
-      <c r="D7" s="101"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="101"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="7">
         <v>0.14838999999999999</v>
       </c>
@@ -5897,7 +5907,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="101"/>
+      <c r="M7" s="102"/>
       <c r="N7" s="7">
         <v>0.17444000000000001</v>
       </c>
@@ -5906,7 +5916,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="101"/>
+      <c r="R7" s="102"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
         <v>5.3499999999999999E-2</v>
@@ -5917,7 +5927,7 @@
       </c>
     </row>
     <row r="8" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C8" s="99"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="23">
         <v>2</v>
       </c>
@@ -5959,13 +5969,13 @@
       </c>
     </row>
     <row r="13" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="X13" s="93" t="s">
+      <c r="X13" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="96"/>
     </row>
     <row r="14" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="X14" s="12" t="s">
@@ -6027,13 +6037,13 @@
       </c>
     </row>
     <row r="18" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
       <c r="X18" s="10">
         <v>4</v>
       </c>
@@ -6097,19 +6107,19 @@
         <f>(2*D21*F21)/(D21+F21)</f>
         <v>8.3585657917309999E-2</v>
       </c>
-      <c r="J21" s="96" t="s">
+      <c r="J21" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="96"/>
-      <c r="L21" s="96"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
     </row>
     <row r="22" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
@@ -6174,8 +6184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
   <dimension ref="D9:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6191,21 +6201,21 @@
   </cols>
   <sheetData>
     <row r="9" spans="4:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="95"/>
-      <c r="N9" s="93" t="s">
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="96"/>
+      <c r="N9" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="95"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="96"/>
     </row>
     <row r="10" spans="4:24" ht="22" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -6381,26 +6391,26 @@
       <c r="S14" s="2"/>
     </row>
     <row r="18" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D18" s="93" t="s">
+      <c r="D18" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="95"/>
-      <c r="N18" s="93" t="s">
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="96"/>
+      <c r="N18" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="96"/>
     </row>
     <row r="19" spans="4:27" ht="22" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
@@ -6769,15 +6779,15 @@
       </c>
     </row>
     <row r="29" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="96"/>
       <c r="N29" s="38" t="s">
         <v>24</v>
       </c>
@@ -6981,16 +6991,16 @@
       <c r="V36" s="17"/>
     </row>
     <row r="37" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D37" s="93" t="s">
+      <c r="D37" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="96"/>
       <c r="N37" s="19"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -7108,16 +7118,16 @@
       <c r="K42" s="2"/>
     </row>
     <row r="48" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D48" s="93" t="s">
+      <c r="D48" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-      <c r="K48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="96"/>
     </row>
     <row r="49" spans="4:11" ht="22" x14ac:dyDescent="0.3">
       <c r="D49" s="12" t="s">
@@ -7296,17 +7306,17 @@
       </c>
     </row>
     <row r="76" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D76" s="93" t="s">
+      <c r="D76" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="E76" s="94"/>
-      <c r="F76" s="94"/>
-      <c r="G76" s="94"/>
-      <c r="H76" s="94"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="94"/>
-      <c r="K76" s="94"/>
-      <c r="L76" s="95"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="95"/>
+      <c r="H76" s="95"/>
+      <c r="I76" s="95"/>
+      <c r="J76" s="95"/>
+      <c r="K76" s="95"/>
+      <c r="L76" s="96"/>
     </row>
     <row r="77" spans="4:12" ht="22" x14ac:dyDescent="0.3">
       <c r="D77" s="12" t="s">
@@ -7455,18 +7465,18 @@
       </c>
     </row>
     <row r="91" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D91" s="93" t="s">
+      <c r="D91" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="E91" s="94"/>
-      <c r="F91" s="94"/>
-      <c r="G91" s="94"/>
-      <c r="H91" s="94"/>
-      <c r="I91" s="94"/>
-      <c r="J91" s="94"/>
-      <c r="K91" s="94"/>
-      <c r="L91" s="94"/>
-      <c r="M91" s="95"/>
+      <c r="E91" s="95"/>
+      <c r="F91" s="95"/>
+      <c r="G91" s="95"/>
+      <c r="H91" s="95"/>
+      <c r="I91" s="95"/>
+      <c r="J91" s="95"/>
+      <c r="K91" s="95"/>
+      <c r="L91" s="95"/>
+      <c r="M91" s="96"/>
     </row>
     <row r="92" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D92" s="12" t="s">
@@ -7753,16 +7763,16 @@
       <c r="M104" s="2"/>
     </row>
     <row r="110" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D110" s="102" t="s">
+      <c r="D110" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="E110" s="102"/>
-      <c r="F110" s="102"/>
-      <c r="G110" s="102"/>
-      <c r="H110" s="102"/>
-      <c r="I110" s="102"/>
-      <c r="J110" s="102"/>
-      <c r="K110" s="102"/>
+      <c r="E110" s="103"/>
+      <c r="F110" s="103"/>
+      <c r="G110" s="103"/>
+      <c r="H110" s="103"/>
+      <c r="I110" s="103"/>
+      <c r="J110" s="103"/>
+      <c r="K110" s="103"/>
     </row>
     <row r="111" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D111" s="12" t="s">
@@ -7919,8 +7929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40676F58-3295-4B44-9129-9CAFD6F49D33}">
   <dimension ref="E6:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:P48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7953,16 +7963,16 @@
       </c>
     </row>
     <row r="8" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="96"/>
       <c r="T8" s="20">
         <f>P6/T6</f>
         <v>0.4025473933649289</v>
@@ -8127,13 +8137,13 @@
       </c>
     </row>
     <row r="24" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E24" s="93" t="s">
+      <c r="E24" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="96"/>
     </row>
     <row r="25" spans="5:9" ht="22" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
@@ -8217,20 +8227,20 @@
       </c>
     </row>
     <row r="36" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E36" s="93" t="s">
+      <c r="E36" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="96"/>
     </row>
     <row r="37" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E37" s="12" t="s">
@@ -8652,7 +8662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E92C1B-7A6F-A542-90FD-1DA37706EDAB}">
   <dimension ref="F6:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
@@ -8662,21 +8672,21 @@
   </cols>
   <sheetData>
     <row r="6" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="96"/>
     </row>
     <row r="7" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F7" s="12" t="s">
@@ -9130,21 +9140,21 @@
       <c r="R18" s="83"/>
     </row>
     <row r="19" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="96"/>
     </row>
     <row r="20" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F20" s="10">
@@ -9681,20 +9691,20 @@
       <c r="R34" s="46"/>
     </row>
     <row r="36" spans="6:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="F36" s="103" t="s">
+      <c r="F36" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="104"/>
+      <c r="N36" s="104"/>
+      <c r="O36" s="104"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
     </row>
     <row r="37" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F37" s="10">
@@ -9895,4 +9905,150 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74A1973-828D-9C45-B90B-5490793AE67B}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H7" s="103" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H10" s="10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11" t="e">
+        <f>(2*I10*K10)/(I10+K10)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H11" s="10">
+        <v>3</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H12" s="10">
+        <v>3</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.3614</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="K12" s="14">
+        <f>(2*I12*J12)/(I12+J12)</f>
+        <v>0.32951496537187597</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="M12" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H13" s="10">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="K13" s="14">
+        <f>(2*I13*J13)/(I13+J13)</f>
+        <v>0.31929028447069796</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0.42820000000000003</v>
+      </c>
+      <c r="M13" s="33">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H14" s="10">
+        <v>4</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="11" t="e">
+        <f>(2*I14*K14)/(I14+K14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H7:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exp/Sim_20241213.xlsx
+++ b/exp/Sim_20241213.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C68BE1-461E-924E-A976-970A04973630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266BF531-3D08-784D-8BEA-58AF5E25658D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2460" windowWidth="33720" windowHeight="10980" activeTab="8" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="2280" yWindow="2460" windowWidth="33720" windowHeight="8680" activeTab="8" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -9911,8 +9911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74A1973-828D-9C45-B90B-5490793AE67B}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9982,10 +9982,19 @@
       <c r="H11" s="10">
         <v>3</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+      <c r="I11" s="9">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.25069999999999998</v>
+      </c>
+      <c r="K11" s="14">
+        <f>(2*I11*J11)/(I11+J11)</f>
+        <v>0.27405151021884611</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.36430000000000001</v>
+      </c>
       <c r="M11" s="33">
         <v>0.01</v>
       </c>

--- a/exp/Sim_20241213.xlsx
+++ b/exp/Sim_20241213.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266BF531-3D08-784D-8BEA-58AF5E25658D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAD3454-BD70-BD4C-A51C-8560910AC36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2460" windowWidth="33720" windowHeight="8680" activeTab="8" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="37540" yWindow="2540" windowWidth="36000" windowHeight="14560" activeTab="9" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
     <sheet name="MogulGPU" sheetId="1" r:id="rId5"/>
     <sheet name="yelp2018" sheetId="2" r:id="rId6"/>
-    <sheet name="amazon-book" sheetId="8" r:id="rId7"/>
-    <sheet name="lasfm" sheetId="10" r:id="rId8"/>
-    <sheet name="ml-100k" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId7"/>
+    <sheet name="amazon-book" sheetId="8" r:id="rId8"/>
+    <sheet name="lasfm" sheetId="10" r:id="rId9"/>
+    <sheet name="ml-100k" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="109">
   <si>
     <t>Paper value</t>
   </si>
@@ -104,9 +105,6 @@
   </si>
   <si>
     <t>num of ep</t>
-  </si>
-  <si>
-    <t>320+160</t>
   </si>
   <si>
     <t>i_K</t>
@@ -366,6 +364,15 @@
   <si>
     <t>LightGCN replica</t>
   </si>
+  <si>
+    <t>hyperGAT(smax, all norms are smax)</t>
+  </si>
+  <si>
+    <t>hyperGAT with all smax (2024.12.31)</t>
+  </si>
+  <si>
+    <t>hyperGAT(all are smax)</t>
+  </si>
 </sst>
 </file>
 
@@ -624,7 +631,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -764,6 +771,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -818,15 +835,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -847,6 +869,238 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>yelp2018!$O$148:$O$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.9200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4899999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEC2-5C41-B8B6-60F9F746C45A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="262680000"/>
+        <c:axId val="262565072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="262680000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262565072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="262565072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262680000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -1206,6 +1460,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1748,7 +2042,551 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42CC6F4-DFCE-4A18-C589-AC3FEEAD4591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2134,62 +2972,62 @@
   <sheetData>
     <row r="4" spans="2:20" ht="22" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="D4" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="E4" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="F4" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="G4" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="H4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="I4" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="51" t="s">
+      <c r="K4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="L4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="51" t="s">
-        <v>34</v>
-      </c>
       <c r="M4" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="51" t="s">
-        <v>41</v>
-      </c>
       <c r="Q4" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="51" t="s">
         <v>21</v>
-      </c>
-      <c r="R4" s="51" t="s">
-        <v>22</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="2:20" ht="22" x14ac:dyDescent="0.3">
       <c r="B5" s="52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="53">
         <v>1682</v>
@@ -2226,10 +3064,10 @@
         <v>2.9036004645760744E-2</v>
       </c>
       <c r="M5" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O5" s="57">
         <f t="shared" ref="O5:O10" si="6">E5/C5</f>
@@ -2246,7 +3084,7 @@
     </row>
     <row r="6" spans="2:20" ht="22" x14ac:dyDescent="0.3">
       <c r="B6" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="53">
         <v>3952</v>
@@ -2283,10 +3121,10 @@
         <v>2.0038230564433532E-2</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N6" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O6" s="57">
         <f t="shared" si="6"/>
@@ -2313,7 +3151,7 @@
     </row>
     <row r="7" spans="2:20" ht="22" x14ac:dyDescent="0.3">
       <c r="B7" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="53">
         <v>1878</v>
@@ -2353,10 +3191,10 @@
         <v>2.6072806767078482E-3</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N7" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7" s="57">
         <f t="shared" si="6"/>
@@ -2373,7 +3211,7 @@
     </row>
     <row r="8" spans="2:20" ht="22" x14ac:dyDescent="0.3">
       <c r="B8" s="60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="61">
         <v>29858</v>
@@ -2413,10 +3251,10 @@
         <v>4.094662985368672E-4</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O8" s="57">
         <f t="shared" si="6"/>
@@ -2437,7 +3275,7 @@
     </row>
     <row r="9" spans="2:20" ht="22" x14ac:dyDescent="0.3">
       <c r="B9" s="60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="61">
         <v>31668</v>
@@ -2477,10 +3315,10 @@
         <v>6.4252073371339131E-4</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N9" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O9" s="57">
         <f t="shared" si="6"/>
@@ -2507,7 +3345,7 @@
     </row>
     <row r="10" spans="2:20" ht="22" x14ac:dyDescent="0.3">
       <c r="B10" s="60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="61">
         <v>52643</v>
@@ -2547,10 +3385,10 @@
         <v>2.8685608870070812E-4</v>
       </c>
       <c r="M10" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N10" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O10" s="57">
         <f t="shared" si="6"/>
@@ -2598,7 +3436,7 @@
     </row>
     <row r="12" spans="2:20" ht="22" x14ac:dyDescent="0.3">
       <c r="B12" s="52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="53">
         <v>7403</v>
@@ -2695,6 +3533,813 @@
       <c r="H26" s="41"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74A1973-828D-9C45-B90B-5490793AE67B}">
+  <dimension ref="A1:R42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H7" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.35049999999999998</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.2944</v>
+      </c>
+      <c r="K9" s="14">
+        <f>(2*I9*J9)/(I9+J9)</f>
+        <v>0.32000992401922773</v>
+      </c>
+      <c r="L9" s="14">
+        <v>0.4325</v>
+      </c>
+      <c r="M9" s="33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H10" s="10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.35460000000000003</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="K10" s="14">
+        <f>(2*I10*J10)/(I10+J10)</f>
+        <v>0.32402260683106143</v>
+      </c>
+      <c r="L10" s="14">
+        <v>0.43519999999999998</v>
+      </c>
+      <c r="M10" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H11" s="10">
+        <v>3</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.25069999999999998</v>
+      </c>
+      <c r="K11" s="14">
+        <f>(2*I11*J11)/(I11+J11)</f>
+        <v>0.27405151021884611</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0.36430000000000001</v>
+      </c>
+      <c r="M11" s="33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H12" s="10">
+        <v>3</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.3614</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="K12" s="14">
+        <f>(2*I12*J12)/(I12+J12)</f>
+        <v>0.32951496537187597</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="M12" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H13" s="10">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="K13" s="14">
+        <f>(2*I13*J13)/(I13+J13)</f>
+        <v>0.31929028447069796</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0.42820000000000003</v>
+      </c>
+      <c r="M13" s="33">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H14" s="10">
+        <v>4</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.3029</v>
+      </c>
+      <c r="K14" s="14">
+        <f>(2*I14*J14)/(I14+J14)</f>
+        <v>0.32961574352799516</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0.4456</v>
+      </c>
+      <c r="M14" s="33">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="H15" s="110">
+        <v>4</v>
+      </c>
+      <c r="I15" s="111">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="J15" s="111">
+        <v>0.29520000000000002</v>
+      </c>
+      <c r="K15" s="112">
+        <f>(2*I15*J15)/(I15+J15)</f>
+        <v>0.3208993350858203</v>
+      </c>
+      <c r="L15" s="112">
+        <v>0.43</v>
+      </c>
+      <c r="M15" s="68">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H18" s="67">
+        <v>3</v>
+      </c>
+      <c r="I18" s="71">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J18" s="46">
+        <v>0.30680000000000002</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" ref="K18:K28" si="0">(2*I18*J18)/(I18+J18)</f>
+        <v>0.33212200956937793</v>
+      </c>
+      <c r="L18" s="46">
+        <v>0.44840000000000002</v>
+      </c>
+      <c r="M18" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N18" s="46">
+        <v>120</v>
+      </c>
+      <c r="O18" s="46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H19" s="67">
+        <v>3</v>
+      </c>
+      <c r="I19" s="46">
+        <v>0.36180000000000001</v>
+      </c>
+      <c r="J19" s="46">
+        <v>0.3075</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33244733303451368</v>
+      </c>
+      <c r="L19" s="46">
+        <v>0.44969999999999999</v>
+      </c>
+      <c r="M19" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N19" s="46">
+        <v>120</v>
+      </c>
+      <c r="O19" s="46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H20" s="67">
+        <v>3</v>
+      </c>
+      <c r="I20" s="46">
+        <v>0.36470000000000002</v>
+      </c>
+      <c r="J20" s="46">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33519107883817423</v>
+      </c>
+      <c r="L20" s="46">
+        <v>0.45140000000000002</v>
+      </c>
+      <c r="M20" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N20" s="46">
+        <v>120</v>
+      </c>
+      <c r="O20" s="46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H21" s="67">
+        <v>3</v>
+      </c>
+      <c r="I21" s="46">
+        <v>0.3679</v>
+      </c>
+      <c r="J21" s="46">
+        <v>0.31009999999999999</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33653625368731566</v>
+      </c>
+      <c r="L21" s="46">
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="M21" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N21" s="46">
+        <v>120</v>
+      </c>
+      <c r="O21" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H22" s="67">
+        <v>3</v>
+      </c>
+      <c r="I22" s="46">
+        <v>0.3654</v>
+      </c>
+      <c r="J22" s="46">
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="0"/>
+        <v>0.3358372430113889</v>
+      </c>
+      <c r="L22" s="46">
+        <v>0.45419999999999999</v>
+      </c>
+      <c r="M22" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N22" s="46">
+        <v>120</v>
+      </c>
+      <c r="O22" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H23" s="67">
+        <v>3</v>
+      </c>
+      <c r="I23" s="46">
+        <v>0.36370000000000002</v>
+      </c>
+      <c r="J23" s="46">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="0"/>
+        <v>0.33389207199167037</v>
+      </c>
+      <c r="L23" s="46">
+        <v>0.45040000000000002</v>
+      </c>
+      <c r="M23" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N23" s="46">
+        <v>120</v>
+      </c>
+      <c r="O23" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H24" s="67">
+        <v>3</v>
+      </c>
+      <c r="I24" s="71">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="J24" s="46">
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="K24" s="71">
+        <f t="shared" si="0"/>
+        <v>0.33693119198467658</v>
+      </c>
+      <c r="L24" s="46">
+        <v>0.45479999999999998</v>
+      </c>
+      <c r="M24" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N24" s="46">
+        <v>100</v>
+      </c>
+      <c r="O24" s="46">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="44">
+        <f>L26-L12</f>
+        <v>1.0199999999999987E-2</v>
+      </c>
+      <c r="R24" s="20">
+        <f>Q24/L12</f>
+        <v>2.2921348314606713E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H25" s="67">
+        <v>3</v>
+      </c>
+      <c r="I25" s="46">
+        <v>0.3674</v>
+      </c>
+      <c r="J25" s="46">
+        <v>0.30990000000000001</v>
+      </c>
+      <c r="K25" s="71">
+        <f t="shared" si="0"/>
+        <v>0.33620924258083568</v>
+      </c>
+      <c r="L25" s="46">
+        <v>0.45479999999999998</v>
+      </c>
+      <c r="M25" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N25" s="46">
+        <v>90</v>
+      </c>
+      <c r="O25" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H26" s="67">
+        <v>3</v>
+      </c>
+      <c r="I26" s="46">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="J26" s="46">
+        <v>0.30990000000000001</v>
+      </c>
+      <c r="K26" s="71">
+        <f t="shared" si="0"/>
+        <v>0.33662733303847853</v>
+      </c>
+      <c r="L26" s="46">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="M26" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N26" s="46">
+        <v>80</v>
+      </c>
+      <c r="O26" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H27" s="67">
+        <v>3</v>
+      </c>
+      <c r="I27" s="46">
+        <v>0.3674</v>
+      </c>
+      <c r="J27" s="46">
+        <v>0.30930000000000002</v>
+      </c>
+      <c r="K27" s="71">
+        <f t="shared" si="0"/>
+        <v>0.33585582976208067</v>
+      </c>
+      <c r="L27" s="46">
+        <v>0.45419999999999999</v>
+      </c>
+      <c r="M27" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N27" s="46">
+        <v>70</v>
+      </c>
+      <c r="O27" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H28" s="67">
+        <v>3</v>
+      </c>
+      <c r="I28" s="46">
+        <v>0.36559999999999998</v>
+      </c>
+      <c r="J28" s="46">
+        <v>0.30830000000000002</v>
+      </c>
+      <c r="K28" s="71">
+        <f t="shared" si="0"/>
+        <v>0.33451396349606771</v>
+      </c>
+      <c r="L28" s="46">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="M28" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N28" s="46">
+        <v>60</v>
+      </c>
+      <c r="O28" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H31" s="67">
+        <v>4</v>
+      </c>
+      <c r="I31" s="46">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="J31" s="46">
+        <v>0.30680000000000002</v>
+      </c>
+      <c r="K31" s="71">
+        <f>(2*I31*J31)/(I31+J31)</f>
+        <v>0.33153155528918188</v>
+      </c>
+      <c r="L31" s="46">
+        <v>0.44569999999999999</v>
+      </c>
+      <c r="M31" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N31" s="46">
+        <v>80</v>
+      </c>
+      <c r="O31" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="H32" s="67">
+        <v>4</v>
+      </c>
+      <c r="I32" s="46">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="J32" s="46">
+        <v>0.3075</v>
+      </c>
+      <c r="K32" s="71">
+        <f>(2*I32*J32)/(I32+J32)</f>
+        <v>0.33202453987730063</v>
+      </c>
+      <c r="L32" s="46">
+        <v>0.44519999999999998</v>
+      </c>
+      <c r="M32" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N32" s="46">
+        <v>100</v>
+      </c>
+      <c r="O32" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="8:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="H33" s="67">
+        <v>4</v>
+      </c>
+      <c r="I33" s="71">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="J33" s="46">
+        <v>0.30630000000000002</v>
+      </c>
+      <c r="K33" s="71">
+        <f>(2*I33*J33)/(I33+J33)</f>
+        <v>0.33013819057654675</v>
+      </c>
+      <c r="L33" s="46">
+        <v>0.44529999999999997</v>
+      </c>
+      <c r="M33" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N33" s="46">
+        <v>100</v>
+      </c>
+      <c r="O33" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="8:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="H34" s="67">
+        <v>4</v>
+      </c>
+      <c r="I34" s="46">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="J34" s="46">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="K34" s="71">
+        <f>(2*I34*J34)/(I34+J34)</f>
+        <v>0.32935264111077572</v>
+      </c>
+      <c r="L34" s="71">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="M34" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N34" s="46">
+        <v>120</v>
+      </c>
+      <c r="O34" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="8:15" x14ac:dyDescent="0.2">
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="8:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="H36" s="67">
+        <v>4</v>
+      </c>
+      <c r="I36" s="46">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="J36" s="46">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="K36" s="71">
+        <f>(2*I36*J36)/(I36+J36)</f>
+        <v>0.33285959415099969</v>
+      </c>
+      <c r="L36" s="46">
+        <v>0.4456</v>
+      </c>
+      <c r="M36" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N36" s="46">
+        <v>100</v>
+      </c>
+      <c r="O36" s="46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="8:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="H37" s="67">
+        <v>4</v>
+      </c>
+      <c r="I37" s="46">
+        <v>0.35809999999999997</v>
+      </c>
+      <c r="J37" s="46">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="K37" s="71">
+        <f>(2*I37*J37)/(I37+J37)</f>
+        <v>0.32660373689807082</v>
+      </c>
+      <c r="L37" s="46">
+        <v>0.44030000000000002</v>
+      </c>
+      <c r="M37" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="N37" s="46">
+        <v>100</v>
+      </c>
+      <c r="O37" s="46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="8:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="I38" s="46">
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="J38" s="46">
+        <v>0.30530000000000002</v>
+      </c>
+      <c r="K38" s="71">
+        <f>(2*I38*J38)/(I38+J38)</f>
+        <v>0.32981045338153336</v>
+      </c>
+      <c r="L38" s="46">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="M38" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N38" s="46">
+        <v>100</v>
+      </c>
+      <c r="O38" s="46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="8:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="H41" s="88">
+        <v>2</v>
+      </c>
+      <c r="I41" s="71">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="J41" s="46">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="K41" s="71">
+        <f>(2*I41*J41)/(I41+J41)</f>
+        <v>0.3317206520113653</v>
+      </c>
+      <c r="L41" s="46">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="M41" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N41" s="46">
+        <v>80</v>
+      </c>
+      <c r="O41" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="8:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="H42" s="88">
+        <v>1</v>
+      </c>
+      <c r="I42" s="71">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="J42" s="46">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="K42" s="71">
+        <f>(2*I42*J42)/(I42+J42)</f>
+        <v>0.32436658506731941</v>
+      </c>
+      <c r="L42" s="71">
+        <v>0.439</v>
+      </c>
+      <c r="M42" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N42" s="46">
+        <v>80</v>
+      </c>
+      <c r="O42" s="46">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H7:L7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="L18:L28">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L38 L41">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L38 L41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2719,53 +4364,53 @@
   </cols>
   <sheetData>
     <row r="10" spans="5:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="E10" s="85" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="87"/>
+      <c r="E10" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="91"/>
       <c r="Q10" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E11" s="31"/>
       <c r="F11" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="H11" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="J11" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="L11" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="31" t="s">
         <v>48</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>49</v>
       </c>
       <c r="N11" s="31" t="s">
         <v>7</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="5:17" ht="22" x14ac:dyDescent="0.3">
@@ -2843,7 +4488,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="Q14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="5:17" ht="22" x14ac:dyDescent="0.3">
@@ -2893,47 +4538,47 @@
       <c r="N16" s="2"/>
     </row>
     <row r="18" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E18" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="87"/>
+      <c r="E18" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="91"/>
       <c r="Q18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E19" s="31"/>
       <c r="F19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="H19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="J19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="L19" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="31" t="s">
         <v>48</v>
-      </c>
-      <c r="M19" s="31" t="s">
-        <v>49</v>
       </c>
       <c r="N19" s="31" t="s">
         <v>7</v>
@@ -2967,7 +4612,7 @@
         <v>0.01</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="5:18" ht="22" x14ac:dyDescent="0.3">
@@ -3007,7 +4652,7 @@
         <v>1E-3</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="5:18" ht="22" x14ac:dyDescent="0.3">
@@ -3044,7 +4689,7 @@
         <v>1E-3</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="5:18" ht="22" x14ac:dyDescent="0.3">
@@ -3081,7 +4726,7 @@
         <v>1E-3</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="5:18" ht="22" x14ac:dyDescent="0.3">
@@ -3118,48 +4763,48 @@
         <v>1E-3</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E26" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="87"/>
+      <c r="E26" s="89" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="91"/>
     </row>
     <row r="27" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E27" s="31"/>
       <c r="F27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="H27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="J27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="31" t="s">
-        <v>49</v>
-      </c>
       <c r="L27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="31" t="s">
         <v>48</v>
-      </c>
-      <c r="M27" s="31" t="s">
-        <v>49</v>
       </c>
       <c r="N27" s="2"/>
     </row>
@@ -3291,7 +4936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82757750-2341-5941-B5A9-350C8E89CB41}">
   <dimension ref="D5:T109"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
@@ -3306,17 +4951,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E5" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
+      <c r="E5" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
     </row>
     <row r="6" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E6" s="36"/>
@@ -3324,34 +4969,34 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
+      <c r="J6" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
     </row>
     <row r="7" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E7" s="37" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>66</v>
-      </c>
       <c r="H7" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="37" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L7" s="37" t="s">
         <v>18</v>
@@ -3481,17 +5126,17 @@
       </c>
     </row>
     <row r="15" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E15" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
+      <c r="E15" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
     </row>
     <row r="16" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E16" s="36"/>
@@ -3499,34 +5144,34 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
+      <c r="J16" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
     </row>
     <row r="17" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E17" s="37" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="37" t="s">
-        <v>66</v>
-      </c>
       <c r="H17" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J17" s="37" t="s">
         <v>15</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L17" s="37" t="s">
         <v>18</v>
@@ -3637,7 +5282,7 @@
         <v>0.1459</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="5:17" ht="22" x14ac:dyDescent="0.3">
@@ -3660,43 +5305,43 @@
       <c r="M22" s="9"/>
     </row>
     <row r="27" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E27" s="89" t="s">
+      <c r="E27" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
     </row>
     <row r="28" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E28" s="37" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="37" t="s">
-        <v>66</v>
-      </c>
       <c r="H28" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="37" t="s">
         <v>15</v>
       </c>
       <c r="K28" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L28" s="37" t="s">
         <v>18</v>
@@ -3705,16 +5350,16 @@
         <v>13</v>
       </c>
       <c r="N28" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="O28" s="37" t="s">
-        <v>82</v>
-      </c>
       <c r="P28" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="5:17" ht="22" x14ac:dyDescent="0.3">
@@ -3749,10 +5394,10 @@
         <v>45</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="5:17" ht="22" x14ac:dyDescent="0.3">
@@ -3816,55 +5461,55 @@
       <c r="Q33" s="9"/>
     </row>
     <row r="37" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E37" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
+      <c r="E37" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
     </row>
     <row r="38" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E38" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="92"/>
+      <c r="E38" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="95"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="96"/>
     </row>
     <row r="39" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D39" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" s="37" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="37" t="s">
-        <v>66</v>
-      </c>
       <c r="H39" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J39" s="37" t="s">
         <v>15</v>
       </c>
       <c r="K39" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L39" s="37" t="s">
         <v>18</v>
@@ -4138,41 +5783,41 @@
       <c r="M49" s="46"/>
     </row>
     <row r="51" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E51" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" s="88"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
+      <c r="E51" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="92"/>
+      <c r="M51" s="92"/>
+      <c r="N51" s="92"/>
+      <c r="O51" s="92"/>
     </row>
     <row r="52" spans="5:16" ht="22" x14ac:dyDescent="0.3">
       <c r="E52" s="37" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G52" s="37" t="s">
-        <v>66</v>
-      </c>
       <c r="H52" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I52" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J52" s="37" t="s">
         <v>15</v>
       </c>
       <c r="K52" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L52" s="37" t="s">
         <v>18</v>
@@ -4181,10 +5826,10 @@
         <v>13</v>
       </c>
       <c r="N52" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O52" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="5:16" ht="19" x14ac:dyDescent="0.25">
@@ -4331,7 +5976,7 @@
         <v>20</v>
       </c>
       <c r="P57" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="5:16" ht="19" x14ac:dyDescent="0.25">
@@ -4370,7 +6015,7 @@
         <v>25</v>
       </c>
       <c r="P58" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="5:16" ht="19" x14ac:dyDescent="0.25">
@@ -4409,7 +6054,7 @@
         <v>25</v>
       </c>
       <c r="P59" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="5:16" ht="19" x14ac:dyDescent="0.25">
@@ -4448,7 +6093,7 @@
         <v>20</v>
       </c>
       <c r="P60" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="5:16" ht="19" x14ac:dyDescent="0.25">
@@ -4487,33 +6132,33 @@
         <v>30</v>
       </c>
       <c r="P61" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="4:20" ht="22" x14ac:dyDescent="0.3">
       <c r="D69" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E69" s="37" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G69" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="G69" s="37" t="s">
-        <v>66</v>
-      </c>
       <c r="H69" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I69" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J69" s="37" t="s">
         <v>15</v>
       </c>
       <c r="K69" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L69" s="37" t="s">
         <v>18</v>
@@ -4522,10 +6167,10 @@
         <v>13</v>
       </c>
       <c r="N69" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="37" t="s">
         <v>21</v>
-      </c>
-      <c r="O69" s="37" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="70" spans="4:20" ht="19" x14ac:dyDescent="0.25">
@@ -5739,56 +7384,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:28" ht="27" x14ac:dyDescent="0.35">
-      <c r="C2" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
+      <c r="C2" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
     </row>
     <row r="4" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101" t="s">
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="101" t="s">
+      <c r="M4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
     </row>
     <row r="5" spans="3:28" ht="19" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -5848,16 +7493,16 @@
       </c>
     </row>
     <row r="6" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C6" s="98">
+      <c r="C6" s="102">
         <v>1000</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="106">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="102">
+      <c r="F6" s="106">
         <v>0.1492</v>
       </c>
       <c r="G6" s="7">
@@ -5870,7 +7515,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="102">
+      <c r="M6" s="106">
         <v>0.17549999999999999</v>
       </c>
       <c r="N6" s="1">
@@ -5879,7 +7524,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="102">
+      <c r="R6" s="106">
         <v>0.17549999999999999</v>
       </c>
       <c r="S6" s="1"/>
@@ -5887,12 +7532,12 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C7" s="99"/>
-      <c r="D7" s="102"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="102"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="7">
         <v>0.14838999999999999</v>
       </c>
@@ -5907,7 +7552,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="102"/>
+      <c r="M7" s="106"/>
       <c r="N7" s="7">
         <v>0.17444000000000001</v>
       </c>
@@ -5916,7 +7561,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="102"/>
+      <c r="R7" s="106"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
         <v>5.3499999999999999E-2</v>
@@ -5927,7 +7572,7 @@
       </c>
     </row>
     <row r="8" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C8" s="100"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="23">
         <v>2</v>
       </c>
@@ -5965,17 +7610,17 @@
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
       <c r="X8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="X13" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="96"/>
+      <c r="X13" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="99"/>
+      <c r="Z13" s="99"/>
+      <c r="AA13" s="99"/>
+      <c r="AB13" s="100"/>
     </row>
     <row r="14" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="X14" s="12" t="s">
@@ -6037,13 +7682,13 @@
       </c>
     </row>
     <row r="18" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
       <c r="X18" s="10">
         <v>4</v>
       </c>
@@ -6107,19 +7752,19 @@
         <f>(2*D21*F21)/(D21+F21)</f>
         <v>8.3585657917309999E-2</v>
       </c>
-      <c r="J21" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
+      <c r="J21" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
     </row>
     <row r="22" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
@@ -6157,7 +7802,7 @@
         <v>8.5420968689666754E-2</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6182,10 +7827,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
-  <dimension ref="D9:AA115"/>
+  <dimension ref="D9:AA151"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6201,21 +7846,21 @@
   </cols>
   <sheetData>
     <row r="9" spans="4:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="96"/>
-      <c r="N9" s="94" t="s">
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="100"/>
+      <c r="N9" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="96"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="100"/>
     </row>
     <row r="10" spans="4:24" ht="22" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -6286,22 +7931,10 @@
       <c r="S11" s="9">
         <v>321</v>
       </c>
-      <c r="U11" s="14">
-        <f>R11-H11</f>
-        <v>3.6211180124223599E-2</v>
-      </c>
-      <c r="V11" s="15" t="e">
-        <f>U11/H11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W11" s="14">
-        <f>P11-F11</f>
-        <v>-5.1999999999999963E-3</v>
-      </c>
-      <c r="X11" s="16">
-        <f>W11/F11</f>
-        <v>-0.10097087378640771</v>
-      </c>
+      <c r="U11" s="14"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="4:24" ht="22" x14ac:dyDescent="0.3">
       <c r="D12" s="10">
@@ -6337,9 +7970,7 @@
       <c r="S12" s="9">
         <v>642</v>
       </c>
-      <c r="T12" s="42" t="s">
-        <v>20</v>
-      </c>
+      <c r="T12" s="42"/>
       <c r="V12" s="13"/>
     </row>
     <row r="13" spans="4:24" ht="22" x14ac:dyDescent="0.3">
@@ -6370,7 +8001,7 @@
       <c r="D14" s="10">
         <v>4</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="14">
         <v>6.4899999999999999E-2</v>
       </c>
       <c r="F14" s="14">
@@ -6391,26 +8022,26 @@
       <c r="S14" s="2"/>
     </row>
     <row r="18" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D18" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="96"/>
-      <c r="N18" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="96"/>
+      <c r="D18" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
+      <c r="N18" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="100"/>
     </row>
     <row r="19" spans="4:27" ht="22" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
@@ -6453,13 +8084,13 @@
         <v>19</v>
       </c>
       <c r="T19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V19" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="U19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20" spans="4:27" ht="22" x14ac:dyDescent="0.3">
@@ -6595,14 +8226,7 @@
       <c r="V22" s="9">
         <v>240</v>
       </c>
-      <c r="X22">
-        <f>P22-F11</f>
-        <v>-4.2999999999999983E-3</v>
-      </c>
-      <c r="Y22" s="20">
-        <f>X22/F11</f>
-        <v>-8.3495145631067927E-2</v>
-      </c>
+      <c r="Y22" s="20"/>
     </row>
     <row r="23" spans="4:27" ht="22" x14ac:dyDescent="0.3">
       <c r="D23" s="10">
@@ -6685,22 +8309,8 @@
       <c r="V24" s="17">
         <v>240</v>
       </c>
-      <c r="X24">
-        <f>P24-F11</f>
-        <v>-4.0999999999999995E-3</v>
-      </c>
-      <c r="Y24" s="13">
-        <f>X24/F11</f>
-        <v>-7.9611650485436891E-2</v>
-      </c>
-      <c r="Z24">
-        <f>R24-H11</f>
-        <v>3.690133982947625E-2</v>
-      </c>
-      <c r="AA24" s="20" t="e">
-        <f>Z24/H11</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="Y24" s="13"/>
+      <c r="AA24" s="20"/>
     </row>
     <row r="25" spans="4:27" ht="22" x14ac:dyDescent="0.3">
       <c r="E25">
@@ -6779,17 +8389,17 @@
       </c>
     </row>
     <row r="29" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D29" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="96"/>
+      <c r="D29" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="100"/>
       <c r="N29" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
@@ -6841,13 +8451,13 @@
         <v>19</v>
       </c>
       <c r="T30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V30" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="U30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="V30" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="31" spans="4:27" ht="22" x14ac:dyDescent="0.3">
@@ -6991,16 +8601,16 @@
       <c r="V36" s="17"/>
     </row>
     <row r="37" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D37" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="96"/>
+      <c r="D37" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="100"/>
       <c r="N37" s="19"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -7034,7 +8644,7 @@
         <v>7</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="4:22" ht="22" x14ac:dyDescent="0.3">
@@ -7118,16 +8728,16 @@
       <c r="K42" s="2"/>
     </row>
     <row r="48" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D48" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="96"/>
+      <c r="D48" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="100"/>
     </row>
     <row r="49" spans="4:11" ht="22" x14ac:dyDescent="0.3">
       <c r="D49" s="12" t="s">
@@ -7152,7 +8762,7 @@
         <v>7</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="4:11" ht="22" x14ac:dyDescent="0.3">
@@ -7306,24 +8916,24 @@
       </c>
     </row>
     <row r="76" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D76" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="95"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="95"/>
-      <c r="K76" s="95"/>
-      <c r="L76" s="96"/>
+      <c r="D76" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="99"/>
+      <c r="J76" s="99"/>
+      <c r="K76" s="99"/>
+      <c r="L76" s="100"/>
     </row>
     <row r="77" spans="4:12" ht="22" x14ac:dyDescent="0.3">
       <c r="D77" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F77" s="12" t="s">
         <v>15</v>
@@ -7338,13 +8948,13 @@
         <v>7</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="4:12" ht="22" x14ac:dyDescent="0.3">
@@ -7461,29 +9071,29 @@
     </row>
     <row r="86" spans="4:15" x14ac:dyDescent="0.2">
       <c r="I86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D91" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E91" s="95"/>
-      <c r="F91" s="95"/>
-      <c r="G91" s="95"/>
-      <c r="H91" s="95"/>
-      <c r="I91" s="95"/>
-      <c r="J91" s="95"/>
-      <c r="K91" s="95"/>
-      <c r="L91" s="95"/>
-      <c r="M91" s="96"/>
+      <c r="D91" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" s="99"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="99"/>
+      <c r="H91" s="99"/>
+      <c r="I91" s="99"/>
+      <c r="J91" s="99"/>
+      <c r="K91" s="99"/>
+      <c r="L91" s="99"/>
+      <c r="M91" s="100"/>
     </row>
     <row r="92" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D92" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>15</v>
@@ -7498,22 +9108,22 @@
         <v>7</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M92" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N92" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="O92" s="65" t="s">
         <v>21</v>
-      </c>
-      <c r="O92" s="65" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="93" spans="4:15" ht="22" x14ac:dyDescent="0.3">
@@ -7578,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="4:15" ht="22" x14ac:dyDescent="0.3">
@@ -7666,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N99" s="17">
         <v>45</v>
@@ -7705,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N100" s="46">
         <v>40</v>
@@ -7763,16 +9373,16 @@
       <c r="M104" s="2"/>
     </row>
     <row r="110" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D110" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="E110" s="103"/>
-      <c r="F110" s="103"/>
-      <c r="G110" s="103"/>
-      <c r="H110" s="103"/>
-      <c r="I110" s="103"/>
-      <c r="J110" s="103"/>
-      <c r="K110" s="103"/>
+      <c r="D110" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="E110" s="108"/>
+      <c r="F110" s="108"/>
+      <c r="G110" s="108"/>
+      <c r="H110" s="108"/>
+      <c r="I110" s="108"/>
+      <c r="J110" s="108"/>
+      <c r="K110" s="108"/>
     </row>
     <row r="111" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D111" s="12" t="s">
@@ -7794,10 +9404,10 @@
         <v>7</v>
       </c>
       <c r="J111" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="4:15" ht="22" x14ac:dyDescent="0.3">
@@ -7827,7 +9437,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="113" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:13" ht="22" x14ac:dyDescent="0.3">
       <c r="D113" s="10">
         <v>2</v>
       </c>
@@ -7854,7 +9464,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="114" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:13" ht="22" x14ac:dyDescent="0.3">
       <c r="D114" s="10">
         <v>3</v>
       </c>
@@ -7881,7 +9491,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:13" ht="22" x14ac:dyDescent="0.3">
       <c r="D115" s="10">
         <v>3</v>
       </c>
@@ -7908,8 +9518,580 @@
         <v>500</v>
       </c>
     </row>
+    <row r="120" spans="4:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="D120" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="E120" s="107"/>
+      <c r="F120" s="107"/>
+      <c r="G120" s="107"/>
+      <c r="H120" s="107"/>
+      <c r="I120" s="107"/>
+      <c r="J120" s="107"/>
+      <c r="K120" s="107"/>
+      <c r="L120" s="107"/>
+      <c r="M120" s="107"/>
+    </row>
+    <row r="121" spans="4:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="D121" s="87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="G121" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="I121" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="J121" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="K121" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="L121" s="29"/>
+      <c r="M121" s="29"/>
+    </row>
+    <row r="122" spans="4:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="D122" s="67">
+        <v>3</v>
+      </c>
+      <c r="E122" s="71">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="F122" s="46">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="G122" s="14">
+        <f>(2*E122*F122)/(E122+F122)</f>
+        <v>4.0926910994764393E-2</v>
+      </c>
+      <c r="H122" s="46">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="I122" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J122" s="46">
+        <v>30</v>
+      </c>
+      <c r="K122" s="46">
+        <v>20</v>
+      </c>
+      <c r="L122" s="46">
+        <v>350</v>
+      </c>
+      <c r="M122" s="46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="123" spans="4:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="D123" s="67">
+        <v>3</v>
+      </c>
+      <c r="E123" s="46">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="F123" s="46">
+        <v>2.92E-2</v>
+      </c>
+      <c r="G123" s="14">
+        <f>(2*E123*F123)/(E123+F123)</f>
+        <v>4.0239403620873269E-2</v>
+      </c>
+      <c r="H123" s="46">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="I123" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J123" s="46">
+        <v>20</v>
+      </c>
+      <c r="K123" s="46">
+        <v>20</v>
+      </c>
+      <c r="L123" s="46">
+        <v>350</v>
+      </c>
+      <c r="M123" s="46">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="124" spans="4:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="D124" s="67">
+        <v>3</v>
+      </c>
+      <c r="E124" s="46">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="F124" s="46">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="G124" s="14">
+        <f>(2*E124*F124)/(E124+F124)</f>
+        <v>4.0831865828092243E-2</v>
+      </c>
+      <c r="H124" s="46">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="I124" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J124" s="46">
+        <v>30</v>
+      </c>
+      <c r="K124" s="46">
+        <v>15</v>
+      </c>
+      <c r="L124" s="46"/>
+      <c r="M124" s="46"/>
+    </row>
+    <row r="125" spans="4:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="D125" s="67">
+        <v>3</v>
+      </c>
+      <c r="E125" s="71">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F125" s="46">
+        <v>2.98E-2</v>
+      </c>
+      <c r="G125" s="14">
+        <f>(2*E125*F125)/(E125+F125)</f>
+        <v>4.1060542797494777E-2</v>
+      </c>
+      <c r="H125" s="46">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="I125" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J125" s="46">
+        <v>50</v>
+      </c>
+      <c r="K125" s="46">
+        <v>25</v>
+      </c>
+      <c r="L125" s="46">
+        <v>350</v>
+      </c>
+      <c r="M125" s="46">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="126" spans="4:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="L126" s="46"/>
+      <c r="M126" s="46"/>
+    </row>
+    <row r="127" spans="4:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="D127" s="67">
+        <v>3</v>
+      </c>
+      <c r="E127" s="46">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="F127" s="46">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="G127" s="14">
+        <f>(2*E127*F127)/(E127+F127)</f>
+        <v>4.0831865828092243E-2</v>
+      </c>
+      <c r="H127" s="46">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="I127" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J127" s="46">
+        <v>60</v>
+      </c>
+      <c r="K127" s="46">
+        <v>30</v>
+      </c>
+      <c r="L127" s="46">
+        <v>330</v>
+      </c>
+      <c r="M127" s="46">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="128" spans="4:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="D128" s="67">
+        <v>3</v>
+      </c>
+      <c r="E128" s="71">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F128" s="46">
+        <v>2.98E-2</v>
+      </c>
+      <c r="G128" s="14">
+        <f>(2*E128*F128)/(E128+F128)</f>
+        <v>4.1060542797494777E-2</v>
+      </c>
+      <c r="H128" s="46">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="I128" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J128" s="46">
+        <v>60</v>
+      </c>
+      <c r="K128" s="46">
+        <v>25</v>
+      </c>
+      <c r="L128" s="46">
+        <v>350</v>
+      </c>
+      <c r="M128" s="46">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="129" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D129" s="67">
+        <v>3</v>
+      </c>
+      <c r="E129" s="46">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="F129" s="46">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="G129" s="71">
+        <f>(2*E129*F129)/(E129+F129)</f>
+        <v>4.1194172736732572E-2</v>
+      </c>
+      <c r="H129" s="46">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="I129" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="J129" s="46">
+        <v>40</v>
+      </c>
+      <c r="K129" s="46">
+        <v>25</v>
+      </c>
+      <c r="L129" s="46">
+        <v>350</v>
+      </c>
+      <c r="M129" s="46"/>
+    </row>
+    <row r="130" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D130" s="67">
+        <v>3</v>
+      </c>
+      <c r="E130" s="46">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="F130" s="46">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="G130" s="71">
+        <f>(2*E130*F130)/(E130+F130)</f>
+        <v>4.0545300950369588E-2</v>
+      </c>
+      <c r="H130" s="46">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="I130" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="J130" s="46">
+        <v>40</v>
+      </c>
+      <c r="K130" s="46">
+        <v>45</v>
+      </c>
+      <c r="L130" s="46">
+        <v>350</v>
+      </c>
+      <c r="M130" s="46">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="131" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D131" s="67">
+        <v>3</v>
+      </c>
+      <c r="E131" s="46">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="F131" s="46">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="G131" s="71">
+        <f>(2*E131*F131)/(E131+F131)</f>
+        <v>4.0144349680170575E-2</v>
+      </c>
+      <c r="H131" s="46">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="I131" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="J131" s="46">
+        <v>20</v>
+      </c>
+      <c r="K131" s="46">
+        <v>40</v>
+      </c>
+      <c r="L131" s="46">
+        <v>330</v>
+      </c>
+      <c r="M131" s="46">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="133" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="O133" s="11">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="P133" s="46">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="O134" s="44">
+        <f>E125-O133</f>
+        <v>1.1000000000000038E-3</v>
+      </c>
+      <c r="P134" s="46">
+        <f>H140-P133</f>
+        <v>1.8999999999999989E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="O135" s="20">
+        <f>O134/O133</f>
+        <v>1.694915254237294E-2</v>
+      </c>
+      <c r="P135" s="85">
+        <f>P134/P133</f>
+        <v>3.5849056603773563E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D139" s="46">
+        <v>4</v>
+      </c>
+      <c r="E139" s="46">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="F139" s="71">
+        <v>0.03</v>
+      </c>
+      <c r="G139" s="71">
+        <f>(2*E139*F139)/(E139+F139)</f>
+        <v>4.1366459627329197E-2</v>
+      </c>
+      <c r="H139" s="46">
+        <v>5.45E-2</v>
+      </c>
+      <c r="I139" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J139" s="46">
+        <v>45</v>
+      </c>
+      <c r="K139" s="46">
+        <v>25</v>
+      </c>
+      <c r="L139" s="46">
+        <v>630</v>
+      </c>
+      <c r="M139" s="46">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="140" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D140" s="46">
+        <v>4</v>
+      </c>
+      <c r="E140" s="46">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="F140" s="46">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="G140" s="71">
+        <f>(2*E140*F140)/(E140+F140)</f>
+        <v>4.1672279260780286E-2</v>
+      </c>
+      <c r="H140" s="46">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="I140" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J140" s="46">
+        <v>50</v>
+      </c>
+      <c r="K140" s="46">
+        <v>25</v>
+      </c>
+      <c r="L140" s="46">
+        <v>790</v>
+      </c>
+      <c r="M140" s="46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="141" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D141" s="46">
+        <v>4</v>
+      </c>
+      <c r="E141" s="46">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="F141" s="46">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="G141" s="71">
+        <f>(2*E141*F141)/(E141+F141)</f>
+        <v>4.1595051546391752E-2</v>
+      </c>
+      <c r="H141" s="46">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="I141" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J141" s="46">
+        <v>60</v>
+      </c>
+      <c r="K141" s="46">
+        <v>25</v>
+      </c>
+      <c r="L141" s="46">
+        <v>790</v>
+      </c>
+      <c r="M141" s="46">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="142" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="P142">
+        <f>H140-P133</f>
+        <v>1.8999999999999989E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D143" s="46">
+        <v>1</v>
+      </c>
+      <c r="E143" s="46">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="F143" s="46">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="G143" s="71">
+        <f>(2*E143*F143)/(E143+F143)</f>
+        <v>3.7375028636884307E-2</v>
+      </c>
+      <c r="H143" s="46">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="I143" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J143" s="46">
+        <v>60</v>
+      </c>
+      <c r="K143" s="46">
+        <v>25</v>
+      </c>
+      <c r="L143" s="46">
+        <v>100</v>
+      </c>
+      <c r="M143" s="46">
+        <v>200</v>
+      </c>
+      <c r="P143" s="20">
+        <f>P142/P133</f>
+        <v>3.5849056603773563E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D144" s="46">
+        <v>2</v>
+      </c>
+      <c r="E144" s="46">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="F144" s="46">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="G144" s="71">
+        <f>(2*E144*F144)/(E144+F144)</f>
+        <v>3.968552915766739E-2</v>
+      </c>
+      <c r="H144" s="46">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="I144" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="J144" s="46">
+        <v>60</v>
+      </c>
+      <c r="K144" s="46">
+        <v>25</v>
+      </c>
+      <c r="L144" s="46">
+        <v>240</v>
+      </c>
+      <c r="M144" s="46">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="148" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="O148">
+        <v>4.9200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E149">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="O149">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E150">
+        <f>E140-E149</f>
+        <v>2.2999999999999965E-3</v>
+      </c>
+      <c r="O150">
+        <v>5.4300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E151" s="20">
+        <f>E150/E149</f>
+        <v>3.5439137134052334E-2</v>
+      </c>
+      <c r="O151">
+        <v>5.4899999999999997E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="D120:M120"/>
     <mergeCell ref="D110:K110"/>
     <mergeCell ref="D91:M91"/>
     <mergeCell ref="N9:S9"/>
@@ -7921,703 +10103,79 @@
     <mergeCell ref="D48:K48"/>
     <mergeCell ref="D9:H9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40676F58-3295-4B44-9129-9CAFD6F49D33}">
-  <dimension ref="E6:T48"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:I29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="P6">
-        <v>2.718</v>
-      </c>
-      <c r="Q6">
-        <v>2.0339999999999998</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <f>SUM(P6:S6)</f>
-        <v>6.7519999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="T7" s="20">
-        <f>S6/T6</f>
-        <v>0.1481042654028436</v>
-      </c>
-    </row>
-    <row r="8" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E8" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="96"/>
-      <c r="T8" s="20">
-        <f>P6/T6</f>
-        <v>0.4025473933649289</v>
-      </c>
-    </row>
-    <row r="9" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="T9" s="20">
-        <f>Q6/T6</f>
-        <v>0.30124407582938389</v>
-      </c>
-    </row>
-    <row r="10" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>3.27E-2</v>
-      </c>
-      <c r="H10" s="14">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I10" s="14">
-        <f>(2*F10*H10)/(F10+H10)</f>
-        <v>2.4119658119658122E-2</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E11" s="10">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="33">
-        <v>1E-4</v>
-      </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E12" s="10">
-        <v>3</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9">
-        <v>3.5900000000000001E-2</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="33">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L12" s="43">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E13" s="10">
-        <v>4</v>
-      </c>
-      <c r="F13" s="9">
-        <v>4.53E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>3.61E-2</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="I13" s="14">
-        <f>(2*F13*H13)/(F13+H13)</f>
-        <v>2.6572230889235569E-2</v>
-      </c>
-      <c r="J13" s="43">
-        <v>60</v>
-      </c>
-      <c r="K13" s="33">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="L13" s="43">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E15" s="10">
-        <v>4</v>
-      </c>
-      <c r="F15" s="9">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="G15" s="9">
-        <v>3.4599999999999999E-2</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="I15" s="14">
-        <f>(2*F15*H15)/(F15+H15)</f>
-        <v>2.5732045088566826E-2</v>
-      </c>
-      <c r="J15" s="43">
-        <v>400</v>
-      </c>
-      <c r="K15" s="33">
-        <v>1E-4</v>
-      </c>
-      <c r="L15" s="43">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="G19" s="46">
-        <v>3.1800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="G20" s="46">
-        <f>G13-G19</f>
-        <v>4.2999999999999983E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="G21" s="47">
-        <f>G20/G19</f>
-        <v>0.13522012578616346</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E24" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="96"/>
-    </row>
-    <row r="25" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E25" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
-      <c r="F26" s="9">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="G26" s="9">
-        <v>2.98E-2</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="11">
-        <f>(2*F26*H26)/(F26+H26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E27" s="10">
-        <v>2</v>
-      </c>
-      <c r="F27" s="9">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="G27" s="9">
-        <v>3.15E-2</v>
-      </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11">
-        <f>(2*F27*H27)/(F27+H27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E28" s="10">
-        <v>3</v>
-      </c>
-      <c r="F28" s="14">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="G28" s="9">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11">
-        <f>(2*F28*H28)/(F28+H28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E29" s="10">
-        <v>4</v>
-      </c>
-      <c r="F29" s="9">
-        <v>4.0599999999999997E-2</v>
-      </c>
-      <c r="G29" s="9">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="11">
-        <f>(2*F29*H29)/(F29+H29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E36" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="96"/>
-    </row>
-    <row r="37" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E37" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E38" s="10">
-        <v>1</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E39" s="10">
-        <v>2</v>
-      </c>
-      <c r="F39" s="9">
-        <v>4.48E-2</v>
-      </c>
-      <c r="G39" s="9">
-        <v>1.84E-2</v>
-      </c>
-      <c r="H39" s="9">
-        <f t="shared" ref="H39:H44" si="0">(2*F39*G39)/(F39+G39)</f>
-        <v>2.6086075949367085E-2</v>
-      </c>
-      <c r="I39" s="14">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="J39" s="9">
-        <v>110</v>
-      </c>
-      <c r="K39" s="9">
-        <v>200</v>
-      </c>
-      <c r="L39" s="33">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="M39" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="N39" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O39" s="9">
-        <v>18</v>
-      </c>
-      <c r="P39" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E40" s="10">
-        <v>2</v>
-      </c>
-      <c r="F40" s="9">
-        <v>4.48E-2</v>
-      </c>
-      <c r="G40" s="9">
-        <v>1.84E-2</v>
-      </c>
-      <c r="H40" s="9">
-        <f t="shared" si="0"/>
-        <v>2.6086075949367085E-2</v>
-      </c>
-      <c r="I40" s="14">
-        <v>3.56E-2</v>
-      </c>
-      <c r="J40" s="9">
-        <v>130</v>
-      </c>
-      <c r="K40" s="9">
-        <v>200</v>
-      </c>
-      <c r="L40" s="33">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="M40" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="N40" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O40" s="9">
-        <v>18</v>
-      </c>
-      <c r="P40" s="9">
-        <v>40</v>
-      </c>
-      <c r="R40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E41" s="10">
-        <v>2</v>
-      </c>
-      <c r="F41" s="9">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="G41" s="9">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="H41" s="9">
-        <f t="shared" si="0"/>
-        <v>2.5834130781499199E-2</v>
-      </c>
-      <c r="I41" s="14">
-        <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="J41" s="43">
-        <v>130</v>
-      </c>
-      <c r="K41" s="9">
-        <v>160</v>
-      </c>
-      <c r="L41" s="33">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="M41" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="N41" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O41" s="9">
-        <v>18</v>
-      </c>
-      <c r="P41" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E42" s="10">
-        <v>2</v>
-      </c>
-      <c r="F42" s="9">
-        <v>4.41E-2</v>
-      </c>
-      <c r="G42" s="9">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="H42" s="9">
-        <f t="shared" si="0"/>
-        <v>2.5665916398713826E-2</v>
-      </c>
-      <c r="I42" s="9">
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="J42" s="43">
-        <v>100</v>
-      </c>
-      <c r="K42" s="9">
-        <v>140</v>
-      </c>
-      <c r="L42" s="33">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="M42" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="N42" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O42" s="9">
-        <v>15</v>
-      </c>
-      <c r="P42" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E43" s="10">
-        <v>3</v>
-      </c>
-      <c r="F43" s="9">
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="G43" s="14">
-        <v>1.8599999999999998E-2</v>
-      </c>
-      <c r="H43" s="9">
-        <f t="shared" si="0"/>
-        <v>2.6337833594976448E-2</v>
-      </c>
-      <c r="I43" s="14">
-        <v>3.5900000000000001E-2</v>
-      </c>
-      <c r="J43" s="43">
-        <v>130</v>
-      </c>
-      <c r="K43" s="9">
-        <v>250</v>
-      </c>
-      <c r="L43" s="33">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="M43" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="N43" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O43" s="9">
-        <v>18</v>
-      </c>
-      <c r="P43" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E44" s="10">
-        <v>4</v>
-      </c>
-      <c r="F44" s="9">
-        <v>4.48E-2</v>
-      </c>
-      <c r="G44" s="9">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H44" s="9">
-        <f t="shared" si="0"/>
-        <v>2.6186413902053715E-2</v>
-      </c>
-      <c r="I44" s="14">
-        <v>3.5299999999999998E-2</v>
-      </c>
-      <c r="J44" s="43">
-        <v>230</v>
-      </c>
-      <c r="K44" s="9">
-        <v>310</v>
-      </c>
-      <c r="L44" s="33">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="M44" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="N44" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O44" s="48">
-        <v>25</v>
-      </c>
-      <c r="P44" s="48">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E46" s="10">
-        <v>2</v>
-      </c>
-      <c r="F46" s="9">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="G46" s="9">
-        <v>1.83E-2</v>
-      </c>
-      <c r="H46" s="9">
-        <f>(2*F46*G46)/(F46+G46)</f>
-        <v>2.59516693163752E-2</v>
-      </c>
-      <c r="I46" s="14">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="J46" s="9">
-        <v>120</v>
-      </c>
-      <c r="K46" s="9">
-        <v>200</v>
-      </c>
-      <c r="L46" s="33">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="M46" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="N46" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O46" s="9">
-        <v>18</v>
-      </c>
-      <c r="P46" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E48" s="10">
-        <v>4</v>
-      </c>
-      <c r="F48" s="9">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="G48" s="9">
-        <v>1.84E-2</v>
-      </c>
-      <c r="H48" s="9">
-        <f t="shared" ref="H48" si="1">(2*F48*G48)/(F48+G48)</f>
-        <v>2.6034976152623211E-2</v>
-      </c>
-      <c r="I48" s="14">
-        <v>3.5499999999999997E-2</v>
-      </c>
-      <c r="J48" s="43">
-        <v>160</v>
-      </c>
-      <c r="K48" s="9">
-        <v>250</v>
-      </c>
-      <c r="L48" s="33">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="M48" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="N48" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="O48" s="48">
-        <v>18</v>
-      </c>
-      <c r="P48" s="48">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E36:P36"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I39:I44">
+  <conditionalFormatting sqref="G122:G131">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G147">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G139:G141 G144">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G143">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H132 H136:H141 H144:H1048576 P142:P143 P133:P135 J141:K141 J143:K144">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H125 H127:H131">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H141">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -8629,20 +10187,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H122:H144 J141:K141 J143:K144">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8658,7 +10204,1174 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFB7047-4B16-A040-8959-C3B43A4F25A8}">
+  <dimension ref="P14:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="14" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="15" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <f>P14/1.1</f>
+        <v>249999.99999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <f>P15/1.05</f>
+        <v>238095.23809523805</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40676F58-3295-4B44-9129-9CAFD6F49D33}">
+  <dimension ref="C6:T66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>2.718</v>
+      </c>
+      <c r="Q6">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f>SUM(P6:S6)</f>
+        <v>6.7519999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="T7" s="20">
+        <f>S6/T6</f>
+        <v>0.1481042654028436</v>
+      </c>
+    </row>
+    <row r="8" spans="5:20" ht="22" x14ac:dyDescent="0.3">
+      <c r="E8" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
+      <c r="T8" s="20">
+        <f>P6/T6</f>
+        <v>0.4025473933649289</v>
+      </c>
+    </row>
+    <row r="9" spans="5:20" ht="22" x14ac:dyDescent="0.3">
+      <c r="E9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" s="20">
+        <f>Q6/T6</f>
+        <v>0.30124407582938389</v>
+      </c>
+    </row>
+    <row r="10" spans="5:20" ht="22" x14ac:dyDescent="0.3">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3.27E-2</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I10" s="14">
+        <f>(2*F10*H10)/(F10+H10)</f>
+        <v>2.4119658119658122E-2</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="5:20" ht="22" x14ac:dyDescent="0.3">
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="33">
+        <v>1E-4</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="5:20" ht="22" x14ac:dyDescent="0.3">
+      <c r="E12" s="10">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L12" s="43">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="5:20" ht="22" x14ac:dyDescent="0.3">
+      <c r="E13" s="10">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9">
+        <v>4.53E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>3.61E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="I13" s="14">
+        <f>(2*F13*H13)/(F13+H13)</f>
+        <v>2.6572230889235569E-2</v>
+      </c>
+      <c r="J13" s="43">
+        <v>60</v>
+      </c>
+      <c r="K13" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L13" s="43">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="5:20" ht="22" x14ac:dyDescent="0.3">
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="I15" s="14">
+        <f>(2*F15*H15)/(F15+H15)</f>
+        <v>2.5732045088566826E-2</v>
+      </c>
+      <c r="J15" s="43">
+        <v>400</v>
+      </c>
+      <c r="K15" s="33">
+        <v>1E-4</v>
+      </c>
+      <c r="L15" s="43">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="G19" s="46">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="G20" s="46">
+        <f>G13-G19</f>
+        <v>4.2999999999999983E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="G21" s="47">
+        <f>G20/G19</f>
+        <v>0.13522012578616346</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E24" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="100"/>
+    </row>
+    <row r="25" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2.98E-2</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="11">
+        <f>(2*F26*H26)/(F26+H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E27" s="10">
+        <v>2</v>
+      </c>
+      <c r="F27" s="9">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="G27" s="9">
+        <v>3.15E-2</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11">
+        <f>(2*F27*H27)/(F27+H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E28" s="10">
+        <v>3</v>
+      </c>
+      <c r="F28" s="14">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G28" s="9">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11">
+        <f>(2*F28*H28)/(F28+H28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E29" s="10">
+        <v>4</v>
+      </c>
+      <c r="F29" s="9">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="G29" s="9">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="11">
+        <f>(2*F29*H29)/(F29+H29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E36" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="100"/>
+    </row>
+    <row r="37" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E39" s="10">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9">
+        <v>4.48E-2</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" ref="H39:H44" si="0">(2*F39*G39)/(F39+G39)</f>
+        <v>2.6086075949367085E-2</v>
+      </c>
+      <c r="I39" s="14">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="J39" s="9">
+        <v>110</v>
+      </c>
+      <c r="K39" s="9">
+        <v>200</v>
+      </c>
+      <c r="L39" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M39" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N39" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O39" s="9">
+        <v>18</v>
+      </c>
+      <c r="P39" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E40" s="10">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9">
+        <v>4.48E-2</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6086075949367085E-2</v>
+      </c>
+      <c r="I40" s="14">
+        <v>3.56E-2</v>
+      </c>
+      <c r="J40" s="9">
+        <v>130</v>
+      </c>
+      <c r="K40" s="9">
+        <v>200</v>
+      </c>
+      <c r="L40" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M40" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N40" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O40" s="9">
+        <v>18</v>
+      </c>
+      <c r="P40" s="9">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E41" s="10">
+        <v>2</v>
+      </c>
+      <c r="F41" s="9">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5834130781499199E-2</v>
+      </c>
+      <c r="I41" s="14">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="J41" s="43">
+        <v>130</v>
+      </c>
+      <c r="K41" s="9">
+        <v>160</v>
+      </c>
+      <c r="L41" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M41" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N41" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O41" s="9">
+        <v>18</v>
+      </c>
+      <c r="P41" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E42" s="10">
+        <v>2</v>
+      </c>
+      <c r="F42" s="9">
+        <v>4.41E-2</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5665916398713826E-2</v>
+      </c>
+      <c r="I42" s="9">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="J42" s="43">
+        <v>100</v>
+      </c>
+      <c r="K42" s="9">
+        <v>140</v>
+      </c>
+      <c r="L42" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M42" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N42" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O42" s="9">
+        <v>15</v>
+      </c>
+      <c r="P42" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E43" s="10">
+        <v>3</v>
+      </c>
+      <c r="F43" s="9">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="G43" s="14">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6337833594976448E-2</v>
+      </c>
+      <c r="I43" s="14">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="J43" s="43">
+        <v>130</v>
+      </c>
+      <c r="K43" s="9">
+        <v>250</v>
+      </c>
+      <c r="L43" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M43" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N43" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O43" s="9">
+        <v>18</v>
+      </c>
+      <c r="P43" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E44" s="10">
+        <v>4</v>
+      </c>
+      <c r="F44" s="9">
+        <v>4.48E-2</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6186413902053715E-2</v>
+      </c>
+      <c r="I44" s="14">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="J44" s="43">
+        <v>230</v>
+      </c>
+      <c r="K44" s="9">
+        <v>310</v>
+      </c>
+      <c r="L44" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M44" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N44" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O44" s="48">
+        <v>25</v>
+      </c>
+      <c r="P44" s="48">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E46" s="10">
+        <v>2</v>
+      </c>
+      <c r="F46" s="9">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1.83E-2</v>
+      </c>
+      <c r="H46" s="9">
+        <f>(2*F46*G46)/(F46+G46)</f>
+        <v>2.59516693163752E-2</v>
+      </c>
+      <c r="I46" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="J46" s="9">
+        <v>120</v>
+      </c>
+      <c r="K46" s="9">
+        <v>200</v>
+      </c>
+      <c r="L46" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M46" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N46" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O46" s="9">
+        <v>18</v>
+      </c>
+      <c r="P46" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E48" s="10">
+        <v>4</v>
+      </c>
+      <c r="F48" s="9">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" ref="H48" si="1">(2*F48*G48)/(F48+G48)</f>
+        <v>2.6034976152623211E-2</v>
+      </c>
+      <c r="I48" s="14">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="J48" s="43">
+        <v>160</v>
+      </c>
+      <c r="K48" s="9">
+        <v>250</v>
+      </c>
+      <c r="L48" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M48" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="N48" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O48" s="48">
+        <v>18</v>
+      </c>
+      <c r="P48" s="48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E50" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
+      <c r="K50" s="101"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="101"/>
+      <c r="N50" s="101"/>
+      <c r="O50" s="101"/>
+      <c r="P50" s="101"/>
+    </row>
+    <row r="51" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E51" s="88">
+        <v>3</v>
+      </c>
+      <c r="F51" s="46">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="G51" s="46">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="H51" s="9">
+        <f t="shared" ref="H51:H54" si="2">(2*F51*G51)/(F51+G51)</f>
+        <v>2.648923556942278E-2</v>
+      </c>
+      <c r="I51" s="46">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="J51" s="46">
+        <v>230</v>
+      </c>
+      <c r="K51" s="46">
+        <v>510</v>
+      </c>
+      <c r="L51" s="86">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M51" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="N51" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O51" s="69">
+        <v>15</v>
+      </c>
+      <c r="P51" s="69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E52" s="67">
+        <v>3</v>
+      </c>
+      <c r="F52" s="46">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="G52" s="46">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="H52" s="9">
+        <f t="shared" si="2"/>
+        <v>2.6523172628304826E-2</v>
+      </c>
+      <c r="I52" s="71">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J52" s="46">
+        <v>230</v>
+      </c>
+      <c r="K52" s="46">
+        <v>340</v>
+      </c>
+      <c r="L52" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M52" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="N52" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O52" s="46">
+        <v>20</v>
+      </c>
+      <c r="P52" s="46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E53" s="67">
+        <v>3</v>
+      </c>
+      <c r="F53" s="71">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G53" s="46">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H53" s="9">
+        <f t="shared" si="2"/>
+        <v>2.6220472440944879E-2</v>
+      </c>
+      <c r="I53" s="46">
+        <v>3.56E-2</v>
+      </c>
+      <c r="J53" s="46">
+        <v>230</v>
+      </c>
+      <c r="K53" s="46">
+        <v>430</v>
+      </c>
+      <c r="L53" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M53" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="N53" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O53" s="46">
+        <v>25</v>
+      </c>
+      <c r="P53" s="46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E54" s="67">
+        <v>3</v>
+      </c>
+      <c r="F54" s="46">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="G54" s="46">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="H54" s="9">
+        <f t="shared" si="2"/>
+        <v>2.6540062111801242E-2</v>
+      </c>
+      <c r="I54" s="71">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J54" s="46">
+        <v>230</v>
+      </c>
+      <c r="K54" s="46">
+        <v>300</v>
+      </c>
+      <c r="L54" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M54" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="N54" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O54" s="46">
+        <v>20</v>
+      </c>
+      <c r="P54" s="46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>4.1099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <f>F61-F56</f>
+        <v>5.0000000000000044E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="C58" s="20">
+        <f>C57/F56</f>
+        <v>0.12165450121654513</v>
+      </c>
+      <c r="E58" s="67">
+        <v>2</v>
+      </c>
+      <c r="F58" s="46">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="G58" s="46">
+        <v>1.83E-2</v>
+      </c>
+      <c r="H58" s="9">
+        <f t="shared" ref="H58:H59" si="3">(2*F58*G58)/(F58+G58)</f>
+        <v>2.5934713375796177E-2</v>
+      </c>
+      <c r="I58" s="71">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J58" s="46">
+        <v>130</v>
+      </c>
+      <c r="K58" s="46">
+        <v>270</v>
+      </c>
+      <c r="L58" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M58" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="N58" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="O58" s="46">
+        <v>20</v>
+      </c>
+      <c r="P58" s="46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E59" s="88">
+        <v>1</v>
+      </c>
+      <c r="F59" s="46">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="G59" s="46">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="H59" s="9">
+        <f t="shared" si="3"/>
+        <v>2.3968330464716005E-2</v>
+      </c>
+      <c r="I59" s="46">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="J59" s="46">
+        <v>100</v>
+      </c>
+      <c r="K59" s="46">
+        <v>170</v>
+      </c>
+      <c r="L59" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M59" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="N59" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="O59" s="46">
+        <v>20</v>
+      </c>
+      <c r="P59" s="46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S60">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E61" s="88">
+        <v>4</v>
+      </c>
+      <c r="F61" s="46">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="G61" s="46">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="H61" s="9">
+        <f t="shared" ref="H61" si="4">(2*F61*G61)/(F61+G61)</f>
+        <v>2.6708166409861327E-2</v>
+      </c>
+      <c r="I61" s="46">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="J61" s="46">
+        <v>330</v>
+      </c>
+      <c r="K61" s="46">
+        <v>430</v>
+      </c>
+      <c r="L61" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M61" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="N61" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="O61" s="46">
+        <v>20</v>
+      </c>
+      <c r="P61" s="46">
+        <v>60</v>
+      </c>
+      <c r="S61">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S62">
+        <f>S61-S60</f>
+        <v>4.1999999999999954E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S63">
+        <f>S62/S60</f>
+        <v>0.13207547169811307</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>3.1300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f>I61-I64</f>
+        <v>4.9999999999999975E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66" s="20">
+        <f>I65/I64</f>
+        <v>0.15974440894568681</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E36:P36"/>
+    <mergeCell ref="E50:P50"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H49 H51:H55">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58:H59">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576 J58:K58">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I44">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E92C1B-7A6F-A542-90FD-1DA37706EDAB}">
   <dimension ref="F6:R46"/>
   <sheetViews>
@@ -8672,21 +11385,21 @@
   </cols>
   <sheetData>
     <row r="6" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="96"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="100"/>
     </row>
     <row r="7" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F7" s="12" t="s">
@@ -8705,28 +11418,28 @@
         <v>13</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="N7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="O7" s="12" t="s">
-        <v>78</v>
-      </c>
       <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="12" t="s">
-        <v>22</v>
-      </c>
       <c r="R7" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -8773,10 +11486,10 @@
         <v>1E-3</v>
       </c>
       <c r="N9" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O9" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P9" s="9">
         <v>15</v>
@@ -8785,7 +11498,7 @@
         <v>10</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -8815,10 +11528,10 @@
         <v>1E-3</v>
       </c>
       <c r="N10" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O10" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P10" s="9">
         <v>20</v>
@@ -8827,7 +11540,7 @@
         <v>10</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -8857,10 +11570,10 @@
         <v>1E-3</v>
       </c>
       <c r="N11" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O11" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" s="9">
         <v>10</v>
@@ -8869,7 +11582,7 @@
         <v>10</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -8899,10 +11612,10 @@
         <v>1E-3</v>
       </c>
       <c r="N12" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O12" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P12" s="9">
         <v>15</v>
@@ -8911,7 +11624,7 @@
         <v>15</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -8941,10 +11654,10 @@
         <v>1E-3</v>
       </c>
       <c r="N13" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P13" s="9">
         <v>15</v>
@@ -8953,7 +11666,7 @@
         <v>20</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -8983,10 +11696,10 @@
         <v>1E-3</v>
       </c>
       <c r="N14" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O14" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P14" s="48">
         <v>15</v>
@@ -8995,7 +11708,7 @@
         <v>25</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9025,10 +11738,10 @@
         <v>1E-3</v>
       </c>
       <c r="N15" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P15" s="48">
         <v>15</v>
@@ -9037,7 +11750,7 @@
         <v>30</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9067,10 +11780,10 @@
         <v>1E-3</v>
       </c>
       <c r="N16" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O16" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P16" s="48">
         <v>15</v>
@@ -9079,7 +11792,7 @@
         <v>35</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9109,10 +11822,10 @@
         <v>1E-3</v>
       </c>
       <c r="N17" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O17" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P17" s="48">
         <v>15</v>
@@ -9121,7 +11834,7 @@
         <v>30</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9140,21 +11853,21 @@
       <c r="R18" s="83"/>
     </row>
     <row r="19" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F19" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
+      <c r="F19" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="100"/>
     </row>
     <row r="20" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F20" s="10">
@@ -9183,10 +11896,10 @@
         <v>1E-3</v>
       </c>
       <c r="N20" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O20" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P20" s="48">
         <v>15</v>
@@ -9195,7 +11908,7 @@
         <v>30</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9225,10 +11938,10 @@
         <v>1E-3</v>
       </c>
       <c r="N21" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O21" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P21" s="48">
         <v>15</v>
@@ -9237,7 +11950,7 @@
         <v>30</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9267,10 +11980,10 @@
         <v>1E-3</v>
       </c>
       <c r="N22" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O22" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P22" s="48">
         <v>15</v>
@@ -9279,7 +11992,7 @@
         <v>30</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9309,10 +12022,10 @@
         <v>1E-3</v>
       </c>
       <c r="N23" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O23" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P23" s="48">
         <v>15</v>
@@ -9321,7 +12034,7 @@
         <v>30</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9351,10 +12064,10 @@
         <v>1E-3</v>
       </c>
       <c r="N24" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P24" s="48">
         <v>15</v>
@@ -9363,7 +12076,7 @@
         <v>30</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9393,10 +12106,10 @@
         <v>1E-3</v>
       </c>
       <c r="N25" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P25" s="48">
         <v>15</v>
@@ -9405,7 +12118,7 @@
         <v>30</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9435,10 +12148,10 @@
         <v>1E-3</v>
       </c>
       <c r="N26" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P26" s="9">
         <v>15</v>
@@ -9447,7 +12160,7 @@
         <v>30</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9477,10 +12190,10 @@
         <v>1E-3</v>
       </c>
       <c r="N27" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O27" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P27" s="9">
         <v>15</v>
@@ -9489,7 +12202,7 @@
         <v>30</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9519,10 +12232,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="N28" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O28" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P28" s="48">
         <v>15</v>
@@ -9531,7 +12244,7 @@
         <v>30</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9576,10 +12289,10 @@
         <v>1E-3</v>
       </c>
       <c r="N31" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O31" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P31" s="9">
         <v>15</v>
@@ -9588,7 +12301,7 @@
         <v>35</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9618,10 +12331,10 @@
         <v>1E-3</v>
       </c>
       <c r="N32" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O32" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P32" s="9">
         <v>15</v>
@@ -9630,7 +12343,7 @@
         <v>35</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9660,10 +12373,10 @@
         <v>1E-3</v>
       </c>
       <c r="N33" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O33" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P33" s="9">
         <v>15</v>
@@ -9672,7 +12385,7 @@
         <v>35</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="6:18" ht="22" x14ac:dyDescent="0.3">
@@ -9691,20 +12404,20 @@
       <c r="R34" s="46"/>
     </row>
     <row r="36" spans="6:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="F36" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="104"/>
-      <c r="N36" s="104"/>
-      <c r="O36" s="104"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="104"/>
+      <c r="F36" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
     </row>
     <row r="37" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F37" s="10">
@@ -9905,159 +12618,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74A1973-828D-9C45-B90B-5490793AE67B}">
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H7" s="103" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H10" s="10">
-        <v>2</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11" t="e">
-        <f>(2*I10*K10)/(I10+K10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H11" s="10">
-        <v>3</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0.30220000000000002</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0.25069999999999998</v>
-      </c>
-      <c r="K11" s="14">
-        <f>(2*I11*J11)/(I11+J11)</f>
-        <v>0.27405151021884611</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0.36430000000000001</v>
-      </c>
-      <c r="M11" s="33">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H12" s="10">
-        <v>3</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.3614</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0.30280000000000001</v>
-      </c>
-      <c r="K12" s="14">
-        <f>(2*I12*J12)/(I12+J12)</f>
-        <v>0.32951496537187597</v>
-      </c>
-      <c r="L12" s="14">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="M12" s="33">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H13" s="10">
-        <v>3</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0.34920000000000001</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0.29409999999999997</v>
-      </c>
-      <c r="K13" s="14">
-        <f>(2*I13*J13)/(I13+J13)</f>
-        <v>0.31929028447069796</v>
-      </c>
-      <c r="L13" s="14">
-        <v>0.42820000000000003</v>
-      </c>
-      <c r="M13" s="33">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H14" s="10">
-        <v>4</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="11" t="e">
-        <f>(2*I14*K14)/(I14+K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H7:L7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/exp/Sim_20241213.xlsx
+++ b/exp/Sim_20241213.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAD3454-BD70-BD4C-A51C-8560910AC36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E04CCB-7B52-744E-9655-BC2F109F95A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37540" yWindow="2540" windowWidth="36000" windowHeight="14560" activeTab="9" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" activeTab="7" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="109">
   <si>
     <t>Paper value</t>
   </si>
@@ -631,7 +631,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -781,6 +781,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -844,11 +848,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3541,8 +3542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74A1973-828D-9C45-B90B-5490793AE67B}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3560,13 +3561,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H7" s="108" t="s">
+      <c r="H7" s="110" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="22" x14ac:dyDescent="0.3">
@@ -3600,7 +3601,7 @@
         <v>0.2944</v>
       </c>
       <c r="K9" s="14">
-        <f>(2*I9*J9)/(I9+J9)</f>
+        <f t="shared" ref="K9:K15" si="0">(2*I9*J9)/(I9+J9)</f>
         <v>0.32000992401922773</v>
       </c>
       <c r="L9" s="14">
@@ -3621,7 +3622,7 @@
         <v>0.29830000000000001</v>
       </c>
       <c r="K10" s="14">
-        <f>(2*I10*J10)/(I10+J10)</f>
+        <f t="shared" si="0"/>
         <v>0.32402260683106143</v>
       </c>
       <c r="L10" s="14">
@@ -3642,7 +3643,7 @@
         <v>0.25069999999999998</v>
       </c>
       <c r="K11" s="14">
-        <f>(2*I11*J11)/(I11+J11)</f>
+        <f t="shared" si="0"/>
         <v>0.27405151021884611</v>
       </c>
       <c r="L11" s="14">
@@ -3663,7 +3664,7 @@
         <v>0.30280000000000001</v>
       </c>
       <c r="K12" s="14">
-        <f>(2*I12*J12)/(I12+J12)</f>
+        <f t="shared" si="0"/>
         <v>0.32951496537187597</v>
       </c>
       <c r="L12" s="14">
@@ -3684,7 +3685,7 @@
         <v>0.29409999999999997</v>
       </c>
       <c r="K13" s="14">
-        <f>(2*I13*J13)/(I13+J13)</f>
+        <f t="shared" si="0"/>
         <v>0.31929028447069796</v>
       </c>
       <c r="L13" s="14">
@@ -3705,7 +3706,7 @@
         <v>0.3029</v>
       </c>
       <c r="K14" s="14">
-        <f>(2*I14*J14)/(I14+J14)</f>
+        <f t="shared" si="0"/>
         <v>0.32961574352799516</v>
       </c>
       <c r="L14" s="14">
@@ -3716,20 +3717,20 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H15" s="110">
+      <c r="H15" s="19">
         <v>4</v>
       </c>
-      <c r="I15" s="111">
+      <c r="I15" s="17">
         <v>0.35149999999999998</v>
       </c>
-      <c r="J15" s="111">
+      <c r="J15" s="17">
         <v>0.29520000000000002</v>
       </c>
-      <c r="K15" s="112">
-        <f>(2*I15*J15)/(I15+J15)</f>
+      <c r="K15" s="89">
+        <f t="shared" si="0"/>
         <v>0.3208993350858203</v>
       </c>
-      <c r="L15" s="112">
+      <c r="L15" s="89">
         <v>0.43</v>
       </c>
       <c r="M15" s="68">
@@ -3763,7 +3764,7 @@
         <v>0.30680000000000002</v>
       </c>
       <c r="K18" s="14">
-        <f t="shared" ref="K18:K28" si="0">(2*I18*J18)/(I18+J18)</f>
+        <f t="shared" ref="K18:K28" si="1">(2*I18*J18)/(I18+J18)</f>
         <v>0.33212200956937793</v>
       </c>
       <c r="L18" s="46">
@@ -3790,7 +3791,7 @@
         <v>0.3075</v>
       </c>
       <c r="K19" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33244733303451368</v>
       </c>
       <c r="L19" s="46">
@@ -3817,7 +3818,7 @@
         <v>0.31009999999999999</v>
       </c>
       <c r="K20" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33519107883817423</v>
       </c>
       <c r="L20" s="46">
@@ -3844,7 +3845,7 @@
         <v>0.31009999999999999</v>
       </c>
       <c r="K21" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33653625368731566</v>
       </c>
       <c r="L21" s="46">
@@ -3871,7 +3872,7 @@
         <v>0.31069999999999998</v>
       </c>
       <c r="K22" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3358372430113889</v>
       </c>
       <c r="L22" s="46">
@@ -3898,7 +3899,7 @@
         <v>0.30859999999999999</v>
       </c>
       <c r="K23" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33389207199167037</v>
       </c>
       <c r="L23" s="46">
@@ -3925,7 +3926,7 @@
         <v>0.31069999999999998</v>
       </c>
       <c r="K24" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33693119198467658</v>
       </c>
       <c r="L24" s="46">
@@ -3960,7 +3961,7 @@
         <v>0.30990000000000001</v>
       </c>
       <c r="K25" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33620924258083568</v>
       </c>
       <c r="L25" s="46">
@@ -3987,7 +3988,7 @@
         <v>0.30990000000000001</v>
       </c>
       <c r="K26" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33662733303847853</v>
       </c>
       <c r="L26" s="46">
@@ -4014,7 +4015,7 @@
         <v>0.30930000000000002</v>
       </c>
       <c r="K27" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33585582976208067</v>
       </c>
       <c r="L27" s="46">
@@ -4041,7 +4042,7 @@
         <v>0.30830000000000002</v>
       </c>
       <c r="K28" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33451396349606771</v>
       </c>
       <c r="L28" s="46">
@@ -4304,6 +4305,18 @@
   <mergeCells count="1">
     <mergeCell ref="H7:L7"/>
   </mergeCells>
+  <conditionalFormatting sqref="L9:L38 L41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L18:L28">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -4318,18 +4331,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:L38 L41">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L38 L41">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4364,18 +4365,18 @@
   </cols>
   <sheetData>
     <row r="10" spans="5:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="E10" s="89" t="s">
+      <c r="E10" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="93"/>
       <c r="Q10" s="6" t="s">
         <v>57</v>
       </c>
@@ -4538,18 +4539,18 @@
       <c r="N16" s="2"/>
     </row>
     <row r="18" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E18" s="89" t="s">
+      <c r="E18" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="91"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="93"/>
       <c r="Q18" s="6" t="s">
         <v>50</v>
       </c>
@@ -4767,18 +4768,18 @@
       </c>
     </row>
     <row r="26" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="91"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="93"/>
     </row>
     <row r="27" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E27" s="31"/>
@@ -4951,17 +4952,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
     </row>
     <row r="6" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E6" s="36"/>
@@ -4969,12 +4970,12 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="93" t="s">
+      <c r="J6" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="93"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
     </row>
     <row r="7" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E7" s="37" t="s">
@@ -5126,17 +5127,17 @@
       </c>
     </row>
     <row r="15" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
     </row>
     <row r="16" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E16" s="36"/>
@@ -5144,12 +5145,12 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="93" t="s">
+      <c r="J16" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
     </row>
     <row r="17" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E17" s="37" t="s">
@@ -5305,21 +5306,21 @@
       <c r="M22" s="9"/>
     </row>
     <row r="27" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E27" s="93" t="s">
+      <c r="E27" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
     </row>
     <row r="28" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E28" s="37" t="s">
@@ -5461,30 +5462,30 @@
       <c r="Q33" s="9"/>
     </row>
     <row r="37" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E37" s="92" t="s">
+      <c r="E37" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="94"/>
+      <c r="K37" s="94"/>
+      <c r="L37" s="94"/>
+      <c r="M37" s="94"/>
     </row>
     <row r="38" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E38" s="94" t="s">
+      <c r="E38" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="96"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="98"/>
     </row>
     <row r="39" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D39" s="73" t="s">
@@ -5783,19 +5784,19 @@
       <c r="M49" s="46"/>
     </row>
     <row r="51" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E51" s="92" t="s">
+      <c r="E51" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="92"/>
-      <c r="N51" s="92"/>
-      <c r="O51" s="92"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="94"/>
     </row>
     <row r="52" spans="5:16" ht="22" x14ac:dyDescent="0.3">
       <c r="E52" s="37" t="s">
@@ -7384,56 +7385,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:28" ht="27" x14ac:dyDescent="0.35">
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
     </row>
     <row r="4" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
     </row>
     <row r="5" spans="3:28" ht="19" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -7493,16 +7494,16 @@
       </c>
     </row>
     <row r="6" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C6" s="102">
+      <c r="C6" s="104">
         <v>1000</v>
       </c>
-      <c r="D6" s="106">
+      <c r="D6" s="108">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="106">
+      <c r="F6" s="108">
         <v>0.1492</v>
       </c>
       <c r="G6" s="7">
@@ -7515,7 +7516,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="106">
+      <c r="M6" s="108">
         <v>0.17549999999999999</v>
       </c>
       <c r="N6" s="1">
@@ -7524,7 +7525,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="106">
+      <c r="R6" s="108">
         <v>0.17549999999999999</v>
       </c>
       <c r="S6" s="1"/>
@@ -7532,12 +7533,12 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C7" s="103"/>
-      <c r="D7" s="106"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="106"/>
+      <c r="F7" s="108"/>
       <c r="G7" s="7">
         <v>0.14838999999999999</v>
       </c>
@@ -7552,7 +7553,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="106"/>
+      <c r="M7" s="108"/>
       <c r="N7" s="7">
         <v>0.17444000000000001</v>
       </c>
@@ -7561,7 +7562,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="106"/>
+      <c r="R7" s="108"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
         <v>5.3499999999999999E-2</v>
@@ -7572,7 +7573,7 @@
       </c>
     </row>
     <row r="8" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C8" s="104"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="23">
         <v>2</v>
       </c>
@@ -7614,13 +7615,13 @@
       </c>
     </row>
     <row r="13" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="X13" s="98" t="s">
+      <c r="X13" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="99"/>
-      <c r="Z13" s="99"/>
-      <c r="AA13" s="99"/>
-      <c r="AB13" s="100"/>
+      <c r="Y13" s="101"/>
+      <c r="Z13" s="101"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="102"/>
     </row>
     <row r="14" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="X14" s="12" t="s">
@@ -7682,13 +7683,13 @@
       </c>
     </row>
     <row r="18" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
       <c r="X18" s="10">
         <v>4</v>
       </c>
@@ -7752,19 +7753,19 @@
         <f>(2*D21*F21)/(D21+F21)</f>
         <v>8.3585657917309999E-2</v>
       </c>
-      <c r="J21" s="101" t="s">
+      <c r="J21" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="M21" s="103"/>
+      <c r="N21" s="103"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="103"/>
+      <c r="R21" s="103"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="103"/>
     </row>
     <row r="22" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
@@ -7827,10 +7828,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
-  <dimension ref="D9:AA151"/>
+  <dimension ref="D9:AA162"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7846,21 +7847,21 @@
   </cols>
   <sheetData>
     <row r="9" spans="4:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="100"/>
-      <c r="N9" s="98" t="s">
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="102"/>
+      <c r="N9" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="100"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="102"/>
     </row>
     <row r="10" spans="4:24" ht="22" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -8022,26 +8023,26 @@
       <c r="S14" s="2"/>
     </row>
     <row r="18" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="100"/>
-      <c r="N18" s="98" t="s">
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="102"/>
+      <c r="N18" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="100"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="102"/>
     </row>
     <row r="19" spans="4:27" ht="22" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
@@ -8389,15 +8390,15 @@
       </c>
     </row>
     <row r="29" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="100"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="102"/>
       <c r="N29" s="38" t="s">
         <v>23</v>
       </c>
@@ -8601,16 +8602,16 @@
       <c r="V36" s="17"/>
     </row>
     <row r="37" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D37" s="98" t="s">
+      <c r="D37" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="100"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="102"/>
       <c r="N37" s="19"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -8728,16 +8729,16 @@
       <c r="K42" s="2"/>
     </row>
     <row r="48" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D48" s="98" t="s">
+      <c r="D48" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="100"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="102"/>
     </row>
     <row r="49" spans="4:11" ht="22" x14ac:dyDescent="0.3">
       <c r="D49" s="12" t="s">
@@ -8916,17 +8917,17 @@
       </c>
     </row>
     <row r="76" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D76" s="98" t="s">
+      <c r="D76" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="99"/>
-      <c r="K76" s="99"/>
-      <c r="L76" s="100"/>
+      <c r="E76" s="101"/>
+      <c r="F76" s="101"/>
+      <c r="G76" s="101"/>
+      <c r="H76" s="101"/>
+      <c r="I76" s="101"/>
+      <c r="J76" s="101"/>
+      <c r="K76" s="101"/>
+      <c r="L76" s="102"/>
     </row>
     <row r="77" spans="4:12" ht="22" x14ac:dyDescent="0.3">
       <c r="D77" s="12" t="s">
@@ -9075,18 +9076,18 @@
       </c>
     </row>
     <row r="91" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D91" s="98" t="s">
+      <c r="D91" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="E91" s="99"/>
-      <c r="F91" s="99"/>
-      <c r="G91" s="99"/>
-      <c r="H91" s="99"/>
-      <c r="I91" s="99"/>
-      <c r="J91" s="99"/>
-      <c r="K91" s="99"/>
-      <c r="L91" s="99"/>
-      <c r="M91" s="100"/>
+      <c r="E91" s="101"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="101"/>
+      <c r="I91" s="101"/>
+      <c r="J91" s="101"/>
+      <c r="K91" s="101"/>
+      <c r="L91" s="101"/>
+      <c r="M91" s="102"/>
     </row>
     <row r="92" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D92" s="12" t="s">
@@ -9373,16 +9374,16 @@
       <c r="M104" s="2"/>
     </row>
     <row r="110" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D110" s="108" t="s">
+      <c r="D110" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="E110" s="108"/>
-      <c r="F110" s="108"/>
-      <c r="G110" s="108"/>
-      <c r="H110" s="108"/>
-      <c r="I110" s="108"/>
-      <c r="J110" s="108"/>
-      <c r="K110" s="108"/>
+      <c r="E110" s="110"/>
+      <c r="F110" s="110"/>
+      <c r="G110" s="110"/>
+      <c r="H110" s="110"/>
+      <c r="I110" s="110"/>
+      <c r="J110" s="110"/>
+      <c r="K110" s="110"/>
     </row>
     <row r="111" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D111" s="12" t="s">
@@ -9519,18 +9520,18 @@
       </c>
     </row>
     <row r="120" spans="4:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="D120" s="107" t="s">
+      <c r="D120" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="E120" s="107"/>
-      <c r="F120" s="107"/>
-      <c r="G120" s="107"/>
-      <c r="H120" s="107"/>
-      <c r="I120" s="107"/>
-      <c r="J120" s="107"/>
-      <c r="K120" s="107"/>
-      <c r="L120" s="107"/>
-      <c r="M120" s="107"/>
+      <c r="E120" s="109"/>
+      <c r="F120" s="109"/>
+      <c r="G120" s="109"/>
+      <c r="H120" s="109"/>
+      <c r="I120" s="109"/>
+      <c r="J120" s="109"/>
+      <c r="K120" s="109"/>
+      <c r="L120" s="109"/>
+      <c r="M120" s="109"/>
     </row>
     <row r="121" spans="4:13" ht="22" x14ac:dyDescent="0.3">
       <c r="D121" s="87" t="s">
@@ -9703,7 +9704,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="G127" s="14">
-        <f>(2*E127*F127)/(E127+F127)</f>
+        <f t="shared" ref="G127:G134" si="1">(2*E127*F127)/(E127+F127)</f>
         <v>4.0831865828092243E-2</v>
       </c>
       <c r="H127" s="46">
@@ -9736,7 +9737,7 @@
         <v>2.98E-2</v>
       </c>
       <c r="G128" s="14">
-        <f>(2*E128*F128)/(E128+F128)</f>
+        <f t="shared" si="1"/>
         <v>4.1060542797494777E-2</v>
       </c>
       <c r="H128" s="46">
@@ -9769,13 +9770,13 @@
         <v>2.9899999999999999E-2</v>
       </c>
       <c r="G129" s="71">
-        <f>(2*E129*F129)/(E129+F129)</f>
+        <f t="shared" si="1"/>
         <v>4.1194172736732572E-2</v>
       </c>
       <c r="H129" s="46">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="I129" s="28">
+      <c r="I129" s="68">
         <v>1E-4</v>
       </c>
       <c r="J129" s="46">
@@ -9800,13 +9801,13 @@
         <v>2.9399999999999999E-2</v>
       </c>
       <c r="G130" s="71">
-        <f>(2*E130*F130)/(E130+F130)</f>
+        <f t="shared" si="1"/>
         <v>4.0545300950369588E-2</v>
       </c>
       <c r="H130" s="46">
         <v>5.3699999999999998E-2</v>
       </c>
-      <c r="I130" s="28">
+      <c r="I130" s="68">
         <v>1E-4</v>
       </c>
       <c r="J130" s="46">
@@ -9833,13 +9834,13 @@
         <v>2.9100000000000001E-2</v>
       </c>
       <c r="G131" s="71">
-        <f>(2*E131*F131)/(E131+F131)</f>
+        <f t="shared" si="1"/>
         <v>4.0144349680170575E-2</v>
       </c>
       <c r="H131" s="46">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="I131" s="28">
+      <c r="I131" s="68">
         <v>1E-4</v>
       </c>
       <c r="J131" s="46">
@@ -9855,7 +9856,71 @@
         <v>440</v>
       </c>
     </row>
+    <row r="132" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D132" s="67">
+        <v>3</v>
+      </c>
+      <c r="E132" s="46">
+        <v>6.59E-2</v>
+      </c>
+      <c r="F132" s="46">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="G132" s="71">
+        <f t="shared" si="1"/>
+        <v>4.0946234309623429E-2</v>
+      </c>
+      <c r="H132" s="46">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="I132" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J132" s="46">
+        <v>55</v>
+      </c>
+      <c r="K132" s="46">
+        <v>25</v>
+      </c>
+      <c r="L132" s="46">
+        <v>350</v>
+      </c>
+      <c r="M132" s="46">
+        <v>460</v>
+      </c>
+    </row>
     <row r="133" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D133" s="67">
+        <v>3</v>
+      </c>
+      <c r="E133" s="46">
+        <v>6.54E-2</v>
+      </c>
+      <c r="F133" s="46">
+        <v>2.93E-2</v>
+      </c>
+      <c r="G133" s="71">
+        <f t="shared" si="1"/>
+        <v>4.0469271383315727E-2</v>
+      </c>
+      <c r="H133" s="46">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="I133" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J133" s="46">
+        <v>40</v>
+      </c>
+      <c r="K133" s="46">
+        <v>10</v>
+      </c>
+      <c r="L133" s="46">
+        <v>350</v>
+      </c>
+      <c r="M133" s="46">
+        <v>400</v>
+      </c>
       <c r="O133" s="11">
         <v>6.4899999999999999E-2</v>
       </c>
@@ -9864,6 +9929,37 @@
       </c>
     </row>
     <row r="134" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D134" s="67">
+        <v>3</v>
+      </c>
+      <c r="E134" s="46">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="F134" s="46">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="G134" s="71">
+        <f t="shared" si="1"/>
+        <v>4.1252074688796686E-2</v>
+      </c>
+      <c r="H134" s="46">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="I134" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J134" s="46">
+        <v>50</v>
+      </c>
+      <c r="K134" s="46">
+        <v>20</v>
+      </c>
+      <c r="L134" s="46">
+        <v>350</v>
+      </c>
+      <c r="M134" s="46">
+        <v>400</v>
+      </c>
       <c r="O134" s="44">
         <f>E125-O133</f>
         <v>1.1000000000000038E-3</v>
@@ -10042,7 +10138,7 @@
       <c r="H144" s="46">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="I144" s="28">
+      <c r="I144" s="68">
         <v>1E-4</v>
       </c>
       <c r="J144" s="46">
@@ -10058,12 +10154,78 @@
         <v>300</v>
       </c>
     </row>
-    <row r="148" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="D146" s="46">
+        <v>4</v>
+      </c>
+      <c r="E146" s="46">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="F146" s="46">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="G146" s="71">
+        <f>(2*E146*F146)/(E146+F146)</f>
+        <v>3.9799784482758623E-2</v>
+      </c>
+      <c r="H146" s="46">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="I146" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J146" s="46">
+        <v>50</v>
+      </c>
+      <c r="K146" s="46">
+        <v>20</v>
+      </c>
+      <c r="L146" s="46">
+        <v>240</v>
+      </c>
+      <c r="M146" s="46">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="147" spans="4:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="D147" s="46">
+        <v>4</v>
+      </c>
+      <c r="E147" s="71">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="F147" s="46">
+        <v>3.04E-2</v>
+      </c>
+      <c r="G147" s="71">
+        <f>(2*E147*F147)/(E147+F147)</f>
+        <v>4.1901022494887523E-2</v>
+      </c>
+      <c r="H147" s="46">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="I147" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J147" s="46">
+        <v>50</v>
+      </c>
+      <c r="K147" s="46">
+        <v>20</v>
+      </c>
+      <c r="L147" s="46">
+        <v>970</v>
+      </c>
+      <c r="M147" s="46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="148" spans="4:15" x14ac:dyDescent="0.2">
       <c r="O148">
         <v>4.9200000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E149">
         <v>6.4899999999999999E-2</v>
       </c>
@@ -10071,7 +10233,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="150" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E150">
         <f>E140-E149</f>
         <v>2.2999999999999965E-3</v>
@@ -10080,13 +10242,54 @@
         <v>5.4300000000000001E-2</v>
       </c>
     </row>
-    <row r="151" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E151" s="20">
         <f>E150/E149</f>
         <v>3.5439137134052334E-2</v>
       </c>
       <c r="O151">
         <v>5.4899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="J159" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="K159" s="28">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="160" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="I160">
+        <v>10</v>
+      </c>
+      <c r="J160">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="K160">
+        <v>3.4700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I161">
+        <v>20</v>
+      </c>
+      <c r="J161">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="K161">
+        <v>3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="9:11" x14ac:dyDescent="0.2">
+      <c r="I162">
+        <v>30</v>
+      </c>
+      <c r="J162" s="44">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="K162" s="44">
+        <v>0.41399999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10104,7 +10307,7 @@
     <mergeCell ref="D9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="G122:G131">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10116,7 +10319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G127:G147">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10128,6 +10331,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G139:G141 G144">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G143">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G146:G147">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H132 H136:H141 H144:H1048576 P142:P143 P133:P135 J141:K141 J143:K144 J146:K146 J147">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -10139,8 +10378,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G143">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="H122:H125 H127:H131">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10151,7 +10390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H132 H136:H141 H144:H1048576 P142:P143 P133:P135 J141:K141 J143:K144">
+  <conditionalFormatting sqref="H122:H141">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10163,8 +10402,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H125 H127:H131">
-    <cfRule type="colorScale" priority="9">
+  <conditionalFormatting sqref="H122:H144 J141:K141 J143:K144 J146:K146 J147">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10175,20 +10414,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H141">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H144 J141:K141 J143:K144">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="H122:H147">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10238,15 +10465,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40676F58-3295-4B44-9129-9CAFD6F49D33}">
-  <dimension ref="C6:T66"/>
+  <dimension ref="C6:T70"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:20" x14ac:dyDescent="0.2">
@@ -10274,16 +10502,16 @@
       </c>
     </row>
     <row r="8" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="102"/>
       <c r="T8" s="20">
         <f>P6/T6</f>
         <v>0.4025473933649289</v>
@@ -10448,13 +10676,13 @@
       </c>
     </row>
     <row r="24" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E24" s="98" t="s">
+      <c r="E24" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="5:9" ht="22" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
@@ -10538,20 +10766,20 @@
       </c>
     </row>
     <row r="36" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E36" s="98" t="s">
+      <c r="E36" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="100"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="102"/>
     </row>
     <row r="37" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E37" s="12" t="s">
@@ -10923,20 +11151,20 @@
       </c>
     </row>
     <row r="50" spans="3:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="E50" s="101" t="s">
+      <c r="E50" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="101"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="101"/>
-      <c r="N50" s="101"/>
-      <c r="O50" s="101"/>
-      <c r="P50" s="101"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
     </row>
     <row r="51" spans="3:19" ht="22" x14ac:dyDescent="0.3">
       <c r="E51" s="88">
@@ -11099,10 +11327,13 @@
         <v>4.1099999999999998E-2</v>
       </c>
     </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:19" ht="19" x14ac:dyDescent="0.25">
       <c r="C57">
         <f>F61-F56</f>
         <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="Q57" s="90" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="3:19" ht="22" x14ac:dyDescent="0.3">
@@ -11186,6 +11417,9 @@
       <c r="P59" s="46">
         <v>60</v>
       </c>
+      <c r="Q59" s="112">
+        <v>4990103</v>
+      </c>
     </row>
     <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="S60">
@@ -11230,48 +11464,175 @@
       <c r="P61" s="46">
         <v>60</v>
       </c>
+      <c r="Q61" s="112">
+        <v>4990103</v>
+      </c>
       <c r="S61">
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E62" s="67">
+        <v>4</v>
+      </c>
+      <c r="F62" s="46">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="G62" s="46">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="H62" s="9">
+        <f>(2*F62*G62)/(F62+G62)</f>
+        <v>2.7111550151975684E-2</v>
+      </c>
+      <c r="I62" s="46">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="J62" s="46">
+        <v>330</v>
+      </c>
+      <c r="K62" s="46">
+        <v>500</v>
+      </c>
+      <c r="L62" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M62" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="N62" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="O62" s="46">
+        <v>18</v>
+      </c>
+      <c r="P62" s="46">
+        <v>80</v>
+      </c>
       <c r="S62">
         <f>S61-S60</f>
         <v>4.1999999999999954E-3</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E63" s="67">
+        <v>4</v>
+      </c>
+      <c r="F63" s="46">
+        <v>4.65E-2</v>
+      </c>
+      <c r="G63" s="46">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H63" s="46">
+        <f>(2*F63*G63)/(F63+G63)</f>
+        <v>2.6977099236641218E-2</v>
+      </c>
+      <c r="I63" s="46">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="J63" s="46">
+        <v>330</v>
+      </c>
+      <c r="K63" s="46">
+        <v>400</v>
+      </c>
+      <c r="L63" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M63" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="N63" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="O63" s="46">
+        <v>18</v>
+      </c>
+      <c r="P63" s="46">
+        <v>120</v>
+      </c>
       <c r="S63">
         <f>S62/S60</f>
         <v>0.13207547169811307</v>
       </c>
     </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="I64">
+    <row r="64" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E64" s="67">
+        <v>4</v>
+      </c>
+      <c r="F64" s="46">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G64" s="46">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H64" s="46">
+        <f>(2*F64*G64)/(F64+G64)</f>
+        <v>2.699390243902439E-2</v>
+      </c>
+      <c r="I64" s="46">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="J64" s="46">
+        <v>330</v>
+      </c>
+      <c r="K64" s="46">
+        <v>400</v>
+      </c>
+      <c r="L64" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M64" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="N64" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="O64" s="46">
+        <v>18</v>
+      </c>
+      <c r="P64" s="46">
+        <v>90</v>
+      </c>
+      <c r="Q64" s="112">
+        <v>6385274</v>
+      </c>
+    </row>
+    <row r="67" spans="9:17" x14ac:dyDescent="0.2">
+      <c r="I67">
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I65">
-        <f>I61-I64</f>
+    <row r="68" spans="9:17" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <f>I61-I67</f>
         <v>4.9999999999999975E-3</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I66" s="20">
-        <f>I65/I64</f>
+    <row r="69" spans="9:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="I69" s="20">
+        <f>I68/I67</f>
         <v>0.15974440894568681</v>
       </c>
+      <c r="Q69" s="112">
+        <v>2380730</v>
+      </c>
+    </row>
+    <row r="70" spans="9:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="Q70" s="113">
+        <f>Q69*2</f>
+        <v>4761460</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="E24:I24"/>
     <mergeCell ref="E36:P36"/>
-    <mergeCell ref="E50:P50"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11283,6 +11644,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H49 H51:H55">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H64">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58:H59">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61:H64">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I44">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I61">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -11294,8 +11715,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58:H59">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="I39:I62">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11306,7 +11727,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
+  <conditionalFormatting sqref="I39:I64">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -11318,32 +11739,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576 J58:K58">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I44">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11355,7 +11752,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67:I1048576 J58:K58 I1:I64">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11385,21 +11794,21 @@
   </cols>
   <sheetData>
     <row r="6" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="100"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="102"/>
     </row>
     <row r="7" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F7" s="12" t="s">
@@ -11853,21 +12262,21 @@
       <c r="R18" s="83"/>
     </row>
     <row r="19" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="100"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="102"/>
     </row>
     <row r="20" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F20" s="10">
@@ -12404,20 +12813,20 @@
       <c r="R34" s="46"/>
     </row>
     <row r="36" spans="6:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="F36" s="109" t="s">
+      <c r="F36" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="G36" s="109"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="109"/>
-      <c r="O36" s="109"/>
-      <c r="P36" s="109"/>
-      <c r="Q36" s="109"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
     </row>
     <row r="37" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F37" s="10">

--- a/exp/Sim_20241213.xlsx
+++ b/exp/Sim_20241213.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E04CCB-7B52-744E-9655-BC2F109F95A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104C972D-C7AF-3E41-8A7F-ACC68F8AED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" activeTab="7" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" activeTab="9" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="amazon-book" sheetId="8" r:id="rId8"/>
     <sheet name="lasfm" sheetId="10" r:id="rId9"/>
     <sheet name="ml-100k" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -378,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -388,6 +389,7 @@
     <numFmt numFmtId="169" formatCode="0.0000%"/>
     <numFmt numFmtId="170" formatCode="0.000%"/>
     <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -631,7 +633,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -785,6 +787,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,8 +852,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -3542,8 +3546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74A1973-828D-9C45-B90B-5490793AE67B}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3561,13 +3565,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="22" x14ac:dyDescent="0.3">
@@ -4345,6 +4349,39 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA9DBC5-1EAA-914F-947D-170AFF1EFB75}">
+  <dimension ref="N30:O31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="30" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N30" s="114">
+        <v>150449862</v>
+      </c>
+      <c r="O30" s="41">
+        <v>3000000000</v>
+      </c>
+    </row>
+    <row r="31" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="115">
+        <f>N30/O30</f>
+        <v>5.0149953999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9645EE3D-0953-4146-AB32-A8CD72D7280E}">
   <dimension ref="E10:R32"/>
@@ -4365,18 +4402,18 @@
   </cols>
   <sheetData>
     <row r="10" spans="5:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="95"/>
       <c r="Q10" s="6" t="s">
         <v>57</v>
       </c>
@@ -4539,18 +4576,18 @@
       <c r="N16" s="2"/>
     </row>
     <row r="18" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E18" s="91" t="s">
+      <c r="E18" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="93"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="95"/>
       <c r="Q18" s="6" t="s">
         <v>50</v>
       </c>
@@ -4768,18 +4805,18 @@
       </c>
     </row>
     <row r="26" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E26" s="91" t="s">
+      <c r="E26" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="93"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="95"/>
     </row>
     <row r="27" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E27" s="31"/>
@@ -4952,17 +4989,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
     </row>
     <row r="6" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E6" s="36"/>
@@ -4970,12 +5007,12 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="95" t="s">
+      <c r="J6" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
     </row>
     <row r="7" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E7" s="37" t="s">
@@ -5127,17 +5164,17 @@
       </c>
     </row>
     <row r="15" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E15" s="94" t="s">
+      <c r="E15" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
     </row>
     <row r="16" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E16" s="36"/>
@@ -5145,12 +5182,12 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="95" t="s">
+      <c r="J16" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
     </row>
     <row r="17" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E17" s="37" t="s">
@@ -5306,21 +5343,21 @@
       <c r="M22" s="9"/>
     </row>
     <row r="27" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
     </row>
     <row r="28" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E28" s="37" t="s">
@@ -5462,30 +5499,30 @@
       <c r="Q33" s="9"/>
     </row>
     <row r="37" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E37" s="94" t="s">
+      <c r="E37" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-      <c r="M37" s="94"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
     </row>
     <row r="38" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E38" s="96" t="s">
+      <c r="E38" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="98"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="100"/>
     </row>
     <row r="39" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D39" s="73" t="s">
@@ -5784,19 +5821,19 @@
       <c r="M49" s="46"/>
     </row>
     <row r="51" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E51" s="94" t="s">
+      <c r="E51" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
+      <c r="H51" s="96"/>
+      <c r="I51" s="96"/>
+      <c r="J51" s="96"/>
+      <c r="K51" s="96"/>
+      <c r="L51" s="96"/>
+      <c r="M51" s="96"/>
+      <c r="N51" s="96"/>
+      <c r="O51" s="96"/>
     </row>
     <row r="52" spans="5:16" ht="22" x14ac:dyDescent="0.3">
       <c r="E52" s="37" t="s">
@@ -7385,56 +7422,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:28" ht="27" x14ac:dyDescent="0.35">
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
     </row>
     <row r="4" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107" t="s">
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="107" t="s">
+      <c r="R4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
     </row>
     <row r="5" spans="3:28" ht="19" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -7494,16 +7531,16 @@
       </c>
     </row>
     <row r="6" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C6" s="104">
+      <c r="C6" s="106">
         <v>1000</v>
       </c>
-      <c r="D6" s="108">
+      <c r="D6" s="110">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="108">
+      <c r="F6" s="110">
         <v>0.1492</v>
       </c>
       <c r="G6" s="7">
@@ -7516,7 +7553,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="108">
+      <c r="M6" s="110">
         <v>0.17549999999999999</v>
       </c>
       <c r="N6" s="1">
@@ -7525,7 +7562,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="108">
+      <c r="R6" s="110">
         <v>0.17549999999999999</v>
       </c>
       <c r="S6" s="1"/>
@@ -7533,12 +7570,12 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C7" s="105"/>
-      <c r="D7" s="108"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="108"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="7">
         <v>0.14838999999999999</v>
       </c>
@@ -7553,7 +7590,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="108"/>
+      <c r="M7" s="110"/>
       <c r="N7" s="7">
         <v>0.17444000000000001</v>
       </c>
@@ -7562,7 +7599,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="108"/>
+      <c r="R7" s="110"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
         <v>5.3499999999999999E-2</v>
@@ -7573,7 +7610,7 @@
       </c>
     </row>
     <row r="8" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C8" s="106"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="23">
         <v>2</v>
       </c>
@@ -7615,13 +7652,13 @@
       </c>
     </row>
     <row r="13" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="X13" s="100" t="s">
+      <c r="X13" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="101"/>
-      <c r="Z13" s="101"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="102"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="104"/>
     </row>
     <row r="14" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="X14" s="12" t="s">
@@ -7683,13 +7720,13 @@
       </c>
     </row>
     <row r="18" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="C18" s="100" t="s">
+      <c r="C18" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="104"/>
       <c r="X18" s="10">
         <v>4</v>
       </c>
@@ -7753,19 +7790,19 @@
         <f>(2*D21*F21)/(D21+F21)</f>
         <v>8.3585657917309999E-2</v>
       </c>
-      <c r="J21" s="103" t="s">
+      <c r="J21" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="103"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="103"/>
-      <c r="N21" s="103"/>
-      <c r="O21" s="103"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="103"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="103"/>
-      <c r="T21" s="103"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="105"/>
     </row>
     <row r="22" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
@@ -7847,21 +7884,21 @@
   </cols>
   <sheetData>
     <row r="9" spans="4:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="102"/>
-      <c r="N9" s="100" t="s">
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="104"/>
+      <c r="N9" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="102"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="104"/>
     </row>
     <row r="10" spans="4:24" ht="22" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -8023,26 +8060,26 @@
       <c r="S14" s="2"/>
     </row>
     <row r="18" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D18" s="100" t="s">
+      <c r="D18" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="102"/>
-      <c r="N18" s="100" t="s">
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="104"/>
+      <c r="N18" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="101"/>
-      <c r="V18" s="102"/>
+      <c r="O18" s="103"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="104"/>
     </row>
     <row r="19" spans="4:27" ht="22" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
@@ -8390,15 +8427,15 @@
       </c>
     </row>
     <row r="29" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="102"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="104"/>
       <c r="N29" s="38" t="s">
         <v>23</v>
       </c>
@@ -8602,16 +8639,16 @@
       <c r="V36" s="17"/>
     </row>
     <row r="37" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D37" s="100" t="s">
+      <c r="D37" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="102"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="104"/>
       <c r="N37" s="19"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -8729,16 +8766,16 @@
       <c r="K42" s="2"/>
     </row>
     <row r="48" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D48" s="100" t="s">
+      <c r="D48" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="102"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="104"/>
     </row>
     <row r="49" spans="4:11" ht="22" x14ac:dyDescent="0.3">
       <c r="D49" s="12" t="s">
@@ -8917,17 +8954,17 @@
       </c>
     </row>
     <row r="76" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D76" s="100" t="s">
+      <c r="D76" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="101"/>
-      <c r="F76" s="101"/>
-      <c r="G76" s="101"/>
-      <c r="H76" s="101"/>
-      <c r="I76" s="101"/>
-      <c r="J76" s="101"/>
-      <c r="K76" s="101"/>
-      <c r="L76" s="102"/>
+      <c r="E76" s="103"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="103"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="103"/>
+      <c r="J76" s="103"/>
+      <c r="K76" s="103"/>
+      <c r="L76" s="104"/>
     </row>
     <row r="77" spans="4:12" ht="22" x14ac:dyDescent="0.3">
       <c r="D77" s="12" t="s">
@@ -9076,18 +9113,18 @@
       </c>
     </row>
     <row r="91" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D91" s="100" t="s">
+      <c r="D91" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-      <c r="I91" s="101"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="101"/>
-      <c r="M91" s="102"/>
+      <c r="E91" s="103"/>
+      <c r="F91" s="103"/>
+      <c r="G91" s="103"/>
+      <c r="H91" s="103"/>
+      <c r="I91" s="103"/>
+      <c r="J91" s="103"/>
+      <c r="K91" s="103"/>
+      <c r="L91" s="103"/>
+      <c r="M91" s="104"/>
     </row>
     <row r="92" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D92" s="12" t="s">
@@ -9374,16 +9411,16 @@
       <c r="M104" s="2"/>
     </row>
     <row r="110" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D110" s="110" t="s">
+      <c r="D110" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="E110" s="110"/>
-      <c r="F110" s="110"/>
-      <c r="G110" s="110"/>
-      <c r="H110" s="110"/>
-      <c r="I110" s="110"/>
-      <c r="J110" s="110"/>
-      <c r="K110" s="110"/>
+      <c r="E110" s="112"/>
+      <c r="F110" s="112"/>
+      <c r="G110" s="112"/>
+      <c r="H110" s="112"/>
+      <c r="I110" s="112"/>
+      <c r="J110" s="112"/>
+      <c r="K110" s="112"/>
     </row>
     <row r="111" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D111" s="12" t="s">
@@ -9520,18 +9557,18 @@
       </c>
     </row>
     <row r="120" spans="4:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="D120" s="109" t="s">
+      <c r="D120" s="111" t="s">
         <v>108</v>
       </c>
-      <c r="E120" s="109"/>
-      <c r="F120" s="109"/>
-      <c r="G120" s="109"/>
-      <c r="H120" s="109"/>
-      <c r="I120" s="109"/>
-      <c r="J120" s="109"/>
-      <c r="K120" s="109"/>
-      <c r="L120" s="109"/>
-      <c r="M120" s="109"/>
+      <c r="E120" s="111"/>
+      <c r="F120" s="111"/>
+      <c r="G120" s="111"/>
+      <c r="H120" s="111"/>
+      <c r="I120" s="111"/>
+      <c r="J120" s="111"/>
+      <c r="K120" s="111"/>
+      <c r="L120" s="111"/>
+      <c r="M120" s="111"/>
     </row>
     <row r="121" spans="4:13" ht="22" x14ac:dyDescent="0.3">
       <c r="D121" s="87" t="s">
@@ -10467,7 +10504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40676F58-3295-4B44-9129-9CAFD6F49D33}">
   <dimension ref="C6:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
@@ -10502,16 +10539,16 @@
       </c>
     </row>
     <row r="8" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="102"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="104"/>
       <c r="T8" s="20">
         <f>P6/T6</f>
         <v>0.4025473933649289</v>
@@ -10676,13 +10713,13 @@
       </c>
     </row>
     <row r="24" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E24" s="100" t="s">
+      <c r="E24" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="104"/>
     </row>
     <row r="25" spans="5:9" ht="22" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
@@ -10766,20 +10803,20 @@
       </c>
     </row>
     <row r="36" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E36" s="100" t="s">
+      <c r="E36" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="102"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="104"/>
     </row>
     <row r="37" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E37" s="12" t="s">
@@ -11417,7 +11454,7 @@
       <c r="P59" s="46">
         <v>60</v>
       </c>
-      <c r="Q59" s="112">
+      <c r="Q59" s="91">
         <v>4990103</v>
       </c>
     </row>
@@ -11464,7 +11501,7 @@
       <c r="P61" s="46">
         <v>60</v>
       </c>
-      <c r="Q61" s="112">
+      <c r="Q61" s="91">
         <v>4990103</v>
       </c>
       <c r="S61">
@@ -11595,7 +11632,7 @@
       <c r="P64" s="46">
         <v>90</v>
       </c>
-      <c r="Q64" s="112">
+      <c r="Q64" s="91">
         <v>6385274</v>
       </c>
     </row>
@@ -11615,12 +11652,12 @@
         <f>I68/I67</f>
         <v>0.15974440894568681</v>
       </c>
-      <c r="Q69" s="112">
+      <c r="Q69" s="91">
         <v>2380730</v>
       </c>
     </row>
     <row r="70" spans="9:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="Q70" s="113">
+      <c r="Q70" s="92">
         <f>Q69*2</f>
         <v>4761460</v>
       </c>
@@ -11794,21 +11831,21 @@
   </cols>
   <sheetData>
     <row r="6" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="102"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="104"/>
     </row>
     <row r="7" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F7" s="12" t="s">
@@ -12262,21 +12299,21 @@
       <c r="R18" s="83"/>
     </row>
     <row r="19" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F19" s="100" t="s">
+      <c r="F19" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="102"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="104"/>
     </row>
     <row r="20" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F20" s="10">
@@ -12813,20 +12850,20 @@
       <c r="R34" s="46"/>
     </row>
     <row r="36" spans="6:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="F36" s="111" t="s">
+      <c r="F36" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="111"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="113"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="113"/>
+      <c r="O36" s="113"/>
+      <c r="P36" s="113"/>
+      <c r="Q36" s="113"/>
     </row>
     <row r="37" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F37" s="10">

--- a/exp/Sim_20241213.xlsx
+++ b/exp/Sim_20241213.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104C972D-C7AF-3E41-8A7F-ACC68F8AED63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A84B74-40E7-F141-A7D3-A1FFE0F2FC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" activeTab="9" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="1240" yWindow="8840" windowWidth="33920" windowHeight="12420" activeTab="5" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="ml-100k" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet3" sheetId="13" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'ml-100k'!$L$53:$L$59</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="111">
   <si>
     <t>Paper value</t>
   </si>
@@ -374,6 +377,12 @@
   <si>
     <t>hyperGAT(all are smax)</t>
   </si>
+  <si>
+    <t>jac</t>
+  </si>
+  <si>
+    <t>mix+</t>
+  </si>
 </sst>
 </file>
 
@@ -389,9 +398,9 @@
     <numFmt numFmtId="169" formatCode="0.0000%"/>
     <numFmt numFmtId="170" formatCode="0.000%"/>
     <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -472,6 +481,13 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -633,7 +649,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -789,6 +805,9 @@
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,8 +871,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -887,7 +914,37 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -909,28 +966,34 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>yelp2018!$O$148:$O$151</c:f>
+              <c:f>yelp2018!$H$163:$H$168</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.9200000000000001E-2</c:v>
+                  <c:v>3.3500000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5.1299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5.2600000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4300000000000001E-2</c:v>
+                <c:pt idx="3">
+                  <c:v>5.0900000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.4899999999999997E-2</c:v>
+                <c:pt idx="4">
+                  <c:v>5.0799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0799999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FEC2-5C41-B8B6-60F9F746C45A}"/>
+              <c16:uniqueId val="{00000000-22EA-2A44-8FD4-5712E343BAA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -944,11 +1007,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="262680000"/>
-        <c:axId val="262565072"/>
+        <c:axId val="381326528"/>
+        <c:axId val="381328240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="262680000"/>
+        <c:axId val="381326528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -990,7 +1053,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262565072"/>
+        <c:crossAx val="381328240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -998,9 +1061,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262565072"/>
+        <c:axId val="381328240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.03"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1049,7 +1113,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262680000"/>
+        <c:crossAx val="381326528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1464,6 +1528,863 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ml-100k'!$T$32:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ml-100k'!$T$33:$V$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.3755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44130000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BA9-BA49-BFDB-E2BEC597B0D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1125663632"/>
+        <c:axId val="1125778160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1125663632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1125778160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1125778160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1125663632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'ml-100k'!$L$24:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45350000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1115-D140-81F5-88345A221FB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="327596800"/>
+        <c:axId val="327598512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="327596800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327598512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="327598512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="327596800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ml-100k'!$L$53:$L$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.39610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43880000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31C1-A742-A863-19766114CC2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="381239536"/>
+        <c:axId val="381359744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="381239536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381359744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="381359744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381239536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1505,6 +2426,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2550,27 +3591,1562 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42CC6F4-DFCE-4A18-C589-AC3FEEAD4591}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0575AB1-4C99-739C-AD63-B2076D450FFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,6 +5200,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B605FB-F463-3879-0A98-803E1D35DE9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999789B1-0075-5621-450D-F9ED2E327CAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF83E91E-D303-422F-3499-AA0C324FDA8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3544,19 +6233,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74A1973-828D-9C45-B90B-5490793AE67B}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -3565,13 +6256,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H7" s="112" t="s">
+      <c r="H7" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="22" x14ac:dyDescent="0.3">
@@ -3741,7 +6432,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="17" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H17" s="46"/>
       <c r="I17" s="46"/>
       <c r="J17" s="46" t="s">
@@ -3757,7 +6448,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H18" s="67">
         <v>3</v>
       </c>
@@ -3783,8 +6474,14 @@
       <c r="O18" s="46">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="P18" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H19" s="67">
         <v>3</v>
       </c>
@@ -3810,8 +6507,14 @@
       <c r="O19" s="46">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="P19" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" s="88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H20" s="67">
         <v>3</v>
       </c>
@@ -3837,8 +6540,14 @@
       <c r="O20" s="46">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="P20" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q20" s="88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H21" s="67">
         <v>3</v>
       </c>
@@ -3864,8 +6573,14 @@
       <c r="O21" s="46">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="P21" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q21" s="88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H22" s="67">
         <v>3</v>
       </c>
@@ -3891,8 +6606,14 @@
       <c r="O22" s="46">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="P22" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q22" s="88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H23" s="67">
         <v>3</v>
       </c>
@@ -3918,8 +6639,14 @@
       <c r="O23" s="46">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="P23" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" s="88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H24" s="67">
         <v>3</v>
       </c>
@@ -3945,16 +6672,15 @@
       <c r="O24" s="46">
         <v>10</v>
       </c>
-      <c r="Q24" s="44">
-        <f>L26-L12</f>
-        <v>1.0199999999999987E-2</v>
-      </c>
-      <c r="R24" s="20">
-        <f>Q24/L12</f>
-        <v>2.2921348314606713E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="P24" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q24" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="R24" s="20"/>
+    </row>
+    <row r="25" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H25" s="67">
         <v>3</v>
       </c>
@@ -3980,8 +6706,14 @@
       <c r="O25" s="46">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="P25" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q25" s="88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H26" s="67">
         <v>3</v>
       </c>
@@ -4007,8 +6739,14 @@
       <c r="O26" s="46">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="P26" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q26" s="88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H27" s="67">
         <v>3</v>
       </c>
@@ -4034,8 +6772,14 @@
       <c r="O27" s="46">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="P27" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q27" s="88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H28" s="67">
         <v>3</v>
       </c>
@@ -4061,185 +6805,211 @@
       <c r="O28" s="46">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="8:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="H31" s="67">
-        <v>4</v>
-      </c>
-      <c r="I31" s="46">
-        <v>0.36059999999999998</v>
-      </c>
-      <c r="J31" s="46">
-        <v>0.30680000000000002</v>
-      </c>
-      <c r="K31" s="71">
-        <f>(2*I31*J31)/(I31+J31)</f>
-        <v>0.33153155528918188</v>
-      </c>
-      <c r="L31" s="46">
-        <v>0.44569999999999999</v>
-      </c>
-      <c r="M31" s="68">
+      <c r="P28" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q28" s="88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="8:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="H30" s="67">
+        <v>3</v>
+      </c>
+      <c r="I30" s="46">
+        <v>0.3669</v>
+      </c>
+      <c r="J30" s="46">
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="K30" s="71">
+        <f t="shared" ref="K30" si="2">(2*I30*J30)/(I30+J30)</f>
+        <v>0.33552896449704145</v>
+      </c>
+      <c r="L30" s="46">
+        <v>0.45269999999999999</v>
+      </c>
+      <c r="M30" s="68">
         <v>1E-3</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N30" s="46">
         <v>80</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O30" s="46">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="8:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="P30" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q30" s="88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="T31" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="U31" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="V31" s="28">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H32" s="67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" s="46">
-        <v>0.36080000000000001</v>
+        <v>0.3574</v>
       </c>
       <c r="J32" s="46">
-        <v>0.3075</v>
+        <v>0.30049999999999999</v>
       </c>
       <c r="K32" s="71">
-        <f>(2*I32*J32)/(I32+J32)</f>
-        <v>0.33202453987730063</v>
+        <f t="shared" ref="K32" si="3">(2*I32*J32)/(I32+J32)</f>
+        <v>0.32648943608451136</v>
       </c>
       <c r="L32" s="46">
-        <v>0.44519999999999998</v>
+        <v>0.44130000000000003</v>
       </c>
       <c r="M32" s="68">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="N32" s="46">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O32" s="46">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="8:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="P32" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q32" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H33" s="67">
-        <v>4</v>
-      </c>
-      <c r="I33" s="71">
-        <v>0.35799999999999998</v>
+        <v>3</v>
+      </c>
+      <c r="I33" s="46">
+        <v>0.30669999999999997</v>
       </c>
       <c r="J33" s="46">
-        <v>0.30630000000000002</v>
+        <v>0.25940000000000002</v>
       </c>
       <c r="K33" s="71">
-        <f>(2*I33*J33)/(I33+J33)</f>
-        <v>0.33013819057654675</v>
+        <f t="shared" ref="K33" si="4">(2*I33*J33)/(I33+J33)</f>
+        <v>0.28107394453276802</v>
       </c>
       <c r="L33" s="46">
-        <v>0.44529999999999997</v>
+        <v>0.3755</v>
       </c>
       <c r="M33" s="68">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="N33" s="46">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O33" s="46">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="8:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="H34" s="67">
-        <v>4</v>
-      </c>
-      <c r="I34" s="46">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="J34" s="46">
-        <v>0.30590000000000001</v>
-      </c>
-      <c r="K34" s="71">
-        <f>(2*I34*J34)/(I34+J34)</f>
-        <v>0.32935264111077572</v>
-      </c>
-      <c r="L34" s="71">
-        <v>0.44419999999999998</v>
-      </c>
-      <c r="M34" s="68">
-        <v>1E-3</v>
-      </c>
-      <c r="N34" s="46">
-        <v>120</v>
-      </c>
-      <c r="O34" s="46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="8:15" x14ac:dyDescent="0.2">
-      <c r="L35" s="20"/>
-    </row>
-    <row r="36" spans="8:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="P33" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q33" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="T33">
+        <v>0.3755</v>
+      </c>
+      <c r="U33">
+        <v>0.45519999999999999</v>
+      </c>
+      <c r="V33">
+        <v>0.44130000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H36" s="67">
         <v>4</v>
       </c>
       <c r="I36" s="46">
-        <v>0.36249999999999999</v>
+        <v>0.36059999999999998</v>
       </c>
       <c r="J36" s="46">
-        <v>0.30769999999999997</v>
+        <v>0.30680000000000002</v>
       </c>
       <c r="K36" s="71">
         <f>(2*I36*J36)/(I36+J36)</f>
-        <v>0.33285959415099969</v>
+        <v>0.33153155528918188</v>
       </c>
       <c r="L36" s="46">
-        <v>0.4456</v>
+        <v>0.44569999999999999</v>
       </c>
       <c r="M36" s="68">
         <v>1E-3</v>
       </c>
       <c r="N36" s="46">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O36" s="46">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="8:15" ht="22" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="8:22" ht="22" x14ac:dyDescent="0.3">
       <c r="H37" s="67">
         <v>4</v>
       </c>
       <c r="I37" s="46">
-        <v>0.35809999999999997</v>
+        <v>0.36080000000000001</v>
       </c>
       <c r="J37" s="46">
-        <v>0.30020000000000002</v>
+        <v>0.3075</v>
       </c>
       <c r="K37" s="71">
         <f>(2*I37*J37)/(I37+J37)</f>
-        <v>0.32660373689807082</v>
+        <v>0.33202453987730063</v>
       </c>
       <c r="L37" s="46">
-        <v>0.44030000000000002</v>
+        <v>0.44519999999999998</v>
       </c>
       <c r="M37" s="68">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="N37" s="46">
         <v>100</v>
       </c>
       <c r="O37" s="46">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="8:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="I38" s="46">
-        <v>0.35859999999999997</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="8:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="H38" s="67">
+        <v>4</v>
+      </c>
+      <c r="I38" s="71">
+        <v>0.35799999999999998</v>
       </c>
       <c r="J38" s="46">
-        <v>0.30530000000000002</v>
+        <v>0.30630000000000002</v>
       </c>
       <c r="K38" s="71">
         <f>(2*I38*J38)/(I38+J38)</f>
-        <v>0.32981045338153336</v>
+        <v>0.33013819057654675</v>
       </c>
       <c r="L38" s="46">
-        <v>0.44319999999999998</v>
+        <v>0.44529999999999997</v>
       </c>
       <c r="M38" s="68">
         <v>1E-3</v>
@@ -4248,68 +7018,948 @@
         <v>100</v>
       </c>
       <c r="O38" s="46">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="8:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="H41" s="88">
-        <v>2</v>
-      </c>
-      <c r="I41" s="71">
-        <v>0.36399999999999999</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="8:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="H39" s="67">
+        <v>4</v>
+      </c>
+      <c r="I39" s="46">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="J39" s="46">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="K39" s="71">
+        <f>(2*I39*J39)/(I39+J39)</f>
+        <v>0.32935264111077572</v>
+      </c>
+      <c r="L39" s="71">
+        <v>0.44419999999999998</v>
+      </c>
+      <c r="M39" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N39" s="46">
+        <v>120</v>
+      </c>
+      <c r="O39" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="8:22" x14ac:dyDescent="0.2">
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="8:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="H41" s="67">
+        <v>4</v>
+      </c>
+      <c r="I41" s="46">
+        <v>0.36249999999999999</v>
       </c>
       <c r="J41" s="46">
-        <v>0.30470000000000003</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="K41" s="71">
         <f>(2*I41*J41)/(I41+J41)</f>
-        <v>0.3317206520113653</v>
+        <v>0.33285959415099969</v>
       </c>
       <c r="L41" s="46">
-        <v>0.44769999999999999</v>
+        <v>0.4456</v>
       </c>
       <c r="M41" s="68">
         <v>1E-3</v>
       </c>
       <c r="N41" s="46">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O41" s="46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="8:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="H42" s="88">
-        <v>1</v>
-      </c>
-      <c r="I42" s="71">
-        <v>0.35499999999999998</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="8:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="H42" s="67">
+        <v>4</v>
+      </c>
+      <c r="I42" s="46">
+        <v>0.35809999999999997</v>
       </c>
       <c r="J42" s="46">
-        <v>0.29859999999999998</v>
+        <v>0.30020000000000002</v>
       </c>
       <c r="K42" s="71">
         <f>(2*I42*J42)/(I42+J42)</f>
+        <v>0.32660373689807082</v>
+      </c>
+      <c r="L42" s="46">
+        <v>0.44030000000000002</v>
+      </c>
+      <c r="M42" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="N42" s="46">
+        <v>100</v>
+      </c>
+      <c r="O42" s="46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="8:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="I43" s="46">
+        <v>0.35859999999999997</v>
+      </c>
+      <c r="J43" s="46">
+        <v>0.30530000000000002</v>
+      </c>
+      <c r="K43" s="71">
+        <f>(2*I43*J43)/(I43+J43)</f>
+        <v>0.32981045338153336</v>
+      </c>
+      <c r="L43" s="46">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="M43" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N43" s="46">
+        <v>100</v>
+      </c>
+      <c r="O43" s="46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="8:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="H46" s="88">
+        <v>2</v>
+      </c>
+      <c r="I46" s="71">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="J46" s="46">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="K46" s="71">
+        <f>(2*I46*J46)/(I46+J46)</f>
+        <v>0.3317206520113653</v>
+      </c>
+      <c r="L46" s="46">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="M46" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N46" s="46">
+        <v>80</v>
+      </c>
+      <c r="O46" s="46">
+        <v>10</v>
+      </c>
+      <c r="P46" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q46" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="8:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="H47" s="88">
+        <v>1</v>
+      </c>
+      <c r="I47" s="71">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="J47" s="46">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="K47" s="71">
+        <f>(2*I47*J47)/(I47+J47)</f>
         <v>0.32436658506731941</v>
       </c>
-      <c r="L42" s="71">
+      <c r="L47" s="71">
         <v>0.439</v>
       </c>
-      <c r="M42" s="68">
+      <c r="M47" s="68">
         <v>1E-3</v>
       </c>
-      <c r="N42" s="46">
+      <c r="N47" s="46">
         <v>80</v>
       </c>
-      <c r="O42" s="46">
+      <c r="O47" s="46">
         <v>10</v>
       </c>
     </row>
+    <row r="52" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="R52" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="S52" s="69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H53" s="67">
+        <v>2</v>
+      </c>
+      <c r="I53" s="46">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="J53" s="46">
+        <v>0.27429999999999999</v>
+      </c>
+      <c r="K53" s="71">
+        <f>(2*I53*J53)/(I53+J53)</f>
+        <v>0.29556320834033967</v>
+      </c>
+      <c r="L53" s="46">
+        <v>0.39610000000000001</v>
+      </c>
+      <c r="M53" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="N53" s="46">
+        <v>80</v>
+      </c>
+      <c r="O53" s="46">
+        <v>10</v>
+      </c>
+      <c r="P53" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q53" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="R53" s="46">
+        <v>400</v>
+      </c>
+      <c r="S53" s="46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H54" s="88">
+        <v>2</v>
+      </c>
+      <c r="I54" s="71">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="J54" s="46">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="K54" s="71">
+        <f>(2*I54*J54)/(I54+J54)</f>
+        <v>0.3317206520113653</v>
+      </c>
+      <c r="L54" s="46">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="M54" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N54" s="46">
+        <v>80</v>
+      </c>
+      <c r="O54" s="46">
+        <v>10</v>
+      </c>
+      <c r="P54" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q54" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="R54" s="46">
+        <v>400</v>
+      </c>
+      <c r="S54" s="46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H55" s="88">
+        <v>2</v>
+      </c>
+      <c r="I55" s="46">
+        <v>0.35680000000000001</v>
+      </c>
+      <c r="J55" s="46">
+        <v>0.30070000000000002</v>
+      </c>
+      <c r="K55" s="71">
+        <f>(2*I55*J55)/(I55+J55)</f>
+        <v>0.32635668441064641</v>
+      </c>
+      <c r="L55" s="46">
+        <v>0.4395</v>
+      </c>
+      <c r="M55" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="N55" s="46">
+        <v>80</v>
+      </c>
+      <c r="O55" s="46">
+        <v>10</v>
+      </c>
+      <c r="P55" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q55" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="R55" s="46">
+        <v>160</v>
+      </c>
+      <c r="S55" s="46">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="56" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H56" s="88">
+        <v>2</v>
+      </c>
+      <c r="I56" s="46">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="J56" s="46">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="K56" s="71">
+        <f>(2*I56*J56)/(I56+J56)</f>
+        <v>0.32524864947352355</v>
+      </c>
+      <c r="L56" s="46">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="M56" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N56" s="46">
+        <v>80</v>
+      </c>
+      <c r="O56" s="46">
+        <v>10</v>
+      </c>
+      <c r="P56" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q56" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="R56" s="46">
+        <v>160</v>
+      </c>
+      <c r="S56" s="46">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H57" s="88">
+        <v>2</v>
+      </c>
+      <c r="I57" s="46">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="J57" s="46">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="K57" s="71">
+        <f>(2*I57*J57)/(I57+J57)</f>
+        <v>0.32510610687022895</v>
+      </c>
+      <c r="L57" s="46">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="M57" s="68">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="N57" s="46">
+        <v>80</v>
+      </c>
+      <c r="O57" s="46">
+        <v>10</v>
+      </c>
+      <c r="P57" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q57" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="R57" s="46">
+        <v>160</v>
+      </c>
+      <c r="S57" s="46">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H58" s="88">
+        <v>2</v>
+      </c>
+      <c r="I58" s="46">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="J58" s="46">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="K58" s="118">
+        <f>(2*I58*J58)/(I58+J58)</f>
+        <v>0.32520683760683761</v>
+      </c>
+      <c r="L58" s="46">
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="M58" s="68">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="N58" s="46">
+        <v>80</v>
+      </c>
+      <c r="O58" s="46">
+        <v>10</v>
+      </c>
+      <c r="P58" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q58" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="R58" s="46">
+        <v>160</v>
+      </c>
+      <c r="S58" s="46">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H59" s="88">
+        <v>2</v>
+      </c>
+      <c r="I59" s="46">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="J59" s="46">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="K59" s="71">
+        <f>(2*I59*J59)/(I59+J59)</f>
+        <v>0.32520683760683761</v>
+      </c>
+      <c r="L59" s="46">
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="M59" s="68">
+        <v>0</v>
+      </c>
+      <c r="N59" s="46">
+        <v>80</v>
+      </c>
+      <c r="O59" s="46">
+        <v>10</v>
+      </c>
+      <c r="P59" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q59" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="R59" s="46">
+        <v>160</v>
+      </c>
+      <c r="S59" s="46">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="S62" s="69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H63" s="88">
+        <v>2</v>
+      </c>
+      <c r="I63" s="71">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="J63" s="46">
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="K63" s="71">
+        <f>(2*I63*J63)/(I63+J63)</f>
+        <v>0.33135880149812735</v>
+      </c>
+      <c r="L63" s="46">
+        <v>0.4461</v>
+      </c>
+      <c r="N63" s="46">
+        <v>80</v>
+      </c>
+      <c r="O63" s="46">
+        <v>6</v>
+      </c>
+      <c r="S63" s="120">
+        <v>85382</v>
+      </c>
+    </row>
+    <row r="64" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H64" s="67">
+        <v>2</v>
+      </c>
+      <c r="I64" s="46">
+        <v>0.36449999999999999</v>
+      </c>
+      <c r="J64" s="46">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="K64" s="71">
+        <f>(2*I64*J64)/(I64+J64)</f>
+        <v>0.33263887231503581</v>
+      </c>
+      <c r="L64" s="46">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="N64" s="46">
+        <v>80</v>
+      </c>
+      <c r="O64" s="46">
+        <v>8</v>
+      </c>
+      <c r="S64" s="120">
+        <v>88696</v>
+      </c>
+    </row>
+    <row r="65" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H65" s="88">
+        <v>2</v>
+      </c>
+      <c r="I65" s="71">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="J65" s="46">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="K65" s="71">
+        <f>(2*I65*J65)/(I65+J65)</f>
+        <v>0.3317206520113653</v>
+      </c>
+      <c r="L65" s="46">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="M65" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N65" s="46">
+        <v>80</v>
+      </c>
+      <c r="O65" s="46">
+        <v>10</v>
+      </c>
+      <c r="P65" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q65" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="R65" s="46">
+        <v>400</v>
+      </c>
+      <c r="S65" s="69"/>
+    </row>
+    <row r="66" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H66" s="88">
+        <v>2</v>
+      </c>
+      <c r="I66" s="46">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="J66" s="46">
+        <v>0.3039</v>
+      </c>
+      <c r="K66" s="71">
+        <f>(2*I66*J66)/(I66+J66)</f>
+        <v>0.33066508627156788</v>
+      </c>
+      <c r="L66" s="46">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="N66" s="119">
+        <v>80</v>
+      </c>
+      <c r="O66" s="119">
+        <v>12</v>
+      </c>
+      <c r="P66" s="117"/>
+      <c r="Q66" s="117"/>
+      <c r="S66" s="120">
+        <v>95324</v>
+      </c>
+    </row>
+    <row r="67" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H67" s="88">
+        <v>2</v>
+      </c>
+      <c r="I67" s="46">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="J67" s="71">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="K67" s="71">
+        <f>(2*I67*J67)/(I67+J67)</f>
+        <v>0.33163636363636362</v>
+      </c>
+      <c r="L67" s="46">
+        <v>0.44669999999999999</v>
+      </c>
+      <c r="M67" s="86">
+        <v>1E-3</v>
+      </c>
+      <c r="N67" s="119">
+        <v>80</v>
+      </c>
+      <c r="O67" s="119">
+        <v>14</v>
+      </c>
+      <c r="S67" s="120">
+        <v>98638</v>
+      </c>
+    </row>
+    <row r="68" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H68" s="88">
+        <v>2</v>
+      </c>
+      <c r="I68" s="46">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="J68" s="46">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="K68" s="71">
+        <f>(2*I68*J68)/(I68+J68)</f>
+        <v>0.33084259148170364</v>
+      </c>
+      <c r="L68" s="46">
+        <v>0.44719999999999999</v>
+      </c>
+      <c r="M68" s="73"/>
+      <c r="N68" s="119">
+        <v>80</v>
+      </c>
+      <c r="O68" s="119">
+        <v>20</v>
+      </c>
+      <c r="S68" s="120">
+        <v>108580</v>
+      </c>
+    </row>
+    <row r="69" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H69" s="88">
+        <v>2</v>
+      </c>
+      <c r="I69" s="46">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="J69" s="46">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="K69" s="71">
+        <f>(2*I69*J69)/(I69+J69)</f>
+        <v>0.32980394222088472</v>
+      </c>
+      <c r="L69" s="46">
+        <v>0.4451</v>
+      </c>
+      <c r="M69" s="73"/>
+      <c r="N69" s="119">
+        <v>80</v>
+      </c>
+      <c r="O69" s="119">
+        <v>25</v>
+      </c>
+      <c r="S69" s="69"/>
+    </row>
+    <row r="70" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H70" s="88">
+        <v>2</v>
+      </c>
+      <c r="I70" s="46">
+        <v>0.36170000000000002</v>
+      </c>
+      <c r="J70" s="46">
+        <v>0.30230000000000001</v>
+      </c>
+      <c r="K70" s="71">
+        <f>(2*I70*J70)/(I70+J70)</f>
+        <v>0.3293431024096386</v>
+      </c>
+      <c r="L70" s="46">
+        <v>0.44640000000000002</v>
+      </c>
+      <c r="M70" s="73"/>
+      <c r="N70" s="119">
+        <v>80</v>
+      </c>
+      <c r="O70" s="119">
+        <v>15</v>
+      </c>
+      <c r="S70" s="69"/>
+    </row>
+    <row r="71" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H71" s="88"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="71"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="119"/>
+      <c r="O71" s="119"/>
+      <c r="S71" s="69"/>
+    </row>
+    <row r="72" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="M72" s="73"/>
+      <c r="N72" s="119">
+        <v>60</v>
+      </c>
+      <c r="O72" s="119">
+        <v>10</v>
+      </c>
+      <c r="S72" s="69"/>
+    </row>
+    <row r="73" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="N73" s="46">
+        <v>70</v>
+      </c>
+      <c r="O73" s="46">
+        <v>10</v>
+      </c>
+      <c r="S73" s="69"/>
+    </row>
+    <row r="74" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H74" s="88">
+        <v>2</v>
+      </c>
+      <c r="I74" s="71">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="J74" s="46">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="K74" s="71">
+        <f>(2*I74*J74)/(I74+J74)</f>
+        <v>0.3317206520113653</v>
+      </c>
+      <c r="L74" s="46">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="M74" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N74" s="46">
+        <v>80</v>
+      </c>
+      <c r="O74" s="46">
+        <v>10</v>
+      </c>
+      <c r="P74" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q74" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="R74" s="46">
+        <v>400</v>
+      </c>
+      <c r="S74" s="69"/>
+    </row>
+    <row r="75" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="N75" s="119">
+        <v>90</v>
+      </c>
+      <c r="O75" s="119">
+        <v>10</v>
+      </c>
+      <c r="P75" s="117"/>
+      <c r="Q75" s="117"/>
+      <c r="S75" s="69"/>
+    </row>
+    <row r="76" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="M76" s="73"/>
+      <c r="N76" s="119">
+        <v>100</v>
+      </c>
+      <c r="O76" s="119">
+        <v>10</v>
+      </c>
+      <c r="S76" s="69"/>
+    </row>
+    <row r="77" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="M77" s="73"/>
+      <c r="S77" s="69"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="P75:Q75"/>
   </mergeCells>
-  <conditionalFormatting sqref="L9:L38 L41">
+  <conditionalFormatting sqref="L9:L43 L46">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L28">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L43 L46">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L33">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53:L59">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65:L71">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65:L71">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65:L71">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4321,31 +7971,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L28">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L38 L41">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4364,7 +7991,7 @@
   </cols>
   <sheetData>
     <row r="30" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="N30" s="114">
+      <c r="N30" s="93">
         <v>150449862</v>
       </c>
       <c r="O30" s="41">
@@ -4372,7 +7999,7 @@
       </c>
     </row>
     <row r="31" spans="14:15" x14ac:dyDescent="0.2">
-      <c r="O31" s="115">
+      <c r="O31" s="94">
         <f>N30/O30</f>
         <v>5.0149953999999997E-2</v>
       </c>
@@ -4402,18 +8029,18 @@
   </cols>
   <sheetData>
     <row r="10" spans="5:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="95"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="98"/>
       <c r="Q10" s="6" t="s">
         <v>57</v>
       </c>
@@ -4576,18 +8203,18 @@
       <c r="N16" s="2"/>
     </row>
     <row r="18" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="95"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="98"/>
       <c r="Q18" s="6" t="s">
         <v>50</v>
       </c>
@@ -4805,18 +8432,18 @@
       </c>
     </row>
     <row r="26" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E26" s="93" t="s">
+      <c r="E26" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="95"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="98"/>
     </row>
     <row r="27" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E27" s="31"/>
@@ -4989,17 +8616,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
     </row>
     <row r="6" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E6" s="36"/>
@@ -5007,12 +8634,12 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
     </row>
     <row r="7" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E7" s="37" t="s">
@@ -5164,17 +8791,17 @@
       </c>
     </row>
     <row r="15" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
     </row>
     <row r="16" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E16" s="36"/>
@@ -5182,12 +8809,12 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="97" t="s">
+      <c r="J16" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
     </row>
     <row r="17" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E17" s="37" t="s">
@@ -5343,21 +8970,21 @@
       <c r="M22" s="9"/>
     </row>
     <row r="27" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
     </row>
     <row r="28" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E28" s="37" t="s">
@@ -5499,30 +9126,30 @@
       <c r="Q33" s="9"/>
     </row>
     <row r="37" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E37" s="96" t="s">
+      <c r="E37" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
     </row>
     <row r="38" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E38" s="98" t="s">
+      <c r="E38" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="100"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="103"/>
     </row>
     <row r="39" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D39" s="73" t="s">
@@ -5821,19 +9448,19 @@
       <c r="M49" s="46"/>
     </row>
     <row r="51" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E51" s="96" t="s">
+      <c r="E51" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="99"/>
+      <c r="N51" s="99"/>
+      <c r="O51" s="99"/>
     </row>
     <row r="52" spans="5:16" ht="22" x14ac:dyDescent="0.3">
       <c r="E52" s="37" t="s">
@@ -7422,56 +11049,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:28" ht="27" x14ac:dyDescent="0.35">
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
     </row>
     <row r="4" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109" t="s">
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="109" t="s">
+      <c r="M4" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="109" t="s">
+      <c r="R4" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
     </row>
     <row r="5" spans="3:28" ht="19" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -7531,16 +11158,16 @@
       </c>
     </row>
     <row r="6" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C6" s="106">
+      <c r="C6" s="109">
         <v>1000</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="113">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="110">
+      <c r="F6" s="113">
         <v>0.1492</v>
       </c>
       <c r="G6" s="7">
@@ -7553,7 +11180,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="110">
+      <c r="M6" s="113">
         <v>0.17549999999999999</v>
       </c>
       <c r="N6" s="1">
@@ -7562,7 +11189,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="110">
+      <c r="R6" s="113">
         <v>0.17549999999999999</v>
       </c>
       <c r="S6" s="1"/>
@@ -7570,12 +11197,12 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C7" s="107"/>
-      <c r="D7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="110"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="7">
         <v>0.14838999999999999</v>
       </c>
@@ -7590,7 +11217,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="110"/>
+      <c r="M7" s="113"/>
       <c r="N7" s="7">
         <v>0.17444000000000001</v>
       </c>
@@ -7599,7 +11226,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="110"/>
+      <c r="R7" s="113"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
         <v>5.3499999999999999E-2</v>
@@ -7610,7 +11237,7 @@
       </c>
     </row>
     <row r="8" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="23">
         <v>2</v>
       </c>
@@ -7652,13 +11279,13 @@
       </c>
     </row>
     <row r="13" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="X13" s="102" t="s">
+      <c r="X13" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="104"/>
+      <c r="Y13" s="106"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="107"/>
     </row>
     <row r="14" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="X14" s="12" t="s">
@@ -7720,13 +11347,13 @@
       </c>
     </row>
     <row r="18" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="104"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="107"/>
       <c r="X18" s="10">
         <v>4</v>
       </c>
@@ -7790,19 +11417,19 @@
         <f>(2*D21*F21)/(D21+F21)</f>
         <v>8.3585657917309999E-2</v>
       </c>
-      <c r="J21" s="105" t="s">
+      <c r="J21" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="105"/>
-      <c r="R21" s="105"/>
-      <c r="S21" s="105"/>
-      <c r="T21" s="105"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
     </row>
     <row r="22" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
@@ -7865,40 +11492,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
-  <dimension ref="D9:AA162"/>
+  <dimension ref="D9:AA182"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="J147" sqref="J147"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="I182" sqref="I182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
     <col min="7" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="4:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104"/>
-      <c r="N9" s="102" t="s">
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="107"/>
+      <c r="N9" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="103"/>
-      <c r="S9" s="104"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="107"/>
     </row>
     <row r="10" spans="4:24" ht="22" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -8060,26 +11689,26 @@
       <c r="S14" s="2"/>
     </row>
     <row r="18" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="104"/>
-      <c r="N18" s="102" t="s">
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
+      <c r="N18" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="103"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="103"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="103"/>
-      <c r="T18" s="103"/>
-      <c r="U18" s="103"/>
-      <c r="V18" s="104"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="107"/>
     </row>
     <row r="19" spans="4:27" ht="22" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
@@ -8427,15 +12056,15 @@
       </c>
     </row>
     <row r="29" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="104"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="107"/>
       <c r="N29" s="38" t="s">
         <v>23</v>
       </c>
@@ -8639,16 +12268,16 @@
       <c r="V36" s="17"/>
     </row>
     <row r="37" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D37" s="102" t="s">
+      <c r="D37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="104"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="107"/>
       <c r="N37" s="19"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -8766,16 +12395,16 @@
       <c r="K42" s="2"/>
     </row>
     <row r="48" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D48" s="102" t="s">
+      <c r="D48" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="104"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="107"/>
     </row>
     <row r="49" spans="4:11" ht="22" x14ac:dyDescent="0.3">
       <c r="D49" s="12" t="s">
@@ -8954,17 +12583,17 @@
       </c>
     </row>
     <row r="76" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D76" s="102" t="s">
+      <c r="D76" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="103"/>
-      <c r="F76" s="103"/>
-      <c r="G76" s="103"/>
-      <c r="H76" s="103"/>
-      <c r="I76" s="103"/>
-      <c r="J76" s="103"/>
-      <c r="K76" s="103"/>
-      <c r="L76" s="104"/>
+      <c r="E76" s="106"/>
+      <c r="F76" s="106"/>
+      <c r="G76" s="106"/>
+      <c r="H76" s="106"/>
+      <c r="I76" s="106"/>
+      <c r="J76" s="106"/>
+      <c r="K76" s="106"/>
+      <c r="L76" s="107"/>
     </row>
     <row r="77" spans="4:12" ht="22" x14ac:dyDescent="0.3">
       <c r="D77" s="12" t="s">
@@ -9113,18 +12742,18 @@
       </c>
     </row>
     <row r="91" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D91" s="102" t="s">
+      <c r="D91" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="E91" s="103"/>
-      <c r="F91" s="103"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="103"/>
-      <c r="I91" s="103"/>
-      <c r="J91" s="103"/>
-      <c r="K91" s="103"/>
-      <c r="L91" s="103"/>
-      <c r="M91" s="104"/>
+      <c r="E91" s="106"/>
+      <c r="F91" s="106"/>
+      <c r="G91" s="106"/>
+      <c r="H91" s="106"/>
+      <c r="I91" s="106"/>
+      <c r="J91" s="106"/>
+      <c r="K91" s="106"/>
+      <c r="L91" s="106"/>
+      <c r="M91" s="107"/>
     </row>
     <row r="92" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D92" s="12" t="s">
@@ -9411,16 +13040,16 @@
       <c r="M104" s="2"/>
     </row>
     <row r="110" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D110" s="112" t="s">
+      <c r="D110" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="E110" s="112"/>
-      <c r="F110" s="112"/>
-      <c r="G110" s="112"/>
-      <c r="H110" s="112"/>
-      <c r="I110" s="112"/>
-      <c r="J110" s="112"/>
-      <c r="K110" s="112"/>
+      <c r="E110" s="115"/>
+      <c r="F110" s="115"/>
+      <c r="G110" s="115"/>
+      <c r="H110" s="115"/>
+      <c r="I110" s="115"/>
+      <c r="J110" s="115"/>
+      <c r="K110" s="115"/>
     </row>
     <row r="111" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D111" s="12" t="s">
@@ -9557,18 +13186,18 @@
       </c>
     </row>
     <row r="120" spans="4:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="D120" s="111" t="s">
+      <c r="D120" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="E120" s="111"/>
-      <c r="F120" s="111"/>
-      <c r="G120" s="111"/>
-      <c r="H120" s="111"/>
-      <c r="I120" s="111"/>
-      <c r="J120" s="111"/>
-      <c r="K120" s="111"/>
-      <c r="L120" s="111"/>
-      <c r="M120" s="111"/>
+      <c r="E120" s="114"/>
+      <c r="F120" s="114"/>
+      <c r="G120" s="114"/>
+      <c r="H120" s="114"/>
+      <c r="I120" s="114"/>
+      <c r="J120" s="114"/>
+      <c r="K120" s="114"/>
+      <c r="L120" s="114"/>
+      <c r="M120" s="114"/>
     </row>
     <row r="121" spans="4:13" ht="22" x14ac:dyDescent="0.3">
       <c r="D121" s="87" t="s">
@@ -9997,7 +13626,7 @@
       <c r="M134" s="46">
         <v>400</v>
       </c>
-      <c r="O134" s="44">
+      <c r="O134" s="71">
         <f>E125-O133</f>
         <v>1.1000000000000038E-3</v>
       </c>
@@ -10007,7 +13636,7 @@
       </c>
     </row>
     <row r="135" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="O135" s="20">
+      <c r="O135" s="85">
         <f>O134/O133</f>
         <v>1.694915254237294E-2</v>
       </c>
@@ -10191,25 +13820,64 @@
         <v>300</v>
       </c>
     </row>
-    <row r="146" spans="4:15" ht="22" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D145" s="46">
+        <v>2</v>
+      </c>
+      <c r="E145" s="46">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="F145" s="46">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="G145" s="71">
+        <f>(2*E145*F145)/(E145+F145)</f>
+        <v>3.9227886710239655E-2</v>
+      </c>
+      <c r="H145" s="46">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="I145" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J145" s="46">
+        <v>50</v>
+      </c>
+      <c r="K145" s="46">
+        <v>20</v>
+      </c>
+      <c r="L145" s="46">
+        <v>240</v>
+      </c>
+      <c r="M145" s="46">
+        <v>300</v>
+      </c>
+      <c r="N145" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="O145" s="69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="146" spans="4:16" ht="22" x14ac:dyDescent="0.3">
       <c r="D146" s="46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E146" s="46">
-        <v>6.3899999999999998E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="F146" s="46">
-        <v>2.8899999999999999E-2</v>
+        <v>2.87E-2</v>
       </c>
       <c r="G146" s="71">
         <f>(2*E146*F146)/(E146+F146)</f>
-        <v>3.9799784482758623E-2</v>
+        <v>3.9571212121212118E-2</v>
       </c>
       <c r="H146" s="46">
         <v>5.2600000000000001E-2</v>
       </c>
       <c r="I146" s="68">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="J146" s="46">
         <v>50</v>
@@ -10221,112 +13889,870 @@
         <v>240</v>
       </c>
       <c r="M146" s="46">
+        <v>300</v>
+      </c>
+      <c r="N146" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O146" s="69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="147" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D147" s="46"/>
+      <c r="E147" s="46"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="71"/>
+      <c r="H147" s="46"/>
+      <c r="I147" s="68"/>
+      <c r="J147" s="46"/>
+      <c r="K147" s="46"/>
+      <c r="L147" s="46"/>
+      <c r="M147" s="46"/>
+      <c r="N147" s="69"/>
+      <c r="O147" s="69"/>
+    </row>
+    <row r="148" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D148" s="46"/>
+      <c r="E148" s="46"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="46"/>
+      <c r="I148" s="68"/>
+      <c r="J148" s="46"/>
+      <c r="K148" s="46"/>
+      <c r="L148" s="46"/>
+      <c r="M148" s="46"/>
+    </row>
+    <row r="150" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D150" s="46">
+        <v>4</v>
+      </c>
+      <c r="E150" s="46">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="F150" s="46">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="G150" s="71">
+        <f>(2*E150*F150)/(E150+F150)</f>
+        <v>3.9799784482758623E-2</v>
+      </c>
+      <c r="H150" s="46">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="I150" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J150" s="46">
+        <v>50</v>
+      </c>
+      <c r="K150" s="46">
+        <v>20</v>
+      </c>
+      <c r="L150" s="46">
+        <v>240</v>
+      </c>
+      <c r="M150" s="46">
         <v>700</v>
       </c>
     </row>
-    <row r="147" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D147" s="46">
+    <row r="151" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D151" s="46">
         <v>4</v>
       </c>
-      <c r="E147" s="71">
+      <c r="E151" s="71">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="F147" s="46">
+      <c r="F151" s="46">
         <v>3.04E-2</v>
       </c>
-      <c r="G147" s="71">
-        <f>(2*E147*F147)/(E147+F147)</f>
+      <c r="G151" s="71">
+        <f>(2*E151*F151)/(E151+F151)</f>
         <v>4.1901022494887523E-2</v>
       </c>
-      <c r="H147" s="46">
+      <c r="H151" s="46">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="I147" s="68">
+      <c r="I151" s="68">
         <v>1E-4</v>
       </c>
-      <c r="J147" s="46">
+      <c r="J151" s="46">
         <v>50</v>
       </c>
-      <c r="K147" s="46">
+      <c r="K151" s="46">
         <v>20</v>
       </c>
-      <c r="L147" s="46">
+      <c r="L151" s="46">
         <v>970</v>
       </c>
-      <c r="M147" s="46">
+      <c r="M151" s="46">
         <v>1000</v>
       </c>
-    </row>
-    <row r="148" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="O148">
-        <v>4.9200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E149">
-        <v>6.4899999999999999E-2</v>
-      </c>
-      <c r="O149">
+      <c r="N151" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O151" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P151" s="95">
+        <v>2344317</v>
+      </c>
+    </row>
+    <row r="152" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="N152" s="73"/>
+      <c r="O152" s="69"/>
+    </row>
+    <row r="153" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D153" s="46">
+        <v>4</v>
+      </c>
+      <c r="E153" s="71">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="F153" s="46">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="G153" s="71">
+        <f>(2*E153*F153)/(E153+F153)</f>
+        <v>4.1748049281314169E-2</v>
+      </c>
+      <c r="H153" s="46">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="I153" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J153" s="46">
+        <v>50</v>
+      </c>
+      <c r="K153" s="46">
+        <v>20</v>
+      </c>
+      <c r="L153" s="46">
+        <v>970</v>
+      </c>
+      <c r="M153" s="46">
+        <v>1000</v>
+      </c>
+      <c r="N153" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="O153" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="P153" s="95">
+        <v>2674042</v>
+      </c>
+    </row>
+    <row r="154" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="E154" s="85"/>
+      <c r="O154" s="46"/>
+    </row>
+    <row r="157" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D157" s="69">
+        <v>3</v>
+      </c>
+      <c r="E157" s="46">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="F157" s="46">
+        <v>2.92E-2</v>
+      </c>
+      <c r="G157" s="14">
+        <f>(2*E157*F157)/(E157+F157)</f>
+        <v>4.0239403620873269E-2</v>
+      </c>
+      <c r="H157" s="46">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="I157" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J157" s="46">
+        <v>20</v>
+      </c>
+      <c r="K157" s="46">
+        <v>20</v>
+      </c>
+      <c r="L157" s="46">
+        <v>350</v>
+      </c>
+      <c r="M157" s="46">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="158" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D158" s="69">
+        <v>3</v>
+      </c>
+      <c r="E158" s="71">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="F158" s="46">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="G158" s="14">
+        <f>(2*E158*F158)/(E158+F158)</f>
+        <v>4.0926910994764393E-2</v>
+      </c>
+      <c r="H158" s="46">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="I158" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J158" s="46">
+        <v>30</v>
+      </c>
+      <c r="K158" s="46">
+        <v>20</v>
+      </c>
+      <c r="L158" s="46">
+        <v>350</v>
+      </c>
+      <c r="M158" s="46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="159" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D159" s="69">
+        <v>3</v>
+      </c>
+      <c r="E159" s="46">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="F159" s="46">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="G159" s="71">
+        <f t="shared" ref="G159" si="2">(2*E159*F159)/(E159+F159)</f>
+        <v>4.1252074688796686E-2</v>
+      </c>
+      <c r="H159" s="46">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="I159" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J159" s="46">
+        <v>50</v>
+      </c>
+      <c r="K159" s="46">
+        <v>20</v>
+      </c>
+      <c r="L159" s="46">
+        <v>350</v>
+      </c>
+      <c r="M159" s="46">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="160" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D160" s="73"/>
+      <c r="J160" s="46">
+        <v>60</v>
+      </c>
+      <c r="K160" s="46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="K162" s="28"/>
+      <c r="L162" s="28"/>
+    </row>
+    <row r="163" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D163" s="46">
+        <v>2</v>
+      </c>
+      <c r="E163" s="71">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F163" s="46">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="G163" s="71">
+        <f>(2*E163*F163)/(E163+F163)</f>
+        <v>2.6152823920265779E-2</v>
+      </c>
+      <c r="H163" s="46">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="I163" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="J163" s="46">
+        <v>50</v>
+      </c>
+      <c r="K163" s="46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D164" s="46">
+        <v>2</v>
+      </c>
+      <c r="E164" s="46">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="F164" s="46">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="G164" s="71">
+        <f>(2*E164*F164)/(E164+F164)</f>
+        <v>3.9017343578485179E-2</v>
+      </c>
+      <c r="H164" s="46">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="I164" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="J164" s="46">
+        <v>50</v>
+      </c>
+      <c r="K164" s="46">
+        <v>20</v>
+      </c>
+      <c r="L164" s="46">
+        <v>450</v>
+      </c>
+      <c r="M164" s="46">
+        <v>680</v>
+      </c>
+      <c r="N164" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O164" s="69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="165" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D165" s="46">
+        <v>2</v>
+      </c>
+      <c r="E165" s="46">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F165" s="46">
+        <v>2.87E-2</v>
+      </c>
+      <c r="G165" s="71">
+        <f>(2*E165*F165)/(E165+F165)</f>
+        <v>3.9571212121212118E-2</v>
+      </c>
+      <c r="H165" s="46">
         <v>5.2600000000000001E-2</v>
       </c>
-    </row>
-    <row r="150" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E150">
-        <f>E140-E149</f>
-        <v>2.2999999999999965E-3</v>
-      </c>
-      <c r="O150">
-        <v>5.4300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E151" s="20">
-        <f>E150/E149</f>
-        <v>3.5439137134052334E-2</v>
-      </c>
-      <c r="O151">
-        <v>5.4899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="J159" s="28">
+      <c r="I165" s="68">
         <v>1E-4</v>
       </c>
-      <c r="K159" s="28">
+      <c r="J165" s="46">
+        <v>50</v>
+      </c>
+      <c r="K165" s="46">
+        <v>20</v>
+      </c>
+      <c r="L165" s="46">
+        <v>240</v>
+      </c>
+      <c r="M165" s="46">
+        <v>300</v>
+      </c>
+      <c r="N165" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O165" s="69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="166" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D166" s="46">
+        <v>2</v>
+      </c>
+      <c r="E166" s="46">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="F166" s="46">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="G166" s="71">
+        <f>(2*E166*F166)/(E166+F166)</f>
+        <v>3.8349107142857143E-2</v>
+      </c>
+      <c r="H166" s="46">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="I166" s="68">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="160" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="I160">
+      <c r="J166" s="46">
+        <v>50</v>
+      </c>
+      <c r="K166" s="46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D167" s="46">
+        <v>2</v>
+      </c>
+      <c r="E167" s="46">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="F167" s="46">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="G167" s="71">
+        <f>(2*E167*F167)/(E167+F167)</f>
+        <v>3.8329832402234636E-2</v>
+      </c>
+      <c r="H167" s="46">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="I167" s="68">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J167" s="46">
+        <v>50</v>
+      </c>
+      <c r="K167" s="46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D168" s="46">
+        <v>2</v>
+      </c>
+      <c r="E168" s="46">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="F168" s="46">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="G168" s="71">
+        <f>(2*E168*F168)/(E168+F168)</f>
+        <v>3.8215453527435606E-2</v>
+      </c>
+      <c r="H168" s="46">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="I168" s="68">
+        <v>0</v>
+      </c>
+      <c r="J168" s="46">
+        <v>50</v>
+      </c>
+      <c r="K168" s="46">
+        <v>20</v>
+      </c>
+      <c r="L168">
+        <v>130</v>
+      </c>
+      <c r="M168">
+        <v>230</v>
+      </c>
+      <c r="N168" t="s">
+        <v>82</v>
+      </c>
+      <c r="O168" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="171" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D171" s="46">
+        <v>2</v>
+      </c>
+      <c r="E171" s="71">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F171" s="46">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="G171" s="71">
+        <f>(2*E171*F171)/(E171+F171)</f>
+        <v>3.9055859802847759E-2</v>
+      </c>
+      <c r="H171" s="46">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="I171" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J171" s="46">
+        <v>50</v>
+      </c>
+      <c r="K171" s="46">
         <v>10</v>
       </c>
-      <c r="J160">
-        <v>3.4700000000000002E-2</v>
-      </c>
-      <c r="K160">
-        <v>3.4700000000000002E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I161">
+      <c r="L171" s="46">
+        <v>190</v>
+      </c>
+      <c r="M171" s="46">
+        <v>320</v>
+      </c>
+      <c r="N171" s="46"/>
+      <c r="O171" s="46"/>
+      <c r="P171" s="95">
+        <v>1963880</v>
+      </c>
+    </row>
+    <row r="172" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D172" s="46">
+        <v>2</v>
+      </c>
+      <c r="E172" s="46">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F172" s="46">
+        <v>2.86E-2</v>
+      </c>
+      <c r="G172" s="71">
+        <f>(2*E172*F172)/(E172+F172)</f>
+        <v>3.943756786102063E-2</v>
+      </c>
+      <c r="H172" s="46">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="I172" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J172" s="46">
+        <v>50</v>
+      </c>
+      <c r="K172" s="46">
+        <v>15</v>
+      </c>
+      <c r="L172" s="46">
+        <v>190</v>
+      </c>
+      <c r="M172" s="46">
+        <v>300</v>
+      </c>
+      <c r="N172" s="46"/>
+      <c r="O172" s="46"/>
+      <c r="P172" s="95">
+        <v>2154120</v>
+      </c>
+    </row>
+    <row r="173" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D173" s="46">
+        <v>2</v>
+      </c>
+      <c r="E173" s="46">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F173" s="46">
+        <v>2.87E-2</v>
+      </c>
+      <c r="G173" s="71">
+        <f>(2*E173*F173)/(E173+F173)</f>
+        <v>3.9571212121212118E-2</v>
+      </c>
+      <c r="H173" s="46">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="I173" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J173" s="46">
+        <v>50</v>
+      </c>
+      <c r="K173" s="46">
         <v>20</v>
       </c>
-      <c r="J161">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="K161">
-        <v>3.8300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I162">
+      <c r="L173" s="46">
+        <v>240</v>
+      </c>
+      <c r="M173" s="46">
+        <v>300</v>
+      </c>
+      <c r="N173" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O173" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P173" s="95">
+        <v>2344298</v>
+      </c>
+    </row>
+    <row r="174" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D174" s="46">
+        <v>2</v>
+      </c>
+      <c r="E174" s="46">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="F174" s="46">
+        <v>2.87E-2</v>
+      </c>
+      <c r="G174" s="71">
+        <f>(2*E174*F174)/(E174+F174)</f>
+        <v>3.9590486486486484E-2</v>
+      </c>
+      <c r="H174" s="46">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="I174" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J174" s="46">
+        <v>50</v>
+      </c>
+      <c r="K174" s="46">
+        <v>25</v>
+      </c>
+      <c r="L174" s="46">
+        <v>240</v>
+      </c>
+      <c r="M174" s="46">
+        <v>410</v>
+      </c>
+      <c r="N174" s="46"/>
+      <c r="O174" s="46"/>
+      <c r="P174" s="95">
+        <v>2534366</v>
+      </c>
+    </row>
+    <row r="175" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D175" s="46">
+        <v>2</v>
+      </c>
+      <c r="E175" s="46">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="F175" s="46">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="G175" s="71">
+        <f>(2*E175*F175)/(E175+F175)</f>
+        <v>3.932317736670294E-2</v>
+      </c>
+      <c r="H175" s="46">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="I175" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J175" s="46">
+        <v>50</v>
+      </c>
+      <c r="K175" s="46">
         <v>30</v>
       </c>
-      <c r="J162" s="44">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="K162" s="44">
-        <v>0.41399999999999998</v>
+      <c r="L175" s="46">
+        <v>190</v>
+      </c>
+      <c r="M175" s="46">
+        <v>1000</v>
+      </c>
+      <c r="N175" s="46"/>
+      <c r="O175" s="46"/>
+      <c r="P175" s="95">
+        <v>2724397</v>
+      </c>
+    </row>
+    <row r="177" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D177" s="46">
+        <v>2</v>
+      </c>
+      <c r="E177" s="46">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="F177" s="46">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="G177" s="71">
+        <f>(2*E177*F177)/(E177+F177)</f>
+        <v>3.9112280701754383E-2</v>
+      </c>
+      <c r="H177" s="71">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I177" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J177" s="46">
+        <v>30</v>
+      </c>
+      <c r="K177" s="46">
+        <v>20</v>
+      </c>
+      <c r="P177" s="95">
+        <v>1710938</v>
+      </c>
+    </row>
+    <row r="178" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D178" s="46">
+        <v>2</v>
+      </c>
+      <c r="E178" s="46">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="F178" s="46">
+        <v>2.86E-2</v>
+      </c>
+      <c r="G178" s="71">
+        <f>(2*E178*F178)/(E178+F178)</f>
+        <v>3.9398911860718172E-2</v>
+      </c>
+      <c r="H178" s="46">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="I178" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J178" s="46">
+        <v>40</v>
+      </c>
+      <c r="K178" s="46">
+        <v>20</v>
+      </c>
+      <c r="L178" s="46">
+        <v>190</v>
+      </c>
+      <c r="M178" s="46">
+        <v>320</v>
+      </c>
+      <c r="N178" s="46"/>
+      <c r="O178" s="46"/>
+    </row>
+    <row r="179" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D179" s="46">
+        <v>2</v>
+      </c>
+      <c r="E179" s="46">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F179" s="46">
+        <v>2.87E-2</v>
+      </c>
+      <c r="G179" s="71">
+        <f>(2*E179*F179)/(E179+F179)</f>
+        <v>3.9571212121212118E-2</v>
+      </c>
+      <c r="H179" s="46">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="I179" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J179" s="46">
+        <v>50</v>
+      </c>
+      <c r="K179" s="46">
+        <v>20</v>
+      </c>
+      <c r="L179" s="46">
+        <v>240</v>
+      </c>
+      <c r="M179" s="46">
+        <v>300</v>
+      </c>
+      <c r="N179" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O179" s="69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="180" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D180" s="46">
+        <v>2</v>
+      </c>
+      <c r="E180" s="46">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F180" s="46">
+        <v>2.87E-2</v>
+      </c>
+      <c r="G180" s="71">
+        <f>(2*E180*F180)/(E180+F180)</f>
+        <v>3.9571212121212118E-2</v>
+      </c>
+      <c r="H180" s="46">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="I180" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J180" s="46">
+        <v>60</v>
+      </c>
+      <c r="K180" s="46">
+        <v>20</v>
+      </c>
+      <c r="L180" s="46">
+        <v>240</v>
+      </c>
+      <c r="M180" s="46">
+        <v>520</v>
+      </c>
+      <c r="N180" s="46"/>
+      <c r="O180" s="46"/>
+    </row>
+    <row r="181" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D181" s="46">
+        <v>2</v>
+      </c>
+      <c r="E181" s="46">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="F181" s="46">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="G181" s="71">
+        <f>(2*E181*F181)/(E181+F181)</f>
+        <v>3.9838494623655914E-2</v>
+      </c>
+      <c r="H181" s="46">
+        <v>5.28E-2</v>
+      </c>
+      <c r="I181" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J181" s="46">
+        <v>70</v>
+      </c>
+      <c r="K181" s="46">
+        <v>20</v>
+      </c>
+      <c r="L181" s="46">
+        <v>240</v>
+      </c>
+      <c r="M181" s="46">
+        <v>300</v>
+      </c>
+      <c r="P181" s="95">
+        <v>2977658</v>
+      </c>
+    </row>
+    <row r="182" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D182" s="46">
+        <v>2</v>
+      </c>
+      <c r="E182" s="46">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="F182" s="46">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="G182" s="71">
+        <f>(2*E182*F182)/(E182+F182)</f>
+        <v>3.9743379978471473E-2</v>
+      </c>
+      <c r="H182" s="46">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="I182" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J182" s="46">
+        <v>80</v>
+      </c>
+      <c r="K182" s="46">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -10344,6 +14770,910 @@
     <mergeCell ref="D9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="G122:G131">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G153">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G159">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G151">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G139:G141 G144:G148">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G143">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G150:G151">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G153">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G157:G158">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G159">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H125 H127:H131">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H141">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H148 J141:K141 J143:K148 J150:K150 J151">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H151">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H153">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H159">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H153">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H157:H158">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H159">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J153">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J179:K179 J150:K150 H1:H132 H136:H141 P142:P143 P133:P135 J141:K141 J143:K148 J151 J153 H144:H158 J164:K165 L164:M164 J173:K173 H161:H1048576">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G163:G166">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G163:G166">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G163:G166">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G163:G166">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J165:K165 H165">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H165">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H165">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H165">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G168">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G168">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G168">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G168">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J166:K166">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J166:K166">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J167:K167">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J167:K167">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J168:K168">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J168:K168">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J163:K163">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J163:K163">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H150:H168 J164:M164">
+    <cfRule type="colorScale" priority="128">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G150:G168">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H168">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G122:G168">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171:G175">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171:G175">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171:G175">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171:G175">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J173:K173 H173">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H173">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H173">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H173">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H173">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171:G175">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H173">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G171:G175">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G179">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G179">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G179">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G179">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J179:K179 H179">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H179">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H179">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H179">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H179">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G179">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H179">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G179">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G180:G182">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G180:G182">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G180:G182">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G180:G182">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10355,7 +15685,55 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G147">
+  <conditionalFormatting sqref="G180:G182">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G180:G182">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G177:G178">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G177:G178">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G177:G178">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -10367,19 +15745,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G139:G141 G144">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G143">
+  <conditionalFormatting sqref="G177:G178">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -10391,43 +15757,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G146:G147">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H132 H136:H141 H144:H1048576 P142:P143 P133:P135 J141:K141 J143:K144 J146:K146 J147">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H125 H127:H131">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H141">
+  <conditionalFormatting sqref="G177:G178">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10439,20 +15769,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H144 J141:K141 J143:K144 J146:K146 J147">
+  <conditionalFormatting sqref="G177:G178">
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H147">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10502,10 +15820,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40676F58-3295-4B44-9129-9CAFD6F49D33}">
-  <dimension ref="C6:T70"/>
+  <dimension ref="C6:T71"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10539,16 +15857,16 @@
       </c>
     </row>
     <row r="8" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="104"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="107"/>
       <c r="T8" s="20">
         <f>P6/T6</f>
         <v>0.4025473933649289</v>
@@ -10713,13 +16031,13 @@
       </c>
     </row>
     <row r="24" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E24" s="102" t="s">
+      <c r="E24" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="104"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="107"/>
     </row>
     <row r="25" spans="5:9" ht="22" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
@@ -10803,20 +16121,20 @@
       </c>
     </row>
     <row r="36" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E36" s="102" t="s">
+      <c r="E36" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="104"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="106"/>
+      <c r="M36" s="106"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
+      <c r="P36" s="107"/>
     </row>
     <row r="37" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E37" s="12" t="s">
@@ -11359,93 +16677,118 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="F56">
-        <v>4.1099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="3:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="C57">
-        <f>F61-F56</f>
-        <v>5.0000000000000044E-3</v>
-      </c>
-      <c r="Q57" s="90" t="s">
-        <v>103</v>
+    <row r="57" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E57" s="67">
+        <v>2</v>
+      </c>
+      <c r="F57" s="71">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G57" s="46">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="H57" s="9">
+        <f t="shared" ref="H57:H60" si="3">(2*F57*G57)/(F57+G57)</f>
+        <v>2.5648953301127216E-2</v>
+      </c>
+      <c r="I57" s="46">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="J57" s="46">
+        <v>130</v>
+      </c>
+      <c r="K57" s="46">
+        <v>140</v>
+      </c>
+      <c r="L57" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M57" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="N57" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="O57" s="46">
+        <v>18</v>
+      </c>
+      <c r="P57" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="3:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="C58" s="20">
-        <f>C57/F56</f>
-        <v>0.12165450121654513</v>
-      </c>
       <c r="E58" s="67">
         <v>2</v>
       </c>
       <c r="F58" s="46">
-        <v>4.4499999999999998E-2</v>
+        <v>4.4699999999999997E-2</v>
       </c>
       <c r="G58" s="46">
-        <v>1.83E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="H58" s="9">
-        <f t="shared" ref="H58:H59" si="3">(2*F58*G58)/(F58+G58)</f>
-        <v>2.5934713375796177E-2</v>
-      </c>
-      <c r="I58" s="71">
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.6069096671949288E-2</v>
+      </c>
+      <c r="I58" s="46">
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="J58" s="46">
         <v>130</v>
       </c>
       <c r="K58" s="46">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="L58" s="68">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M58" s="46" t="s">
+      <c r="M58" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="N58" s="46" t="s">
+      <c r="N58" s="69" t="s">
         <v>82</v>
       </c>
       <c r="O58" s="46">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P58" s="46">
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="Q58" s="90" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="3:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="E59" s="88">
-        <v>1</v>
+      <c r="C59" s="20"/>
+      <c r="E59" s="67">
+        <v>2</v>
       </c>
       <c r="F59" s="46">
-        <v>4.1200000000000001E-2</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="G59" s="46">
-        <v>1.6899999999999998E-2</v>
+        <v>1.83E-2</v>
       </c>
       <c r="H59" s="9">
         <f t="shared" si="3"/>
-        <v>2.3968330464716005E-2</v>
-      </c>
-      <c r="I59" s="46">
-        <v>3.2099999999999997E-2</v>
+        <v>2.5934713375796177E-2</v>
+      </c>
+      <c r="I59" s="71">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J59" s="46">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="K59" s="46">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="L59" s="68">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M59" s="46" t="s">
+      <c r="M59" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="46" t="s">
+      <c r="N59" s="69" t="s">
         <v>82</v>
       </c>
       <c r="O59" s="46">
@@ -11454,101 +16797,99 @@
       <c r="P59" s="46">
         <v>60</v>
       </c>
-      <c r="Q59" s="91">
+    </row>
+    <row r="60" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E60" s="88">
+        <v>1</v>
+      </c>
+      <c r="F60" s="46">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="G60" s="46">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="H60" s="9">
+        <f t="shared" si="3"/>
+        <v>2.3968330464716005E-2</v>
+      </c>
+      <c r="I60" s="46">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="J60" s="46">
+        <v>100</v>
+      </c>
+      <c r="K60" s="46">
+        <v>170</v>
+      </c>
+      <c r="L60" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M60" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="N60" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O60" s="46">
+        <v>20</v>
+      </c>
+      <c r="P60" s="46">
+        <v>60</v>
+      </c>
+      <c r="Q60" s="91">
         <v>4990103</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="S60">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="S61">
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
-    <row r="61" spans="3:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="E61" s="88">
+    <row r="62" spans="3:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="E62" s="88">
         <v>4</v>
       </c>
-      <c r="F61" s="46">
+      <c r="F62" s="46">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="G61" s="46">
+      <c r="G62" s="46">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="H61" s="9">
-        <f t="shared" ref="H61" si="4">(2*F61*G61)/(F61+G61)</f>
+      <c r="H62" s="9">
+        <f t="shared" ref="H62" si="4">(2*F62*G62)/(F62+G62)</f>
         <v>2.6708166409861327E-2</v>
       </c>
-      <c r="I61" s="46">
+      <c r="I62" s="46">
         <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="J61" s="46">
-        <v>330</v>
-      </c>
-      <c r="K61" s="46">
-        <v>430</v>
-      </c>
-      <c r="L61" s="68">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="M61" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="N61" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="O61" s="46">
-        <v>20</v>
-      </c>
-      <c r="P61" s="46">
-        <v>60</v>
-      </c>
-      <c r="Q61" s="91">
-        <v>4990103</v>
-      </c>
-      <c r="S61">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="E62" s="67">
-        <v>4</v>
-      </c>
-      <c r="F62" s="46">
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="G62" s="46">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="H62" s="9">
-        <f>(2*F62*G62)/(F62+G62)</f>
-        <v>2.7111550151975684E-2</v>
-      </c>
-      <c r="I62" s="46">
-        <v>3.6600000000000001E-2</v>
       </c>
       <c r="J62" s="46">
         <v>330</v>
       </c>
       <c r="K62" s="46">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="L62" s="68">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M62" s="46" t="s">
+      <c r="M62" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="N62" s="46" t="s">
+      <c r="N62" s="69" t="s">
         <v>82</v>
       </c>
       <c r="O62" s="46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P62" s="46">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="Q62" s="91">
+        <v>4990103</v>
       </c>
       <c r="S62">
-        <f>S61-S60</f>
-        <v>4.1999999999999954E-3</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="63" spans="3:19" ht="22" x14ac:dyDescent="0.3">
@@ -11556,14 +16897,14 @@
         <v>4</v>
       </c>
       <c r="F63" s="46">
-        <v>4.65E-2</v>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="G63" s="46">
-        <v>1.9E-2</v>
-      </c>
-      <c r="H63" s="46">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="H63" s="9">
         <f>(2*F63*G63)/(F63+G63)</f>
-        <v>2.6977099236641218E-2</v>
+        <v>2.7111550151975684E-2</v>
       </c>
       <c r="I63" s="46">
         <v>3.6600000000000001E-2</v>
@@ -11572,26 +16913,26 @@
         <v>330</v>
       </c>
       <c r="K63" s="46">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="L63" s="68">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M63" s="46" t="s">
+      <c r="M63" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="N63" s="46" t="s">
+      <c r="N63" s="69" t="s">
         <v>82</v>
       </c>
       <c r="O63" s="46">
         <v>18</v>
       </c>
       <c r="P63" s="46">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="S63">
-        <f>S62/S60</f>
-        <v>0.13207547169811307</v>
+        <f>S62-S61</f>
+        <v>4.1999999999999954E-3</v>
       </c>
     </row>
     <row r="64" spans="3:19" ht="22" x14ac:dyDescent="0.3">
@@ -11599,14 +16940,14 @@
         <v>4</v>
       </c>
       <c r="F64" s="46">
-        <v>4.6600000000000003E-2</v>
+        <v>4.65E-2</v>
       </c>
       <c r="G64" s="46">
         <v>1.9E-2</v>
       </c>
       <c r="H64" s="46">
         <f>(2*F64*G64)/(F64+G64)</f>
-        <v>2.699390243902439E-2</v>
+        <v>2.6977099236641218E-2</v>
       </c>
       <c r="I64" s="46">
         <v>3.6600000000000001E-2</v>
@@ -11620,45 +16961,88 @@
       <c r="L64" s="68">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M64" s="46" t="s">
+      <c r="M64" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="46" t="s">
+      <c r="N64" s="69" t="s">
         <v>82</v>
       </c>
       <c r="O64" s="46">
         <v>18</v>
       </c>
       <c r="P64" s="46">
+        <v>120</v>
+      </c>
+      <c r="S64">
+        <f>S63/S61</f>
+        <v>0.13207547169811307</v>
+      </c>
+    </row>
+    <row r="65" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E65" s="67">
+        <v>4</v>
+      </c>
+      <c r="F65" s="46">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="G65" s="46">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H65" s="46">
+        <f>(2*F65*G65)/(F65+G65)</f>
+        <v>2.699390243902439E-2</v>
+      </c>
+      <c r="I65" s="46">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="J65" s="46">
+        <v>330</v>
+      </c>
+      <c r="K65" s="46">
+        <v>400</v>
+      </c>
+      <c r="L65" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M65" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="N65" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O65" s="46">
+        <v>18</v>
+      </c>
+      <c r="P65" s="46">
         <v>90</v>
       </c>
-      <c r="Q64" s="91">
+      <c r="Q65" s="91">
         <v>6385274</v>
       </c>
     </row>
-    <row r="67" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I67">
+    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="I68">
         <v>3.1300000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="9:17" x14ac:dyDescent="0.2">
-      <c r="I68">
-        <f>I61-I67</f>
+    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f>I62-I68</f>
         <v>4.9999999999999975E-3</v>
       </c>
     </row>
-    <row r="69" spans="9:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="I69" s="20">
-        <f>I68/I67</f>
+    <row r="70" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="I70" s="20">
+        <f>I69/I68</f>
         <v>0.15974440894568681</v>
       </c>
-      <c r="Q69" s="91">
+      <c r="Q70" s="91">
         <v>2380730</v>
       </c>
     </row>
-    <row r="70" spans="9:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="Q70" s="92">
-        <f>Q69*2</f>
+    <row r="71" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="Q71" s="92">
+        <f>Q70*2</f>
         <v>4761460</v>
       </c>
     </row>
@@ -11692,7 +17076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H64">
+  <conditionalFormatting sqref="H39:H65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -11704,7 +17088,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58:H59">
+  <conditionalFormatting sqref="H57:H60">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -11716,7 +17100,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H64">
+  <conditionalFormatting sqref="H62:H65">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -11740,7 +17124,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I61">
+  <conditionalFormatting sqref="I39:I62">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -11752,7 +17136,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I62">
+  <conditionalFormatting sqref="I39:I63">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -11764,7 +17148,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I64">
+  <conditionalFormatting sqref="I39:I65">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -11800,7 +17184,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:I1048576 J58:K58 I1:I64">
+  <conditionalFormatting sqref="I68:I1048576 J59:K59 I1:I65">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -11831,21 +17215,21 @@
   </cols>
   <sheetData>
     <row r="6" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="104"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
+      <c r="R6" s="107"/>
     </row>
     <row r="7" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F7" s="12" t="s">
@@ -12299,21 +17683,21 @@
       <c r="R18" s="83"/>
     </row>
     <row r="19" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F19" s="102" t="s">
+      <c r="F19" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="104"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="107"/>
     </row>
     <row r="20" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F20" s="10">
@@ -12850,20 +18234,20 @@
       <c r="R34" s="46"/>
     </row>
     <row r="36" spans="6:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="F36" s="113" t="s">
+      <c r="F36" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="116"/>
+      <c r="N36" s="116"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+      <c r="Q36" s="116"/>
     </row>
     <row r="37" spans="6:18" ht="22" x14ac:dyDescent="0.3">
       <c r="F37" s="10">

--- a/exp/Sim_20241213.xlsx
+++ b/exp/Sim_20241213.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A84B74-40E7-F141-A7D3-A1FFE0F2FC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9667260-47EF-AF44-A38A-94BFA7ED7B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="8840" windowWidth="33920" windowHeight="12420" activeTab="5" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="1480" yWindow="3580" windowWidth="33200" windowHeight="14400" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -19,15 +19,13 @@
     <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
     <sheet name="MogulGPU" sheetId="1" r:id="rId5"/>
     <sheet name="yelp2018" sheetId="2" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId7"/>
-    <sheet name="amazon-book" sheetId="8" r:id="rId8"/>
-    <sheet name="lasfm" sheetId="10" r:id="rId9"/>
-    <sheet name="ml-100k" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId11"/>
+    <sheet name="Sheet4" sheetId="14" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId8"/>
+    <sheet name="amazon-book" sheetId="8" r:id="rId9"/>
+    <sheet name="lasfm" sheetId="10" r:id="rId10"/>
+    <sheet name="ml-100k" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId12"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'ml-100k'!$L$53:$L$59</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="114">
   <si>
     <t>Paper value</t>
   </si>
@@ -382,6 +380,15 @@
   </si>
   <si>
     <t>mix+</t>
+  </si>
+  <si>
+    <t>HyperGCN_i</t>
+  </si>
+  <si>
+    <t>Ablation study</t>
+  </si>
+  <si>
+    <t>HyperGCN_o</t>
   </si>
 </sst>
 </file>
@@ -808,6 +815,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -873,13 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -966,7 +973,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>yelp2018!$H$163:$H$168</c:f>
+              <c:f>yelp2018!$H$168:$H$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5132,13 +5139,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5640,8 +5647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4227896D-BE1A-B249-BC5D-D805EF240247}">
   <dimension ref="B4:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6232,11 +6239,1260 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E92C1B-7A6F-A542-90FD-1DA37706EDAB}">
+  <dimension ref="F6:R46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="43.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F6" s="108" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="110"/>
+    </row>
+    <row r="7" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="H9" s="9">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" ref="I9:I14" si="0">(2*G9*H9)/(G9+H9)</f>
+        <v>0.12008500570125426</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="K9" s="9">
+        <v>690</v>
+      </c>
+      <c r="L9" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N9" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>10</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="H10" s="9">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11952030892448513</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="K10" s="9">
+        <v>690</v>
+      </c>
+      <c r="L10" s="9">
+        <v>800</v>
+      </c>
+      <c r="M10" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N10" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>10</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.27189999999999998</v>
+      </c>
+      <c r="H11" s="9">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0.11879505605058924</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.2127</v>
+      </c>
+      <c r="K11" s="43">
+        <v>630</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N11" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="9">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>10</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="H12" s="9">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.12206675993284835</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="K12" s="43">
+        <v>680</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>15</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="H13" s="14">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1241225522552255</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.2205</v>
+      </c>
+      <c r="K13" s="43">
+        <v>990</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N13" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>20</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F14" s="10">
+        <v>2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="H14" s="9">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1255274408485178</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="K14" s="43">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N14" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O14" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="48">
+        <v>25</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F15" s="10">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.2888</v>
+      </c>
+      <c r="H15" s="9">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" ref="I15" si="1">(2*G15*H15)/(G15+H15)</f>
+        <v>0.12614971583220569</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.224</v>
+      </c>
+      <c r="K15" s="43">
+        <v>960</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N15" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O15" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="48">
+        <v>30</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F16" s="10">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.2873</v>
+      </c>
+      <c r="H16" s="9">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" ref="I16" si="2">(2*G16*H16)/(G16+H16)</f>
+        <v>0.12551789989118606</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="K16" s="43">
+        <v>950</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N16" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="48">
+        <v>35</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F17" s="10">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="H17" s="9">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="I17" s="9">
+        <f>(2*G17*H17)/(G17+H17)</f>
+        <v>0.12567823960880198</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.22489999999999999</v>
+      </c>
+      <c r="K17" s="9">
+        <v>910</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="48">
+        <v>30</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="83"/>
+    </row>
+    <row r="19" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F19" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="109"/>
+      <c r="R19" s="110"/>
+    </row>
+    <row r="20" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F20" s="10">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="H20" s="9">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" ref="I20:I27" si="3">(2*G20*H20)/(G20+H20)</f>
+        <v>7.7665546942291122E-2</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="K20" s="9">
+        <v>200</v>
+      </c>
+      <c r="L20" s="9">
+        <v>450</v>
+      </c>
+      <c r="M20" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N20" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="48">
+        <v>30</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F21" s="10">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="H21" s="9">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12592245452077114</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.224</v>
+      </c>
+      <c r="K21" s="9">
+        <v>980</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M21" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N21" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O21" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="48">
+        <v>30</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F22" s="10">
+        <v>2</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="H22" s="9">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12524489239989106</v>
+      </c>
+      <c r="J22" s="14">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="K22" s="9">
+        <v>950</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N22" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="48">
+        <v>30</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F23" s="10">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="H23" s="9">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12004651826484017</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.216</v>
+      </c>
+      <c r="K23" s="9">
+        <v>990</v>
+      </c>
+      <c r="L23" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M23" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N23" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O23" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="48">
+        <v>30</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F24" s="10">
+        <v>2</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="H24" s="9">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12567823960880198</v>
+      </c>
+      <c r="J24" s="14">
+        <v>0.22489999999999999</v>
+      </c>
+      <c r="K24" s="9">
+        <v>910</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N24" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="48">
+        <v>30</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F25" s="10">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.28060000000000002</v>
+      </c>
+      <c r="H25" s="9">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12292357361536323</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="K25" s="9">
+        <v>830</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M25" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O25" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="48">
+        <v>30</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F26" s="10">
+        <v>2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="H26" s="9">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12198058906030855</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="K26" s="9">
+        <v>950</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M26" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N26" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O26" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>30</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F27" s="10">
+        <v>3</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.2883</v>
+      </c>
+      <c r="H27" s="9">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="3"/>
+        <v>0.12561307650569722</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="K27" s="9">
+        <v>950</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M27" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N27" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>30</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F28" s="10">
+        <v>4</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.2838</v>
+      </c>
+      <c r="H28" s="9">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" ref="I28:I31" si="4">(2*G28*H28)/(G28+H28)</f>
+        <v>0.12384000000000001</v>
+      </c>
+      <c r="J28" s="14">
+        <v>0.2165</v>
+      </c>
+      <c r="K28" s="43">
+        <v>980</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M28" s="33">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="N28" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" s="48">
+        <v>15</v>
+      </c>
+      <c r="Q28" s="48">
+        <v>30</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F29" s="67"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="46"/>
+    </row>
+    <row r="31" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F31" s="10">
+        <v>2</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.2838</v>
+      </c>
+      <c r="H31" s="9">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="4"/>
+        <v>0.1243284534947716</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N31" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O31" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>35</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F32" s="10">
+        <v>3</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="H32" s="9">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" ref="I32" si="5">(2*G32*H32)/(G32+H32)</f>
+        <v>0.1229139755011136</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="K32" s="9">
+        <v>950</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N32" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>35</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F33" s="10">
+        <v>4</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="H33" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" ref="I33" si="6">(2*G33*H33)/(G33+H33)</f>
+        <v>0.12029334849346218</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M33" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N33" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="O33" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>35</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F34" s="67"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+    </row>
+    <row r="36" spans="6:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="F36" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="119"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="119"/>
+      <c r="N36" s="119"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="119"/>
+      <c r="Q36" s="119"/>
+    </row>
+    <row r="37" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="F37" s="10">
+        <v>2</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.2757</v>
+      </c>
+      <c r="H37" s="9">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" ref="I37" si="7">(2*G37*H37)/(G37+H37)</f>
+        <v>0.1214764140271493</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="K37" s="9">
+        <v>980</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M37" s="33">
+        <v>1E-3</v>
+      </c>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+    </row>
+    <row r="38" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+    </row>
+    <row r="40" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.2">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="44" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="J44" s="14">
+        <f>J24-J31</f>
+        <v>1.5000000000000013E-3</v>
+      </c>
+      <c r="K44" s="20"/>
+    </row>
+    <row r="45" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="J45" s="9">
+        <f>J27-J32</f>
+        <v>3.2999999999999974E-3</v>
+      </c>
+      <c r="K45" s="20"/>
+    </row>
+    <row r="46" spans="6:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="J46" s="9">
+        <f>J28-J33</f>
+        <v>3.2000000000000084E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F36:Q36"/>
+    <mergeCell ref="F19:R19"/>
+    <mergeCell ref="F6:R6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J9:J16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17:J18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J29">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J29">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:J46">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74A1973-828D-9C45-B90B-5490793AE67B}">
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6256,13 +7512,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="H7" s="115" t="s">
+      <c r="H7" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="22" x14ac:dyDescent="0.3">
@@ -7208,7 +8464,7 @@
         <v>0.27429999999999999</v>
       </c>
       <c r="K53" s="71">
-        <f>(2*I53*J53)/(I53+J53)</f>
+        <f t="shared" ref="K53:K59" si="5">(2*I53*J53)/(I53+J53)</f>
         <v>0.29556320834033967</v>
       </c>
       <c r="L53" s="46">
@@ -7247,7 +8503,7 @@
         <v>0.30470000000000003</v>
       </c>
       <c r="K54" s="71">
-        <f>(2*I54*J54)/(I54+J54)</f>
+        <f t="shared" si="5"/>
         <v>0.3317206520113653</v>
       </c>
       <c r="L54" s="46">
@@ -7286,7 +8542,7 @@
         <v>0.30070000000000002</v>
       </c>
       <c r="K55" s="71">
-        <f>(2*I55*J55)/(I55+J55)</f>
+        <f t="shared" si="5"/>
         <v>0.32635668441064641</v>
       </c>
       <c r="L55" s="46">
@@ -7325,7 +8581,7 @@
         <v>0.29959999999999998</v>
       </c>
       <c r="K56" s="71">
-        <f>(2*I56*J56)/(I56+J56)</f>
+        <f t="shared" si="5"/>
         <v>0.32524864947352355</v>
       </c>
       <c r="L56" s="46">
@@ -7364,7 +8620,7 @@
         <v>0.29949999999999999</v>
       </c>
       <c r="K57" s="71">
-        <f>(2*I57*J57)/(I57+J57)</f>
+        <f t="shared" si="5"/>
         <v>0.32510610687022895</v>
       </c>
       <c r="L57" s="46">
@@ -7402,8 +8658,8 @@
       <c r="J58" s="46">
         <v>0.29959999999999998</v>
       </c>
-      <c r="K58" s="118">
-        <f>(2*I58*J58)/(I58+J58)</f>
+      <c r="K58" s="96">
+        <f t="shared" si="5"/>
         <v>0.32520683760683761</v>
       </c>
       <c r="L58" s="46">
@@ -7442,7 +8698,7 @@
         <v>0.29959999999999998</v>
       </c>
       <c r="K59" s="71">
-        <f>(2*I59*J59)/(I59+J59)</f>
+        <f t="shared" si="5"/>
         <v>0.32520683760683761</v>
       </c>
       <c r="L59" s="46">
@@ -7471,6 +8727,28 @@
       </c>
     </row>
     <row r="62" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H62" s="88">
+        <v>2</v>
+      </c>
+      <c r="I62" s="46">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="J62" s="46">
+        <v>0.3044</v>
+      </c>
+      <c r="K62" s="71">
+        <f t="shared" ref="K62:K70" si="6">(2*I62*J62)/(I62+J62)</f>
+        <v>0.33020901984365603</v>
+      </c>
+      <c r="L62" s="46">
+        <v>0.4461</v>
+      </c>
+      <c r="N62" s="46">
+        <v>80</v>
+      </c>
+      <c r="O62" s="46">
+        <v>5</v>
+      </c>
       <c r="S62" s="69" t="s">
         <v>103</v>
       </c>
@@ -7486,7 +8764,7 @@
         <v>0.30549999999999999</v>
       </c>
       <c r="K63" s="71">
-        <f>(2*I63*J63)/(I63+J63)</f>
+        <f t="shared" si="6"/>
         <v>0.33135880149812735</v>
       </c>
       <c r="L63" s="46">
@@ -7498,7 +8776,7 @@
       <c r="O63" s="46">
         <v>6</v>
       </c>
-      <c r="S63" s="120">
+      <c r="S63" s="98">
         <v>85382</v>
       </c>
     </row>
@@ -7513,7 +8791,7 @@
         <v>0.30590000000000001</v>
       </c>
       <c r="K64" s="71">
-        <f>(2*I64*J64)/(I64+J64)</f>
+        <f t="shared" si="6"/>
         <v>0.33263887231503581</v>
       </c>
       <c r="L64" s="46">
@@ -7525,7 +8803,7 @@
       <c r="O64" s="46">
         <v>8</v>
       </c>
-      <c r="S64" s="120">
+      <c r="S64" s="98">
         <v>88696</v>
       </c>
     </row>
@@ -7540,7 +8818,7 @@
         <v>0.30470000000000003</v>
       </c>
       <c r="K65" s="71">
-        <f>(2*I65*J65)/(I65+J65)</f>
+        <f t="shared" si="6"/>
         <v>0.3317206520113653</v>
       </c>
       <c r="L65" s="46">
@@ -7577,21 +8855,21 @@
         <v>0.3039</v>
       </c>
       <c r="K66" s="71">
-        <f>(2*I66*J66)/(I66+J66)</f>
+        <f t="shared" si="6"/>
         <v>0.33066508627156788</v>
       </c>
       <c r="L66" s="46">
         <v>0.44769999999999999</v>
       </c>
-      <c r="N66" s="119">
+      <c r="N66" s="97">
         <v>80</v>
       </c>
-      <c r="O66" s="119">
+      <c r="O66" s="97">
         <v>12</v>
       </c>
-      <c r="P66" s="117"/>
-      <c r="Q66" s="117"/>
-      <c r="S66" s="120">
+      <c r="P66" s="120"/>
+      <c r="Q66" s="120"/>
+      <c r="S66" s="98">
         <v>95324</v>
       </c>
     </row>
@@ -7606,7 +8884,7 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="K67" s="71">
-        <f>(2*I67*J67)/(I67+J67)</f>
+        <f t="shared" si="6"/>
         <v>0.33163636363636362</v>
       </c>
       <c r="L67" s="46">
@@ -7615,13 +8893,13 @@
       <c r="M67" s="86">
         <v>1E-3</v>
       </c>
-      <c r="N67" s="119">
+      <c r="N67" s="97">
         <v>80</v>
       </c>
-      <c r="O67" s="119">
+      <c r="O67" s="97">
         <v>14</v>
       </c>
-      <c r="S67" s="120">
+      <c r="S67" s="98">
         <v>98638</v>
       </c>
     </row>
@@ -7636,20 +8914,20 @@
         <v>0.30420000000000003</v>
       </c>
       <c r="K68" s="71">
-        <f>(2*I68*J68)/(I68+J68)</f>
+        <f t="shared" si="6"/>
         <v>0.33084259148170364</v>
       </c>
       <c r="L68" s="46">
         <v>0.44719999999999999</v>
       </c>
       <c r="M68" s="73"/>
-      <c r="N68" s="119">
+      <c r="N68" s="97">
         <v>80</v>
       </c>
-      <c r="O68" s="119">
+      <c r="O68" s="97">
         <v>20</v>
       </c>
-      <c r="S68" s="120">
+      <c r="S68" s="98">
         <v>108580</v>
       </c>
     </row>
@@ -7664,17 +8942,17 @@
         <v>0.30349999999999999</v>
       </c>
       <c r="K69" s="71">
-        <f>(2*I69*J69)/(I69+J69)</f>
+        <f t="shared" si="6"/>
         <v>0.32980394222088472</v>
       </c>
       <c r="L69" s="46">
         <v>0.4451</v>
       </c>
       <c r="M69" s="73"/>
-      <c r="N69" s="119">
+      <c r="N69" s="97">
         <v>80</v>
       </c>
-      <c r="O69" s="119">
+      <c r="O69" s="97">
         <v>25</v>
       </c>
       <c r="S69" s="69"/>
@@ -7690,17 +8968,17 @@
         <v>0.30230000000000001</v>
       </c>
       <c r="K70" s="71">
-        <f>(2*I70*J70)/(I70+J70)</f>
+        <f t="shared" si="6"/>
         <v>0.3293431024096386</v>
       </c>
       <c r="L70" s="46">
         <v>0.44640000000000002</v>
       </c>
       <c r="M70" s="73"/>
-      <c r="N70" s="119">
+      <c r="N70" s="97">
         <v>80</v>
       </c>
-      <c r="O70" s="119">
+      <c r="O70" s="97">
         <v>15</v>
       </c>
       <c r="S70" s="69"/>
@@ -7712,96 +8990,245 @@
       <c r="K71" s="71"/>
       <c r="L71" s="46"/>
       <c r="M71" s="73"/>
-      <c r="N71" s="119"/>
-      <c r="O71" s="119"/>
+      <c r="N71" s="97"/>
+      <c r="O71" s="97"/>
       <c r="S71" s="69"/>
     </row>
     <row r="72" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H72" s="88">
+        <v>2</v>
+      </c>
+      <c r="I72" s="71">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="J72" s="46">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="K72" s="71">
+        <f t="shared" ref="K72:K79" si="7">(2*I72*J72)/(I72+J72)</f>
+        <v>0.33017498496692727</v>
+      </c>
+      <c r="L72" s="46">
+        <v>0.44590000000000002</v>
+      </c>
       <c r="M72" s="73"/>
-      <c r="N72" s="119">
+      <c r="N72" s="97">
+        <v>40</v>
+      </c>
+      <c r="O72" s="97">
+        <v>10</v>
+      </c>
+      <c r="S72" s="69"/>
+    </row>
+    <row r="73" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H73" s="88">
+        <v>2</v>
+      </c>
+      <c r="I73" s="46">
+        <v>0.36049999999999999</v>
+      </c>
+      <c r="J73" s="46">
+        <v>0.30259999999999998</v>
+      </c>
+      <c r="K73" s="71">
+        <f t="shared" si="7"/>
+        <v>0.32902216860202077</v>
+      </c>
+      <c r="L73" s="71">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="M73" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N73" s="97">
         <v>60</v>
       </c>
-      <c r="O72" s="119">
+      <c r="O73" s="97">
         <v>10</v>
       </c>
-      <c r="S72" s="69"/>
-    </row>
-    <row r="73" spans="8:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="N73" s="46">
-        <v>70</v>
-      </c>
-      <c r="O73" s="46">
-        <v>10</v>
-      </c>
-      <c r="S73" s="69"/>
+      <c r="R73" s="46">
+        <v>350</v>
+      </c>
+      <c r="S73" s="69">
+        <v>1000</v>
+      </c>
     </row>
     <row r="74" spans="8:19" ht="22" x14ac:dyDescent="0.3">
       <c r="H74" s="88">
         <v>2</v>
       </c>
-      <c r="I74" s="71">
-        <v>0.36399999999999999</v>
+      <c r="I74" s="46">
+        <v>0.36280000000000001</v>
       </c>
       <c r="J74" s="46">
-        <v>0.30470000000000003</v>
+        <v>0.3049</v>
       </c>
       <c r="K74" s="71">
-        <f>(2*I74*J74)/(I74+J74)</f>
-        <v>0.3317206520113653</v>
+        <f t="shared" si="7"/>
+        <v>0.33133958364534971</v>
       </c>
       <c r="L74" s="46">
-        <v>0.44769999999999999</v>
+        <v>0.44719999999999999</v>
       </c>
       <c r="M74" s="68">
         <v>1E-3</v>
       </c>
       <c r="N74" s="46">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O74" s="46">
         <v>10</v>
       </c>
-      <c r="P74" s="46" t="s">
+      <c r="R74" s="46">
+        <v>330</v>
+      </c>
+      <c r="S74" s="69"/>
+    </row>
+    <row r="75" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H75" s="88">
+        <v>2</v>
+      </c>
+      <c r="I75" s="71">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="J75" s="46">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="K75" s="71">
+        <f t="shared" si="7"/>
+        <v>0.3317206520113653</v>
+      </c>
+      <c r="L75" s="46">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="M75" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="N75" s="46">
+        <v>80</v>
+      </c>
+      <c r="O75" s="46">
+        <v>10</v>
+      </c>
+      <c r="P75" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="Q74" s="46" t="s">
+      <c r="Q75" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="R74" s="46">
+      <c r="R75" s="46">
         <v>400</v>
       </c>
-      <c r="S74" s="69"/>
-    </row>
-    <row r="75" spans="8:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="N75" s="119">
+      <c r="S75" s="69"/>
+    </row>
+    <row r="76" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H76" s="88">
+        <v>2</v>
+      </c>
+      <c r="I76" s="46">
+        <v>0.36580000000000001</v>
+      </c>
+      <c r="J76" s="46">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="K76" s="71">
+        <f t="shared" si="7"/>
+        <v>0.3324660999254288</v>
+      </c>
+      <c r="L76" s="46">
+        <v>0.44850000000000001</v>
+      </c>
+      <c r="N76" s="97">
         <v>90</v>
       </c>
-      <c r="O75" s="119">
+      <c r="O76" s="97">
         <v>10</v>
       </c>
-      <c r="P75" s="117"/>
-      <c r="Q75" s="117"/>
-      <c r="S75" s="69"/>
-    </row>
-    <row r="76" spans="8:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="M76" s="73"/>
-      <c r="N76" s="119">
+      <c r="P76" s="120"/>
+      <c r="Q76" s="120"/>
+      <c r="S76" s="69"/>
+    </row>
+    <row r="77" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H77" s="88">
+        <v>2</v>
+      </c>
+      <c r="I77" s="46">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="J77" s="46">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="K77" s="71">
+        <f t="shared" si="7"/>
+        <v>0.33279379937397524</v>
+      </c>
+      <c r="L77" s="46">
+        <v>0.44850000000000001</v>
+      </c>
+      <c r="M77" s="73"/>
+      <c r="N77" s="97">
         <v>100</v>
       </c>
-      <c r="O76" s="119">
+      <c r="O77" s="97">
         <v>10</v>
       </c>
-      <c r="S76" s="69"/>
-    </row>
-    <row r="77" spans="8:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="M77" s="73"/>
       <c r="S77" s="69"/>
+    </row>
+    <row r="78" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H78" s="88">
+        <v>2</v>
+      </c>
+      <c r="I78" s="46">
+        <v>0.36320000000000002</v>
+      </c>
+      <c r="J78" s="46">
+        <v>0.3049</v>
+      </c>
+      <c r="K78" s="71">
+        <f t="shared" si="7"/>
+        <v>0.33150630145187848</v>
+      </c>
+      <c r="L78" s="71">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="M78" s="73"/>
+      <c r="N78" s="97">
+        <v>120</v>
+      </c>
+      <c r="O78" s="97">
+        <v>10</v>
+      </c>
+      <c r="S78" s="69"/>
+    </row>
+    <row r="79" spans="8:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="H79" s="88">
+        <v>2</v>
+      </c>
+      <c r="I79" s="46">
+        <v>0.3629</v>
+      </c>
+      <c r="J79" s="46">
+        <v>0.3054</v>
+      </c>
+      <c r="K79" s="71">
+        <f t="shared" si="7"/>
+        <v>0.33167637288642826</v>
+      </c>
+      <c r="L79" s="46">
+        <v>0.44750000000000001</v>
+      </c>
+      <c r="N79" s="97">
+        <v>140</v>
+      </c>
+      <c r="O79" s="97">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="P76:Q76"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:L43 L46">
     <cfRule type="colorScale" priority="12">
@@ -7863,6 +9290,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L53:L59 L62">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L54">
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -7874,8 +9313,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -7887,8 +9324,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L53:L59">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="L65:L74 L76:L79">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7898,8 +9335,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L65:L71">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -7910,8 +9345,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L65:L71">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -7923,8 +9356,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L65:L71">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="L75">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7934,8 +9367,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L74">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -7946,21 +9377,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L74">
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L74">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7976,7 +9393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA9DBC5-1EAA-914F-947D-170AFF1EFB75}">
   <dimension ref="N30:O31"/>
   <sheetViews>
@@ -8029,18 +9446,18 @@
   </cols>
   <sheetData>
     <row r="10" spans="5:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="98"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="101"/>
       <c r="Q10" s="6" t="s">
         <v>57</v>
       </c>
@@ -8203,18 +9620,18 @@
       <c r="N16" s="2"/>
     </row>
     <row r="18" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E18" s="96" t="s">
+      <c r="E18" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="98"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="101"/>
       <c r="Q18" s="6" t="s">
         <v>50</v>
       </c>
@@ -8432,18 +9849,18 @@
       </c>
     </row>
     <row r="26" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E26" s="96" t="s">
+      <c r="E26" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="98"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="101"/>
     </row>
     <row r="27" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E27" s="31"/>
@@ -8616,17 +10033,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E6" s="36"/>
@@ -8634,12 +10051,12 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="100" t="s">
+      <c r="J6" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E7" s="37" t="s">
@@ -8791,17 +10208,17 @@
       </c>
     </row>
     <row r="15" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
     </row>
     <row r="16" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E16" s="36"/>
@@ -8809,12 +10226,12 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="100" t="s">
+      <c r="J16" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
     </row>
     <row r="17" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E17" s="37" t="s">
@@ -8970,21 +10387,21 @@
       <c r="M22" s="9"/>
     </row>
     <row r="27" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E27" s="100" t="s">
+      <c r="E27" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
     </row>
     <row r="28" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E28" s="37" t="s">
@@ -9126,30 +10543,30 @@
       <c r="Q33" s="9"/>
     </row>
     <row r="37" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E37" s="99" t="s">
+      <c r="E37" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
     </row>
     <row r="38" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E38" s="101" t="s">
+      <c r="E38" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="103"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="106"/>
     </row>
     <row r="39" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D39" s="73" t="s">
@@ -9448,19 +10865,19 @@
       <c r="M49" s="46"/>
     </row>
     <row r="51" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E51" s="99" t="s">
+      <c r="E51" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="99"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="99"/>
-      <c r="M51" s="99"/>
-      <c r="N51" s="99"/>
-      <c r="O51" s="99"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="102"/>
+      <c r="L51" s="102"/>
+      <c r="M51" s="102"/>
+      <c r="N51" s="102"/>
+      <c r="O51" s="102"/>
     </row>
     <row r="52" spans="5:16" ht="22" x14ac:dyDescent="0.3">
       <c r="E52" s="37" t="s">
@@ -11049,56 +12466,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:28" ht="27" x14ac:dyDescent="0.35">
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
     </row>
     <row r="4" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112" t="s">
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="112" t="s">
+      <c r="M4" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="112" t="s">
+      <c r="R4" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
     </row>
     <row r="5" spans="3:28" ht="19" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -11158,16 +12575,16 @@
       </c>
     </row>
     <row r="6" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C6" s="109">
+      <c r="C6" s="112">
         <v>1000</v>
       </c>
-      <c r="D6" s="113">
+      <c r="D6" s="116">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="113">
+      <c r="F6" s="116">
         <v>0.1492</v>
       </c>
       <c r="G6" s="7">
@@ -11180,7 +12597,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="113">
+      <c r="M6" s="116">
         <v>0.17549999999999999</v>
       </c>
       <c r="N6" s="1">
@@ -11189,7 +12606,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="113">
+      <c r="R6" s="116">
         <v>0.17549999999999999</v>
       </c>
       <c r="S6" s="1"/>
@@ -11197,12 +12614,12 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C7" s="110"/>
-      <c r="D7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="116"/>
       <c r="E7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="113"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="7">
         <v>0.14838999999999999</v>
       </c>
@@ -11217,7 +12634,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="113"/>
+      <c r="M7" s="116"/>
       <c r="N7" s="7">
         <v>0.17444000000000001</v>
       </c>
@@ -11226,7 +12643,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="113"/>
+      <c r="R7" s="116"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
         <v>5.3499999999999999E-2</v>
@@ -11237,7 +12654,7 @@
       </c>
     </row>
     <row r="8" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C8" s="111"/>
+      <c r="C8" s="114"/>
       <c r="D8" s="23">
         <v>2</v>
       </c>
@@ -11279,13 +12696,13 @@
       </c>
     </row>
     <row r="13" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="X13" s="105" t="s">
+      <c r="X13" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="107"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="109"/>
+      <c r="AB13" s="110"/>
     </row>
     <row r="14" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="X14" s="12" t="s">
@@ -11347,13 +12764,13 @@
       </c>
     </row>
     <row r="18" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="107"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="110"/>
       <c r="X18" s="10">
         <v>4</v>
       </c>
@@ -11417,19 +12834,19 @@
         <f>(2*D21*F21)/(D21+F21)</f>
         <v>8.3585657917309999E-2</v>
       </c>
-      <c r="J21" s="108" t="s">
+      <c r="J21" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="108"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
     </row>
     <row r="22" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
@@ -11492,10 +12909,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
-  <dimension ref="D9:AA182"/>
+  <dimension ref="D9:AA197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="I182" sqref="I182"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="U154" sqref="U154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11510,24 +12927,25 @@
     <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="4:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="D9" s="105" t="s">
+      <c r="D9" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="107"/>
-      <c r="N9" s="105" t="s">
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="110"/>
+      <c r="N9" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="107"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="110"/>
     </row>
     <row r="10" spans="4:24" ht="22" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -11689,26 +13107,26 @@
       <c r="S14" s="2"/>
     </row>
     <row r="18" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
-      <c r="N18" s="105" t="s">
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
+      <c r="N18" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="106"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="106"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="107"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="110"/>
     </row>
     <row r="19" spans="4:27" ht="22" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
@@ -12056,15 +13474,15 @@
       </c>
     </row>
     <row r="29" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D29" s="105" t="s">
+      <c r="D29" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="107"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="110"/>
       <c r="N29" s="38" t="s">
         <v>23</v>
       </c>
@@ -12268,16 +13686,16 @@
       <c r="V36" s="17"/>
     </row>
     <row r="37" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D37" s="105" t="s">
+      <c r="D37" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="107"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="109"/>
+      <c r="K37" s="110"/>
       <c r="N37" s="19"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -12395,16 +13813,16 @@
       <c r="K42" s="2"/>
     </row>
     <row r="48" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D48" s="105" t="s">
+      <c r="D48" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="107"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="110"/>
     </row>
     <row r="49" spans="4:11" ht="22" x14ac:dyDescent="0.3">
       <c r="D49" s="12" t="s">
@@ -12583,17 +14001,17 @@
       </c>
     </row>
     <row r="76" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D76" s="105" t="s">
+      <c r="D76" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="106"/>
-      <c r="F76" s="106"/>
-      <c r="G76" s="106"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="106"/>
-      <c r="J76" s="106"/>
-      <c r="K76" s="106"/>
-      <c r="L76" s="107"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
+      <c r="J76" s="109"/>
+      <c r="K76" s="109"/>
+      <c r="L76" s="110"/>
     </row>
     <row r="77" spans="4:12" ht="22" x14ac:dyDescent="0.3">
       <c r="D77" s="12" t="s">
@@ -12742,18 +14160,18 @@
       </c>
     </row>
     <row r="91" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D91" s="105" t="s">
+      <c r="D91" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="E91" s="106"/>
-      <c r="F91" s="106"/>
-      <c r="G91" s="106"/>
-      <c r="H91" s="106"/>
-      <c r="I91" s="106"/>
-      <c r="J91" s="106"/>
-      <c r="K91" s="106"/>
-      <c r="L91" s="106"/>
-      <c r="M91" s="107"/>
+      <c r="E91" s="109"/>
+      <c r="F91" s="109"/>
+      <c r="G91" s="109"/>
+      <c r="H91" s="109"/>
+      <c r="I91" s="109"/>
+      <c r="J91" s="109"/>
+      <c r="K91" s="109"/>
+      <c r="L91" s="109"/>
+      <c r="M91" s="110"/>
     </row>
     <row r="92" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D92" s="12" t="s">
@@ -13040,16 +14458,16 @@
       <c r="M104" s="2"/>
     </row>
     <row r="110" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D110" s="115" t="s">
+      <c r="D110" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="E110" s="115"/>
-      <c r="F110" s="115"/>
-      <c r="G110" s="115"/>
-      <c r="H110" s="115"/>
-      <c r="I110" s="115"/>
-      <c r="J110" s="115"/>
-      <c r="K110" s="115"/>
+      <c r="E110" s="118"/>
+      <c r="F110" s="118"/>
+      <c r="G110" s="118"/>
+      <c r="H110" s="118"/>
+      <c r="I110" s="118"/>
+      <c r="J110" s="118"/>
+      <c r="K110" s="118"/>
     </row>
     <row r="111" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D111" s="12" t="s">
@@ -13186,18 +14604,18 @@
       </c>
     </row>
     <row r="120" spans="4:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="D120" s="114" t="s">
+      <c r="D120" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="E120" s="114"/>
-      <c r="F120" s="114"/>
-      <c r="G120" s="114"/>
-      <c r="H120" s="114"/>
-      <c r="I120" s="114"/>
-      <c r="J120" s="114"/>
-      <c r="K120" s="114"/>
-      <c r="L120" s="114"/>
-      <c r="M120" s="114"/>
+      <c r="E120" s="117"/>
+      <c r="F120" s="117"/>
+      <c r="G120" s="117"/>
+      <c r="H120" s="117"/>
+      <c r="I120" s="117"/>
+      <c r="J120" s="117"/>
+      <c r="K120" s="117"/>
+      <c r="L120" s="117"/>
+      <c r="M120" s="117"/>
     </row>
     <row r="121" spans="4:13" ht="22" x14ac:dyDescent="0.3">
       <c r="D121" s="87" t="s">
@@ -13820,7 +15238,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="145" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:21" ht="22" x14ac:dyDescent="0.3">
       <c r="D145" s="46">
         <v>2</v>
       </c>
@@ -13859,7 +15277,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="146" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:21" ht="22" x14ac:dyDescent="0.3">
       <c r="D146" s="46">
         <v>2</v>
       </c>
@@ -13898,7 +15316,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="147" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:21" ht="22" x14ac:dyDescent="0.3">
       <c r="D147" s="46"/>
       <c r="E147" s="46"/>
       <c r="F147" s="46"/>
@@ -13912,7 +15330,7 @@
       <c r="N147" s="69"/>
       <c r="O147" s="69"/>
     </row>
-    <row r="148" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:21" ht="22" x14ac:dyDescent="0.3">
       <c r="D148" s="46"/>
       <c r="E148" s="46"/>
       <c r="F148" s="46"/>
@@ -13924,7 +15342,7 @@
       <c r="L148" s="46"/>
       <c r="M148" s="46"/>
     </row>
-    <row r="150" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:21" ht="22" x14ac:dyDescent="0.3">
       <c r="D150" s="46">
         <v>4</v>
       </c>
@@ -13957,7 +15375,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="151" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:21" ht="22" x14ac:dyDescent="0.3">
       <c r="D151" s="46">
         <v>4</v>
       </c>
@@ -13998,33 +15416,85 @@
       <c r="P151" s="95">
         <v>2344317</v>
       </c>
-    </row>
-    <row r="152" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="N152" s="73"/>
-      <c r="O152" s="69"/>
-    </row>
-    <row r="153" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="S151">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="T151">
+        <f>S152-S151</f>
+        <v>2.6000000000000051E-3</v>
+      </c>
+      <c r="U151">
+        <f>T151/S151</f>
+        <v>4.0061633281972341E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="4:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="D152" s="46">
+        <v>4</v>
+      </c>
+      <c r="E152" s="71">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="F152" s="46">
+        <v>3.04E-2</v>
+      </c>
+      <c r="G152" s="71">
+        <f>(2*E152*F152)/(E152+F152)</f>
+        <v>4.1920326864147088E-2</v>
+      </c>
+      <c r="H152" s="46">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="I152" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J152" s="46">
+        <v>55</v>
+      </c>
+      <c r="K152" s="46">
+        <v>20</v>
+      </c>
+      <c r="L152" s="46">
+        <v>970</v>
+      </c>
+      <c r="M152" s="46">
+        <v>1000</v>
+      </c>
+      <c r="N152" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O152" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P152" s="95">
+        <v>2502638</v>
+      </c>
+      <c r="S152">
+        <v>6.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="4:21" ht="22" x14ac:dyDescent="0.3">
       <c r="D153" s="46">
         <v>4</v>
       </c>
       <c r="E153" s="71">
-        <v>6.7100000000000007E-2</v>
+        <v>6.7299999999999999E-2</v>
       </c>
       <c r="F153" s="46">
         <v>3.0300000000000001E-2</v>
       </c>
       <c r="G153" s="71">
         <f>(2*E153*F153)/(E153+F153)</f>
-        <v>4.1748049281314169E-2</v>
+        <v>4.1786680327868857E-2</v>
       </c>
       <c r="H153" s="46">
-        <v>5.5100000000000003E-2</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="I153" s="68">
         <v>1E-4</v>
       </c>
       <c r="J153" s="46">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K153" s="46">
         <v>20</v>
@@ -14036,177 +15506,316 @@
         <v>1000</v>
       </c>
       <c r="N153" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O153" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P153" s="95">
+        <v>2660978</v>
+      </c>
+    </row>
+    <row r="154" spans="4:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="D154" s="46">
+        <v>4</v>
+      </c>
+      <c r="E154" s="71">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="F154" s="46">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="G154" s="71">
+        <f>(2*E154*F154)/(E154+F154)</f>
+        <v>4.1729785056294787E-2</v>
+      </c>
+      <c r="H154" s="46">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="I154" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J154" s="46">
+        <v>65</v>
+      </c>
+      <c r="K154" s="46">
+        <v>22</v>
+      </c>
+      <c r="L154" s="46">
+        <v>770</v>
+      </c>
+      <c r="M154" s="46">
+        <v>1000</v>
+      </c>
+      <c r="N154" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O154" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P154" s="95">
+        <v>2895352</v>
+      </c>
+      <c r="S154">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="T154">
+        <f>S155-S154</f>
+        <v>2.3000000000000034E-3</v>
+      </c>
+      <c r="U154">
+        <f>T154/S154</f>
+        <v>4.3396226415094406E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="4:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="N155" s="73"/>
+      <c r="O155" s="69"/>
+      <c r="S155">
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="4:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="D156" s="46">
+        <v>4</v>
+      </c>
+      <c r="E156" s="71">
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="F156" s="46">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="G156" s="71">
+        <f>(2*E156*F156)/(E156+F156)</f>
+        <v>4.1748049281314169E-2</v>
+      </c>
+      <c r="H156" s="46">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="I156" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J156" s="46">
+        <v>50</v>
+      </c>
+      <c r="K156" s="46">
+        <v>20</v>
+      </c>
+      <c r="L156" s="46">
+        <v>970</v>
+      </c>
+      <c r="M156" s="46">
+        <v>1000</v>
+      </c>
+      <c r="N156" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="O153" s="69" t="s">
+      <c r="O156" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="P153" s="95">
+      <c r="P156" s="95">
         <v>2674042</v>
       </c>
     </row>
-    <row r="154" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E154" s="85"/>
-      <c r="O154" s="46"/>
-    </row>
-    <row r="157" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="D157" s="69">
-        <v>3</v>
-      </c>
-      <c r="E157" s="46">
-        <v>6.4699999999999994E-2</v>
+    <row r="157" spans="4:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="D157" s="46">
+        <v>4</v>
+      </c>
+      <c r="E157" s="71">
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="F157" s="46">
-        <v>2.92E-2</v>
-      </c>
-      <c r="G157" s="14">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="G157" s="71">
         <f>(2*E157*F157)/(E157+F157)</f>
-        <v>4.0239403620873269E-2</v>
+        <v>4.1672279260780286E-2</v>
       </c>
       <c r="H157" s="46">
-        <v>5.3600000000000002E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="I157" s="68">
         <v>1E-4</v>
       </c>
       <c r="J157" s="46">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K157" s="46">
         <v>20</v>
       </c>
       <c r="L157" s="46">
-        <v>350</v>
+        <v>970</v>
       </c>
       <c r="M157" s="46">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="158" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="D158" s="69">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="N157" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O157" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P157" s="95">
+        <v>2977658</v>
+      </c>
+    </row>
+    <row r="158" spans="4:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="D158" s="46">
+        <v>4</v>
       </c>
       <c r="E158" s="71">
-        <v>6.5799999999999997E-2</v>
+        <v>6.7100000000000007E-2</v>
       </c>
       <c r="F158" s="46">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="G158" s="14">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="G158" s="71">
         <f>(2*E158*F158)/(E158+F158)</f>
-        <v>4.0926910994764393E-2</v>
+        <v>4.1653031860226106E-2</v>
       </c>
       <c r="H158" s="46">
-        <v>5.3900000000000003E-2</v>
+        <v>5.5100000000000003E-2</v>
       </c>
       <c r="I158" s="68">
         <v>1E-4</v>
       </c>
       <c r="J158" s="46">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K158" s="46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L158" s="46">
-        <v>350</v>
+        <v>920</v>
       </c>
       <c r="M158" s="46">
         <v>1000</v>
       </c>
-    </row>
-    <row r="159" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="D159" s="69">
+      <c r="N158" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O158" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P158" s="95">
+        <v>2147929</v>
+      </c>
+    </row>
+    <row r="159" spans="4:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="D159" s="46"/>
+      <c r="E159" s="71"/>
+      <c r="F159" s="46"/>
+      <c r="G159" s="71"/>
+      <c r="H159" s="46"/>
+      <c r="I159" s="68"/>
+      <c r="J159" s="46"/>
+      <c r="K159" s="46"/>
+      <c r="L159" s="46"/>
+      <c r="M159" s="46"/>
+      <c r="N159" s="69"/>
+      <c r="O159" s="69"/>
+      <c r="P159" s="95"/>
+    </row>
+    <row r="160" spans="4:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="D160" s="46"/>
+      <c r="E160" s="71"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="71"/>
+      <c r="H160" s="46"/>
+      <c r="I160" s="68"/>
+      <c r="J160" s="46"/>
+      <c r="K160" s="46"/>
+      <c r="L160" s="46"/>
+      <c r="M160" s="46"/>
+      <c r="N160" s="69"/>
+      <c r="O160" s="69"/>
+      <c r="P160" s="95"/>
+    </row>
+    <row r="162" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D162" s="69">
         <v>3</v>
       </c>
-      <c r="E159" s="46">
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="F159" s="46">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="G159" s="71">
-        <f t="shared" ref="G159" si="2">(2*E159*F159)/(E159+F159)</f>
-        <v>4.1252074688796686E-2</v>
-      </c>
-      <c r="H159" s="46">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="I159" s="68">
+      <c r="E162" s="46">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="F162" s="46">
+        <v>2.92E-2</v>
+      </c>
+      <c r="G162" s="14">
+        <f>(2*E162*F162)/(E162+F162)</f>
+        <v>4.0239403620873269E-2</v>
+      </c>
+      <c r="H162" s="46">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="I162" s="68">
         <v>1E-4</v>
       </c>
-      <c r="J159" s="46">
-        <v>50</v>
-      </c>
-      <c r="K159" s="46">
+      <c r="J162" s="46">
         <v>20</v>
       </c>
-      <c r="L159" s="46">
+      <c r="K162" s="46">
+        <v>20</v>
+      </c>
+      <c r="L162" s="46">
         <v>350</v>
       </c>
-      <c r="M159" s="46">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="160" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="D160" s="73"/>
-      <c r="J160" s="46">
-        <v>60</v>
-      </c>
-      <c r="K160" s="46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="K162" s="28"/>
-      <c r="L162" s="28"/>
+      <c r="M162" s="46">
+        <v>640</v>
+      </c>
     </row>
     <row r="163" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="D163" s="46">
-        <v>2</v>
+      <c r="D163" s="69">
+        <v>3</v>
       </c>
       <c r="E163" s="71">
-        <v>4.1000000000000002E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="F163" s="46">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="G163" s="71">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="G163" s="14">
         <f>(2*E163*F163)/(E163+F163)</f>
-        <v>2.6152823920265779E-2</v>
+        <v>4.0926910994764393E-2</v>
       </c>
       <c r="H163" s="46">
-        <v>3.3500000000000002E-2</v>
+        <v>5.3900000000000003E-2</v>
       </c>
       <c r="I163" s="68">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="J163" s="46">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K163" s="46">
         <v>20</v>
       </c>
+      <c r="L163" s="46">
+        <v>350</v>
+      </c>
+      <c r="M163" s="46">
+        <v>1000</v>
+      </c>
     </row>
     <row r="164" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="D164" s="46">
-        <v>2</v>
+      <c r="D164" s="69">
+        <v>3</v>
       </c>
       <c r="E164" s="46">
-        <v>6.2799999999999995E-2</v>
+        <v>6.6500000000000004E-2</v>
       </c>
       <c r="F164" s="46">
-        <v>2.8299999999999999E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="G164" s="71">
-        <f>(2*E164*F164)/(E164+F164)</f>
-        <v>3.9017343578485179E-2</v>
+        <f t="shared" ref="G164" si="2">(2*E164*F164)/(E164+F164)</f>
+        <v>4.1252074688796686E-2</v>
       </c>
       <c r="H164" s="46">
-        <v>5.1299999999999998E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="I164" s="68">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="J164" s="46">
         <v>50</v>
@@ -14215,130 +15824,44 @@
         <v>20</v>
       </c>
       <c r="L164" s="46">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="M164" s="46">
-        <v>680</v>
-      </c>
-      <c r="N164" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="O164" s="69" t="s">
-        <v>82</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="D165" s="46">
-        <v>2</v>
-      </c>
-      <c r="E165" s="46">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="F165" s="46">
-        <v>2.87E-2</v>
-      </c>
-      <c r="G165" s="71">
-        <f>(2*E165*F165)/(E165+F165)</f>
-        <v>3.9571212121212118E-2</v>
-      </c>
-      <c r="H165" s="46">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="I165" s="68">
-        <v>1E-4</v>
-      </c>
+      <c r="D165" s="73"/>
       <c r="J165" s="46">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K165" s="46">
         <v>20</v>
       </c>
-      <c r="L165" s="46">
-        <v>240</v>
-      </c>
-      <c r="M165" s="46">
-        <v>300</v>
-      </c>
-      <c r="N165" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="O165" s="69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="166" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="D166" s="46">
-        <v>2</v>
-      </c>
-      <c r="E166" s="46">
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="F166" s="46">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="G166" s="71">
-        <f>(2*E166*F166)/(E166+F166)</f>
-        <v>3.8349107142857143E-2</v>
-      </c>
-      <c r="H166" s="46">
-        <v>5.0900000000000001E-2</v>
-      </c>
-      <c r="I166" s="68">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="J166" s="46">
-        <v>50</v>
-      </c>
-      <c r="K166" s="46">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="D167" s="46">
-        <v>2</v>
-      </c>
-      <c r="E167" s="46">
-        <v>6.1699999999999998E-2</v>
-      </c>
-      <c r="F167" s="46">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="G167" s="71">
-        <f>(2*E167*F167)/(E167+F167)</f>
-        <v>3.8329832402234636E-2</v>
-      </c>
-      <c r="H167" s="46">
-        <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="I167" s="68">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="J167" s="46">
-        <v>50</v>
-      </c>
-      <c r="K167" s="46">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="167" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="K167" s="28"/>
+      <c r="L167" s="28"/>
     </row>
     <row r="168" spans="4:16" ht="22" x14ac:dyDescent="0.3">
       <c r="D168" s="46">
         <v>2</v>
       </c>
-      <c r="E168" s="46">
-        <v>6.1600000000000002E-2</v>
+      <c r="E168" s="71">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="F168" s="46">
-        <v>2.7699999999999999E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="G168" s="71">
-        <f>(2*E168*F168)/(E168+F168)</f>
-        <v>3.8215453527435606E-2</v>
+        <f t="shared" ref="G168:G173" si="3">(2*E168*F168)/(E168+F168)</f>
+        <v>2.6152823920265779E-2</v>
       </c>
       <c r="H168" s="46">
-        <v>5.0799999999999998E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="I168" s="68">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J168" s="46">
         <v>50</v>
@@ -14346,16 +15869,82 @@
       <c r="K168" s="46">
         <v>20</v>
       </c>
-      <c r="L168">
-        <v>130</v>
-      </c>
-      <c r="M168">
-        <v>230</v>
-      </c>
-      <c r="N168" t="s">
+    </row>
+    <row r="169" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D169" s="46">
+        <v>2</v>
+      </c>
+      <c r="E169" s="46">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="F169" s="46">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="G169" s="71">
+        <f t="shared" si="3"/>
+        <v>3.9017343578485179E-2</v>
+      </c>
+      <c r="H169" s="46">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="I169" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="J169" s="46">
+        <v>50</v>
+      </c>
+      <c r="K169" s="46">
+        <v>20</v>
+      </c>
+      <c r="L169" s="46">
+        <v>450</v>
+      </c>
+      <c r="M169" s="46">
+        <v>680</v>
+      </c>
+      <c r="N169" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="O168" t="s">
+      <c r="O169" s="69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="170" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D170" s="46">
+        <v>2</v>
+      </c>
+      <c r="E170" s="46">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F170" s="46">
+        <v>2.87E-2</v>
+      </c>
+      <c r="G170" s="71">
+        <f t="shared" si="3"/>
+        <v>3.9571212121212118E-2</v>
+      </c>
+      <c r="H170" s="46">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="I170" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J170" s="46">
+        <v>50</v>
+      </c>
+      <c r="K170" s="46">
+        <v>20</v>
+      </c>
+      <c r="L170" s="46">
+        <v>240</v>
+      </c>
+      <c r="M170" s="46">
+        <v>300</v>
+      </c>
+      <c r="N170" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O170" s="69" t="s">
         <v>82</v>
       </c>
     </row>
@@ -14363,38 +15952,27 @@
       <c r="D171" s="46">
         <v>2</v>
       </c>
-      <c r="E171" s="71">
-        <v>6.3E-2</v>
+      <c r="E171" s="46">
+        <v>6.1800000000000001E-2</v>
       </c>
       <c r="F171" s="46">
-        <v>2.8299999999999999E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="G171" s="71">
-        <f>(2*E171*F171)/(E171+F171)</f>
-        <v>3.9055859802847759E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.8349107142857143E-2</v>
       </c>
       <c r="H171" s="46">
-        <v>5.1900000000000002E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
       <c r="I171" s="68">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="J171" s="46">
         <v>50</v>
       </c>
       <c r="K171" s="46">
-        <v>10</v>
-      </c>
-      <c r="L171" s="46">
-        <v>190</v>
-      </c>
-      <c r="M171" s="46">
-        <v>320</v>
-      </c>
-      <c r="N171" s="46"/>
-      <c r="O171" s="46"/>
-      <c r="P171" s="95">
-        <v>1963880</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="4:16" ht="22" x14ac:dyDescent="0.3">
@@ -14402,37 +15980,26 @@
         <v>2</v>
       </c>
       <c r="E172" s="46">
-        <v>6.3500000000000001E-2</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="F172" s="46">
-        <v>2.86E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="G172" s="71">
-        <f>(2*E172*F172)/(E172+F172)</f>
-        <v>3.943756786102063E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.8329832402234636E-2</v>
       </c>
       <c r="H172" s="46">
-        <v>5.2299999999999999E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="I172" s="68">
-        <v>1E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="J172" s="46">
         <v>50</v>
       </c>
       <c r="K172" s="46">
-        <v>15</v>
-      </c>
-      <c r="L172" s="46">
-        <v>190</v>
-      </c>
-      <c r="M172" s="46">
-        <v>300</v>
-      </c>
-      <c r="N172" s="46"/>
-      <c r="O172" s="46"/>
-      <c r="P172" s="95">
-        <v>2154120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="4:16" ht="22" x14ac:dyDescent="0.3">
@@ -14440,20 +16007,20 @@
         <v>2</v>
       </c>
       <c r="E173" s="46">
-        <v>6.3700000000000007E-2</v>
+        <v>6.1600000000000002E-2</v>
       </c>
       <c r="F173" s="46">
-        <v>2.87E-2</v>
+        <v>2.7699999999999999E-2</v>
       </c>
       <c r="G173" s="71">
-        <f>(2*E173*F173)/(E173+F173)</f>
-        <v>3.9571212121212118E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.8215453527435606E-2</v>
       </c>
       <c r="H173" s="46">
-        <v>5.2600000000000001E-2</v>
+        <v>5.0799999999999998E-2</v>
       </c>
       <c r="I173" s="68">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="J173" s="46">
         <v>50</v>
@@ -14461,176 +16028,150 @@
       <c r="K173" s="46">
         <v>20</v>
       </c>
-      <c r="L173" s="46">
-        <v>240</v>
-      </c>
-      <c r="M173" s="46">
-        <v>300</v>
-      </c>
-      <c r="N173" s="69" t="s">
+      <c r="L173">
+        <v>130</v>
+      </c>
+      <c r="M173">
+        <v>230</v>
+      </c>
+      <c r="N173" t="s">
         <v>82</v>
       </c>
-      <c r="O173" s="69" t="s">
+      <c r="O173" t="s">
         <v>82</v>
       </c>
-      <c r="P173" s="95">
-        <v>2344298</v>
-      </c>
-    </row>
-    <row r="174" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="D174" s="46">
+    </row>
+    <row r="176" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D176" s="46">
         <v>2</v>
       </c>
-      <c r="E174" s="46">
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="F174" s="46">
-        <v>2.87E-2</v>
-      </c>
-      <c r="G174" s="71">
-        <f>(2*E174*F174)/(E174+F174)</f>
-        <v>3.9590486486486484E-2</v>
-      </c>
-      <c r="H174" s="46">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="I174" s="68">
+      <c r="E176" s="71">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F176" s="46">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="G176" s="71">
+        <f>(2*E176*F176)/(E176+F176)</f>
+        <v>3.9055859802847759E-2</v>
+      </c>
+      <c r="H176" s="46">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="I176" s="68">
         <v>1E-4</v>
       </c>
-      <c r="J174" s="46">
+      <c r="J176" s="46">
         <v>50</v>
       </c>
-      <c r="K174" s="46">
-        <v>25</v>
-      </c>
-      <c r="L174" s="46">
-        <v>240</v>
-      </c>
-      <c r="M174" s="46">
-        <v>410</v>
-      </c>
-      <c r="N174" s="46"/>
-      <c r="O174" s="46"/>
-      <c r="P174" s="95">
-        <v>2534366</v>
-      </c>
-    </row>
-    <row r="175" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="D175" s="46">
-        <v>2</v>
-      </c>
-      <c r="E175" s="46">
-        <v>6.3399999999999998E-2</v>
-      </c>
-      <c r="F175" s="46">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="G175" s="71">
-        <f>(2*E175*F175)/(E175+F175)</f>
-        <v>3.932317736670294E-2</v>
-      </c>
-      <c r="H175" s="46">
-        <v>5.2200000000000003E-2</v>
-      </c>
-      <c r="I175" s="68">
-        <v>1E-4</v>
-      </c>
-      <c r="J175" s="46">
-        <v>50</v>
-      </c>
-      <c r="K175" s="46">
-        <v>30</v>
-      </c>
-      <c r="L175" s="46">
+      <c r="K176" s="46">
+        <v>10</v>
+      </c>
+      <c r="L176" s="46">
         <v>190</v>
       </c>
-      <c r="M175" s="46">
-        <v>1000</v>
-      </c>
-      <c r="N175" s="46"/>
-      <c r="O175" s="46"/>
-      <c r="P175" s="95">
-        <v>2724397</v>
-      </c>
-    </row>
-    <row r="177" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="M176" s="46">
+        <v>320</v>
+      </c>
+      <c r="N176" s="46"/>
+      <c r="O176" s="46"/>
+      <c r="P176" s="95">
+        <v>1963880</v>
+      </c>
+    </row>
+    <row r="177" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D177" s="46">
         <v>2</v>
       </c>
       <c r="E177" s="46">
-        <v>6.2799999999999995E-2</v>
+        <v>6.3500000000000001E-2</v>
       </c>
       <c r="F177" s="46">
-        <v>2.8400000000000002E-2</v>
+        <v>2.86E-2</v>
       </c>
       <c r="G177" s="71">
         <f>(2*E177*F177)/(E177+F177)</f>
-        <v>3.9112280701754383E-2</v>
-      </c>
-      <c r="H177" s="71">
-        <v>5.1999999999999998E-2</v>
+        <v>3.943756786102063E-2</v>
+      </c>
+      <c r="H177" s="46">
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="I177" s="68">
         <v>1E-4</v>
       </c>
       <c r="J177" s="46">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K177" s="46">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="L177" s="46">
+        <v>190</v>
+      </c>
+      <c r="M177" s="46">
+        <v>300</v>
+      </c>
+      <c r="N177" s="46"/>
+      <c r="O177" s="46"/>
       <c r="P177" s="95">
-        <v>1710938</v>
-      </c>
-    </row>
-    <row r="178" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+        <v>2154120</v>
+      </c>
+    </row>
+    <row r="178" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D178" s="46">
         <v>2</v>
       </c>
       <c r="E178" s="46">
-        <v>6.3299999999999995E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="F178" s="46">
-        <v>2.86E-2</v>
+        <v>2.87E-2</v>
       </c>
       <c r="G178" s="71">
         <f>(2*E178*F178)/(E178+F178)</f>
-        <v>3.9398911860718172E-2</v>
+        <v>3.9571212121212118E-2</v>
       </c>
       <c r="H178" s="46">
-        <v>5.2400000000000002E-2</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="I178" s="68">
         <v>1E-4</v>
       </c>
       <c r="J178" s="46">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K178" s="46">
         <v>20</v>
       </c>
       <c r="L178" s="46">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="M178" s="46">
-        <v>320</v>
-      </c>
-      <c r="N178" s="46"/>
-      <c r="O178" s="46"/>
-    </row>
-    <row r="179" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+      <c r="N178" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O178" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P178" s="95">
+        <v>2344298</v>
+      </c>
+    </row>
+    <row r="179" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D179" s="46">
         <v>2</v>
       </c>
       <c r="E179" s="46">
-        <v>6.3700000000000007E-2</v>
+        <v>6.3799999999999996E-2</v>
       </c>
       <c r="F179" s="46">
         <v>2.87E-2</v>
       </c>
       <c r="G179" s="71">
         <f>(2*E179*F179)/(E179+F179)</f>
-        <v>3.9571212121212118E-2</v>
+        <v>3.9590486486486484E-2</v>
       </c>
       <c r="H179" s="46">
         <v>5.2600000000000001E-2</v>
@@ -14642,121 +16183,442 @@
         <v>50</v>
       </c>
       <c r="K179" s="46">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L179" s="46">
         <v>240</v>
       </c>
       <c r="M179" s="46">
-        <v>300</v>
-      </c>
-      <c r="N179" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="O179" s="69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="180" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="N179" s="46"/>
+      <c r="O179" s="46"/>
+      <c r="P179" s="95">
+        <v>2534366</v>
+      </c>
+    </row>
+    <row r="180" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D180" s="46">
         <v>2</v>
       </c>
       <c r="E180" s="46">
-        <v>6.3700000000000007E-2</v>
+        <v>6.3399999999999998E-2</v>
       </c>
       <c r="F180" s="46">
-        <v>2.87E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="G180" s="71">
         <f>(2*E180*F180)/(E180+F180)</f>
-        <v>3.9571212121212118E-2</v>
+        <v>3.932317736670294E-2</v>
       </c>
       <c r="H180" s="46">
-        <v>0.52600000000000002</v>
+        <v>5.2200000000000003E-2</v>
       </c>
       <c r="I180" s="68">
         <v>1E-4</v>
       </c>
       <c r="J180" s="46">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K180" s="46">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L180" s="46">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="M180" s="46">
-        <v>520</v>
+        <v>1000</v>
       </c>
       <c r="N180" s="46"/>
       <c r="O180" s="46"/>
-    </row>
-    <row r="181" spans="4:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="D181" s="46">
-        <v>2</v>
-      </c>
-      <c r="E181" s="46">
-        <v>6.4100000000000004E-2</v>
-      </c>
-      <c r="F181" s="46">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="G181" s="71">
-        <f>(2*E181*F181)/(E181+F181)</f>
-        <v>3.9838494623655914E-2</v>
-      </c>
-      <c r="H181" s="46">
-        <v>5.28E-2</v>
-      </c>
-      <c r="I181" s="68">
-        <v>1E-4</v>
-      </c>
-      <c r="J181" s="46">
-        <v>70</v>
-      </c>
-      <c r="K181" s="46">
-        <v>20</v>
-      </c>
-      <c r="L181" s="46">
-        <v>240</v>
-      </c>
-      <c r="M181" s="46">
-        <v>300</v>
-      </c>
-      <c r="P181" s="95">
-        <v>2977658</v>
-      </c>
-    </row>
-    <row r="182" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="P180" s="95">
+        <v>2724397</v>
+      </c>
+    </row>
+    <row r="182" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D182" s="46">
         <v>2</v>
       </c>
       <c r="E182" s="46">
-        <v>6.4100000000000004E-2</v>
+        <v>6.2799999999999995E-2</v>
       </c>
       <c r="F182" s="46">
-        <v>2.8799999999999999E-2</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="G182" s="71">
-        <f>(2*E182*F182)/(E182+F182)</f>
-        <v>3.9743379978471473E-2</v>
-      </c>
-      <c r="H182" s="46">
-        <v>5.2699999999999997E-2</v>
+        <f t="shared" ref="G182:G187" si="4">(2*E182*F182)/(E182+F182)</f>
+        <v>3.9112280701754383E-2</v>
+      </c>
+      <c r="H182" s="71">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="I182" s="68">
         <v>1E-4</v>
       </c>
       <c r="J182" s="46">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K182" s="46">
         <v>20</v>
       </c>
+      <c r="P182" s="95">
+        <v>1710938</v>
+      </c>
+    </row>
+    <row r="183" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D183" s="46">
+        <v>2</v>
+      </c>
+      <c r="E183" s="46">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="F183" s="46">
+        <v>2.86E-2</v>
+      </c>
+      <c r="G183" s="71">
+        <f t="shared" si="4"/>
+        <v>3.9398911860718172E-2</v>
+      </c>
+      <c r="H183" s="46">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="I183" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J183" s="46">
+        <v>40</v>
+      </c>
+      <c r="K183" s="46">
+        <v>20</v>
+      </c>
+      <c r="L183" s="46">
+        <v>190</v>
+      </c>
+      <c r="M183" s="46">
+        <v>320</v>
+      </c>
+      <c r="N183" s="46"/>
+      <c r="O183" s="46"/>
+    </row>
+    <row r="184" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D184" s="46">
+        <v>2</v>
+      </c>
+      <c r="E184" s="46">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F184" s="46">
+        <v>2.87E-2</v>
+      </c>
+      <c r="G184" s="71">
+        <f t="shared" si="4"/>
+        <v>3.9571212121212118E-2</v>
+      </c>
+      <c r="H184" s="46">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="I184" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J184" s="46">
+        <v>50</v>
+      </c>
+      <c r="K184" s="46">
+        <v>20</v>
+      </c>
+      <c r="L184" s="46">
+        <v>240</v>
+      </c>
+      <c r="M184" s="46">
+        <v>300</v>
+      </c>
+      <c r="N184" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O184" s="69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="185" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D185" s="46">
+        <v>2</v>
+      </c>
+      <c r="E185" s="46">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F185" s="46">
+        <v>2.87E-2</v>
+      </c>
+      <c r="G185" s="71">
+        <f t="shared" si="4"/>
+        <v>3.9571212121212118E-2</v>
+      </c>
+      <c r="H185" s="46">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="I185" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J185" s="46">
+        <v>60</v>
+      </c>
+      <c r="K185" s="46">
+        <v>20</v>
+      </c>
+      <c r="L185" s="46">
+        <v>240</v>
+      </c>
+      <c r="M185" s="46">
+        <v>520</v>
+      </c>
+      <c r="N185" s="46"/>
+      <c r="O185" s="46"/>
+    </row>
+    <row r="186" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D186" s="46">
+        <v>2</v>
+      </c>
+      <c r="E186" s="46">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="F186" s="46">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="G186" s="71">
+        <f t="shared" si="4"/>
+        <v>3.9838494623655914E-2</v>
+      </c>
+      <c r="H186" s="46">
+        <v>5.28E-2</v>
+      </c>
+      <c r="I186" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J186" s="46">
+        <v>70</v>
+      </c>
+      <c r="K186" s="46">
+        <v>20</v>
+      </c>
+      <c r="L186" s="46">
+        <v>240</v>
+      </c>
+      <c r="M186" s="46">
+        <v>300</v>
+      </c>
+      <c r="P186" s="95">
+        <v>2977658</v>
+      </c>
+    </row>
+    <row r="187" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D187" s="46">
+        <v>2</v>
+      </c>
+      <c r="E187" s="46">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="F187" s="46">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="G187" s="71">
+        <f t="shared" si="4"/>
+        <v>3.9743379978471473E-2</v>
+      </c>
+      <c r="H187" s="46">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="I187" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J187" s="46">
+        <v>80</v>
+      </c>
+      <c r="K187" s="46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D189" s="111" t="s">
+        <v>112</v>
+      </c>
+      <c r="E189" s="111"/>
+      <c r="F189" s="111"/>
+      <c r="G189" s="111"/>
+      <c r="H189" s="111"/>
+      <c r="I189" s="111"/>
+      <c r="J189" s="111"/>
+      <c r="K189" s="111"/>
+      <c r="L189" s="111"/>
+      <c r="M189" s="111"/>
+      <c r="N189" s="111"/>
+      <c r="O189" s="111"/>
+      <c r="P189" s="111"/>
+    </row>
+    <row r="190" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D190" s="46">
+        <v>2</v>
+      </c>
+      <c r="E190" s="46">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="F190" s="46">
+        <v>2.81E-2</v>
+      </c>
+      <c r="G190" s="71">
+        <f t="shared" ref="G190:G191" si="5">(2*E190*F190)/(E190+F190)</f>
+        <v>3.8807709251101323E-2</v>
+      </c>
+      <c r="H190" s="46">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="I190" s="49">
+        <v>1E-4</v>
+      </c>
+      <c r="J190" s="46">
+        <v>50</v>
+      </c>
+      <c r="K190" s="46">
+        <v>20</v>
+      </c>
+      <c r="L190" s="46">
+        <v>240</v>
+      </c>
+      <c r="M190" s="46">
+        <v>300</v>
+      </c>
+      <c r="P190" s="46">
+        <v>-1</v>
+      </c>
+      <c r="Q190" s="46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="191" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D191" s="46">
+        <v>2</v>
+      </c>
+      <c r="E191" s="71">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F191" s="46">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="G191" s="71">
+        <f t="shared" si="5"/>
+        <v>3.8482758620689651E-2</v>
+      </c>
+      <c r="H191" s="46">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="I191" s="49">
+        <v>1E-4</v>
+      </c>
+      <c r="J191" s="46">
+        <v>50</v>
+      </c>
+      <c r="K191" s="46">
+        <v>20</v>
+      </c>
+      <c r="L191" s="46">
+        <v>110</v>
+      </c>
+      <c r="M191" s="46">
+        <v>350</v>
+      </c>
+      <c r="P191" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q191" s="46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="196" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D196" s="46">
+        <v>5</v>
+      </c>
+      <c r="E196" s="71">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="F196" s="46">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="G196" s="71">
+        <f>(2*E196*F196)/(E196+F196)</f>
+        <v>4.1672279260780286E-2</v>
+      </c>
+      <c r="H196" s="46">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="I196" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J196" s="46">
+        <v>50</v>
+      </c>
+      <c r="K196" s="46">
+        <v>20</v>
+      </c>
+      <c r="L196" s="46">
+        <v>970</v>
+      </c>
+      <c r="M196" s="46">
+        <v>1000</v>
+      </c>
+      <c r="N196" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O196" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P196" s="95">
+        <v>2344298</v>
+      </c>
+    </row>
+    <row r="197" spans="4:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="D197" s="46">
+        <v>5</v>
+      </c>
+      <c r="E197" s="71">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="F197" s="46">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="G197" s="71">
+        <f>(2*E197*F197)/(E197+F197)</f>
+        <v>4.0067023554603856E-2</v>
+      </c>
+      <c r="H197" s="46">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="I197" s="68">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="J197" s="46">
+        <v>50</v>
+      </c>
+      <c r="K197" s="46">
+        <v>20</v>
+      </c>
+      <c r="L197" s="46">
+        <v>350</v>
+      </c>
+      <c r="M197" s="46">
+        <v>700</v>
+      </c>
+      <c r="N197" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O197" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="P197" s="95">
+        <v>2344298</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="D189:P189"/>
     <mergeCell ref="D120:M120"/>
     <mergeCell ref="D110:K110"/>
     <mergeCell ref="D91:M91"/>
@@ -14770,7 +16632,7 @@
     <mergeCell ref="D9:H9"/>
   </mergeCells>
   <conditionalFormatting sqref="G122:G131">
-    <cfRule type="colorScale" priority="94">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14781,8 +16643,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G153">
-    <cfRule type="colorScale" priority="78">
+  <conditionalFormatting sqref="G122:G160">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14793,8 +16655,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G159">
-    <cfRule type="colorScale" priority="63">
+  <conditionalFormatting sqref="G122:G164">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14805,7 +16667,135 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G127:G151">
+  <conditionalFormatting sqref="G122:G173">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G127:G154">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G139:G141 G144:G148">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G143">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G150:G154">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G150:G173">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G156">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G157:G160">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G162:G163">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G164">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -14817,8 +16807,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G139:G141 G144:G148">
-    <cfRule type="colorScale" priority="93">
+  <conditionalFormatting sqref="G168:G171">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14829,8 +16849,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G143">
-    <cfRule type="colorScale" priority="88">
+  <conditionalFormatting sqref="G173">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14841,7 +16891,439 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G150:G151">
+  <conditionalFormatting sqref="G176:G180">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G182:G183">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G184">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G185:G187">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G190:G191">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G196:G197">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H125 H127:H131">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H141">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H148 J141:K141 J143:K148 J150:K150 J151:J154">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H154">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H160">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H122:H164">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -14853,8 +17335,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G153">
-    <cfRule type="colorScale" priority="108">
+  <conditionalFormatting sqref="H122:H173">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14865,8 +17347,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G157:G158">
-    <cfRule type="colorScale" priority="76">
+  <conditionalFormatting sqref="H156">
+    <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14877,18 +17359,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G159">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="68">
+  <conditionalFormatting sqref="H157:H160">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14899,8 +17371,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H125 H127:H131">
-    <cfRule type="colorScale" priority="95">
+  <conditionalFormatting sqref="H162:H163">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14911,7 +17383,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H141">
+  <conditionalFormatting sqref="H164">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -14922,9 +17404,17 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H148 J141:K141 J143:K148 J150:K150 J151">
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14935,8 +17425,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H151">
-    <cfRule type="colorScale" priority="85">
+  <conditionalFormatting sqref="H170">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14947,8 +17457,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H153">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="H178">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14959,8 +17509,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H159">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="H184">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14971,8 +17561,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H153">
-    <cfRule type="colorScale" priority="111">
+  <conditionalFormatting sqref="H196:H197">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14983,8 +17613,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H157:H158">
-    <cfRule type="colorScale" priority="77">
+  <conditionalFormatting sqref="J156">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14995,8 +17625,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H159">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="J157:J160">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15006,7 +17636,77 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="67">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J196:J197">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J168:K168">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J170:K170 H170">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J171:K171">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J172:K172">
+    <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15026,7 +17726,19 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="70">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J173:K173">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15037,151 +17749,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J153">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J179:K179 J150:K150 H1:H132 H136:H141 P142:P143 P133:P135 J141:K141 J143:K148 J151 J153 H144:H158 J164:K165 L164:M164 J173:K173 H161:H1048576">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G163:G166">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G163:G166">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G163:G166">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G163:G166">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J165:K165 H165">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H165">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H165">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H165">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G168">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G168">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G168">
+  <conditionalFormatting sqref="J178:K178 H178">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -15193,8 +17761,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G168">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="J184:K184 H184">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15205,8 +17773,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J166:K166">
-    <cfRule type="colorScale" priority="50">
+  <conditionalFormatting sqref="J184:K184 J150:K150 H1:H132 H136:H141 P142:P143 P133:P135 J141:K141 J143:K148 J169:K170 L169:M169 J178:K178 H166:H188 J156:J160 J196:J197 H190:H1048576 J151:J154 H144:H163">
+    <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15217,560 +17785,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J166:K166">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J167:K167">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J167:K167">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J168:K168">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J168:K168">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J163:K163">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J163:K163">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H150:H168 J164:M164">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G150:G168">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H122:H168">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G122:G168">
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G171:G175">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G171:G175">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G171:G175">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G171:G175">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J173:K173 H173">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H173">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H173">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H173">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H173">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G171:G175">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H173">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G171:G175">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G179">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G179">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G179">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G179">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J179:K179 H179">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H179">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H179">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H179">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H179">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G179">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H179">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G179">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G180:G182">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G180:G182">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G180:G182">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G180:G182">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G180:G182">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G180:G182">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G177:G178">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G177:G178">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G177:G178">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G177:G178">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G177:G178">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G177:G178">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="J169:M169 H150:H173">
+    <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15787,6 +17803,57 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FD399B-FCE0-C246-9F71-C2F9EE25BF3A}">
+  <dimension ref="K18:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="L18">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="L19">
+        <v>3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="44">
+        <f>K19-K18</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="L20">
+        <f>L19-L18</f>
+        <v>8.000000000000021E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K21" s="20">
+        <f>K20/K18</f>
+        <v>2.1881838074398269E-2</v>
+      </c>
+      <c r="L21" s="20">
+        <f>L20/L18</f>
+        <v>2.2346368715083859E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFB7047-4B16-A040-8959-C3B43A4F25A8}">
   <dimension ref="P14:P16"/>
   <sheetViews>
@@ -15818,12 +17885,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40676F58-3295-4B44-9129-9CAFD6F49D33}">
   <dimension ref="C6:T71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15857,16 +17924,16 @@
       </c>
     </row>
     <row r="8" spans="5:20" ht="22" x14ac:dyDescent="0.3">
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="107"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
       <c r="T8" s="20">
         <f>P6/T6</f>
         <v>0.4025473933649289</v>
@@ -16031,13 +18098,13 @@
       </c>
     </row>
     <row r="24" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E24" s="105" t="s">
+      <c r="E24" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="110"/>
     </row>
     <row r="25" spans="5:9" ht="22" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
@@ -16121,20 +18188,20 @@
       </c>
     </row>
     <row r="36" spans="5:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="E36" s="105" t="s">
+      <c r="E36" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="107"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="110"/>
     </row>
     <row r="37" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E37" s="12" t="s">
@@ -17020,31 +19087,90 @@
         <v>6385274</v>
       </c>
     </row>
-    <row r="68" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="I68">
-        <v>3.1300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="5:17" x14ac:dyDescent="0.2">
-      <c r="I69">
-        <f>I62-I68</f>
-        <v>4.9999999999999975E-3</v>
+    <row r="67" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E67" s="67">
+        <v>4</v>
+      </c>
+      <c r="F67" s="46">
+        <v>4.65E-2</v>
+      </c>
+      <c r="G67" s="46">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="H67" s="46">
+        <f>(2*F67*G67)/(F67+G67)</f>
+        <v>2.7077743902439028E-2</v>
+      </c>
+      <c r="I67" s="46">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="J67" s="46">
+        <v>300</v>
+      </c>
+      <c r="K67" s="46">
+        <v>400</v>
+      </c>
+      <c r="L67" s="68">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M67" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="N67" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O67" s="46">
+        <v>18</v>
+      </c>
+      <c r="P67" s="46">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E68" s="67">
+        <v>5</v>
+      </c>
+      <c r="F68" s="46">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="G68" s="46">
+        <v>1.89E-2</v>
+      </c>
+      <c r="H68" s="46">
+        <f>(2*F68*G68)/(F68+G68)</f>
+        <v>2.6825806451612907E-2</v>
+      </c>
+      <c r="I68" s="46">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="J68" s="46">
+        <v>330</v>
+      </c>
+      <c r="K68" s="46">
+        <v>440</v>
+      </c>
+      <c r="L68" s="68">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M68" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="N68" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="O68" s="46">
+        <v>18</v>
+      </c>
+      <c r="P68" s="46">
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="I70" s="20">
-        <f>I69/I68</f>
-        <v>0.15974440894568681</v>
-      </c>
-      <c r="Q70" s="91">
-        <v>2380730</v>
-      </c>
+      <c r="I70" s="20"/>
+      <c r="Q70" s="91"/>
     </row>
     <row r="71" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="Q71" s="92">
-        <f>Q70*2</f>
-        <v>4761460</v>
-      </c>
+      <c r="Q71" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17053,6 +19179,42 @@
     <mergeCell ref="E36:P36"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H49 H51:H55">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H65">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57:H60">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -17064,7 +19226,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H49 H51:H55">
+  <conditionalFormatting sqref="H62:H65">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -17076,7 +19238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H65">
+  <conditionalFormatting sqref="H67:H68">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -17087,8 +19249,42 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57:H60">
+  <conditionalFormatting sqref="I39:I44">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I62">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I63">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -17100,31 +19296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62:H65">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I44">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I62">
+  <conditionalFormatting sqref="I39:I65">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -17136,8 +19308,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I63">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="I46">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17148,7 +19320,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I65">
+  <conditionalFormatting sqref="I48">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67:I68">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -17160,32 +19344,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I48">
+  <conditionalFormatting sqref="J59:K59 I1:I65 I67:I1048576">
     <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I68:I1048576 J59:K59 I1:I65">
-    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -17199,1253 +19359,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E92C1B-7A6F-A542-90FD-1DA37706EDAB}">
-  <dimension ref="F6:R46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="18" max="18" width="43.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F6" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
-      <c r="R6" s="107"/>
-    </row>
-    <row r="7" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F9" s="10">
-        <v>2</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.27389999999999998</v>
-      </c>
-      <c r="H9" s="9">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="I9" s="9">
-        <f t="shared" ref="I9:I14" si="0">(2*G9*H9)/(G9+H9)</f>
-        <v>0.12008500570125426</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0.21590000000000001</v>
-      </c>
-      <c r="K9" s="9">
-        <v>690</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M9" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N9" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>10</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F10" s="10">
-        <v>2</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.27310000000000001</v>
-      </c>
-      <c r="H10" s="9">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="I10" s="9">
-        <f t="shared" si="0"/>
-        <v>0.11952030892448513</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0.21479999999999999</v>
-      </c>
-      <c r="K10" s="9">
-        <v>690</v>
-      </c>
-      <c r="L10" s="9">
-        <v>800</v>
-      </c>
-      <c r="M10" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N10" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="9">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>10</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F11" s="10">
-        <v>2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.27189999999999998</v>
-      </c>
-      <c r="H11" s="9">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="I11" s="11">
-        <f t="shared" si="0"/>
-        <v>0.11879505605058924</v>
-      </c>
-      <c r="J11" s="14">
-        <v>0.2127</v>
-      </c>
-      <c r="K11" s="43">
-        <v>630</v>
-      </c>
-      <c r="L11" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M11" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N11" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O11" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>10</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F12" s="10">
-        <v>2</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0.27929999999999999</v>
-      </c>
-      <c r="H12" s="9">
-        <v>7.8100000000000003E-2</v>
-      </c>
-      <c r="I12" s="9">
-        <f t="shared" si="0"/>
-        <v>0.12206675993284835</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0.21959999999999999</v>
-      </c>
-      <c r="K12" s="43">
-        <v>680</v>
-      </c>
-      <c r="L12" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N12" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O12" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>15</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F13" s="10">
-        <v>2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.28420000000000001</v>
-      </c>
-      <c r="H13" s="14">
-        <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="I13" s="9">
-        <f t="shared" si="0"/>
-        <v>0.1241225522552255</v>
-      </c>
-      <c r="J13" s="14">
-        <v>0.2205</v>
-      </c>
-      <c r="K13" s="43">
-        <v>990</v>
-      </c>
-      <c r="L13" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M13" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N13" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O13" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P13" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>20</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F14" s="10">
-        <v>2</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.28739999999999999</v>
-      </c>
-      <c r="H14" s="9">
-        <v>8.0299999999999996E-2</v>
-      </c>
-      <c r="I14" s="9">
-        <f t="shared" si="0"/>
-        <v>0.1255274408485178</v>
-      </c>
-      <c r="J14" s="14">
-        <v>0.22339999999999999</v>
-      </c>
-      <c r="K14" s="43">
-        <v>1000</v>
-      </c>
-      <c r="L14" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M14" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N14" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" s="48">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="48">
-        <v>25</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F15" s="10">
-        <v>2</v>
-      </c>
-      <c r="G15" s="9">
-        <v>0.2888</v>
-      </c>
-      <c r="H15" s="9">
-        <v>8.0699999999999994E-2</v>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" ref="I15" si="1">(2*G15*H15)/(G15+H15)</f>
-        <v>0.12614971583220569</v>
-      </c>
-      <c r="J15" s="14">
-        <v>0.224</v>
-      </c>
-      <c r="K15" s="43">
-        <v>960</v>
-      </c>
-      <c r="L15" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M15" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N15" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P15" s="48">
-        <v>15</v>
-      </c>
-      <c r="Q15" s="48">
-        <v>30</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F16" s="10">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0.2873</v>
-      </c>
-      <c r="H16" s="9">
-        <v>8.0299999999999996E-2</v>
-      </c>
-      <c r="I16" s="9">
-        <f t="shared" ref="I16" si="2">(2*G16*H16)/(G16+H16)</f>
-        <v>0.12551789989118606</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.22309999999999999</v>
-      </c>
-      <c r="K16" s="43">
-        <v>950</v>
-      </c>
-      <c r="L16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M16" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N16" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O16" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="48">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="48">
-        <v>35</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F17" s="10">
-        <v>2</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0.28770000000000001</v>
-      </c>
-      <c r="H17" s="9">
-        <v>8.0399999999999999E-2</v>
-      </c>
-      <c r="I17" s="9">
-        <f>(2*G17*H17)/(G17+H17)</f>
-        <v>0.12567823960880198</v>
-      </c>
-      <c r="J17" s="14">
-        <v>0.22489999999999999</v>
-      </c>
-      <c r="K17" s="9">
-        <v>910</v>
-      </c>
-      <c r="L17" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M17" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N17" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O17" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" s="48">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="48">
-        <v>30</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="83"/>
-    </row>
-    <row r="19" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F19" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="107"/>
-    </row>
-    <row r="20" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F20" s="10">
-        <v>2</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0.18290000000000001</v>
-      </c>
-      <c r="H20" s="9">
-        <v>4.9299999999999997E-2</v>
-      </c>
-      <c r="I20" s="9">
-        <f t="shared" ref="I20:I27" si="3">(2*G20*H20)/(G20+H20)</f>
-        <v>7.7665546942291122E-2</v>
-      </c>
-      <c r="J20" s="14">
-        <v>0.12939999999999999</v>
-      </c>
-      <c r="K20" s="9">
-        <v>200</v>
-      </c>
-      <c r="L20" s="9">
-        <v>450</v>
-      </c>
-      <c r="M20" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N20" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O20" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P20" s="48">
-        <v>15</v>
-      </c>
-      <c r="Q20" s="48">
-        <v>30</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F21" s="10">
-        <v>2</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0.28770000000000001</v>
-      </c>
-      <c r="H21" s="9">
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="I21" s="9">
-        <f t="shared" si="3"/>
-        <v>0.12592245452077114</v>
-      </c>
-      <c r="J21" s="14">
-        <v>0.224</v>
-      </c>
-      <c r="K21" s="9">
-        <v>980</v>
-      </c>
-      <c r="L21" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M21" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N21" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O21" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P21" s="48">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="48">
-        <v>30</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F22" s="10">
-        <v>2</v>
-      </c>
-      <c r="G22" s="14">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="H22" s="9">
-        <v>8.0100000000000005E-2</v>
-      </c>
-      <c r="I22" s="9">
-        <f t="shared" si="3"/>
-        <v>0.12524489239989106</v>
-      </c>
-      <c r="J22" s="14">
-        <v>0.22409999999999999</v>
-      </c>
-      <c r="K22" s="9">
-        <v>950</v>
-      </c>
-      <c r="L22" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M22" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N22" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O22" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P22" s="48">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="48">
-        <v>30</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F23" s="10">
-        <v>2</v>
-      </c>
-      <c r="G23" s="14">
-        <v>0.27350000000000002</v>
-      </c>
-      <c r="H23" s="9">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="I23" s="9">
-        <f t="shared" si="3"/>
-        <v>0.12004651826484017</v>
-      </c>
-      <c r="J23" s="14">
-        <v>0.216</v>
-      </c>
-      <c r="K23" s="9">
-        <v>990</v>
-      </c>
-      <c r="L23" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M23" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N23" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O23" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P23" s="48">
-        <v>15</v>
-      </c>
-      <c r="Q23" s="48">
-        <v>30</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F24" s="10">
-        <v>2</v>
-      </c>
-      <c r="G24" s="14">
-        <v>0.28770000000000001</v>
-      </c>
-      <c r="H24" s="9">
-        <v>8.0399999999999999E-2</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="3"/>
-        <v>0.12567823960880198</v>
-      </c>
-      <c r="J24" s="14">
-        <v>0.22489999999999999</v>
-      </c>
-      <c r="K24" s="9">
-        <v>910</v>
-      </c>
-      <c r="L24" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M24" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N24" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O24" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P24" s="48">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="48">
-        <v>30</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F25" s="10">
-        <v>2</v>
-      </c>
-      <c r="G25" s="14">
-        <v>0.28060000000000002</v>
-      </c>
-      <c r="H25" s="9">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="I25" s="9">
-        <f t="shared" si="3"/>
-        <v>0.12292357361536323</v>
-      </c>
-      <c r="J25" s="14">
-        <v>0.22020000000000001</v>
-      </c>
-      <c r="K25" s="9">
-        <v>830</v>
-      </c>
-      <c r="L25" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M25" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N25" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O25" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P25" s="48">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="48">
-        <v>30</v>
-      </c>
-      <c r="R25" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F26" s="10">
-        <v>2</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0.27839999999999998</v>
-      </c>
-      <c r="H26" s="9">
-        <v>7.8100000000000003E-2</v>
-      </c>
-      <c r="I26" s="9">
-        <f t="shared" si="3"/>
-        <v>0.12198058906030855</v>
-      </c>
-      <c r="J26" s="9">
-        <v>0.21829999999999999</v>
-      </c>
-      <c r="K26" s="9">
-        <v>950</v>
-      </c>
-      <c r="L26" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M26" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N26" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P26" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>30</v>
-      </c>
-      <c r="R26" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F27" s="10">
-        <v>3</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.2883</v>
-      </c>
-      <c r="H27" s="9">
-        <v>8.0299999999999996E-2</v>
-      </c>
-      <c r="I27" s="9">
-        <f t="shared" si="3"/>
-        <v>0.12561307650569722</v>
-      </c>
-      <c r="J27" s="9">
-        <v>0.22270000000000001</v>
-      </c>
-      <c r="K27" s="9">
-        <v>950</v>
-      </c>
-      <c r="L27" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M27" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N27" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O27" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P27" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>30</v>
-      </c>
-      <c r="R27" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F28" s="10">
-        <v>4</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0.2838</v>
-      </c>
-      <c r="H28" s="9">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" ref="I28:I31" si="4">(2*G28*H28)/(G28+H28)</f>
-        <v>0.12384000000000001</v>
-      </c>
-      <c r="J28" s="14">
-        <v>0.2165</v>
-      </c>
-      <c r="K28" s="43">
-        <v>980</v>
-      </c>
-      <c r="L28" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M28" s="33">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="N28" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O28" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P28" s="48">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="48">
-        <v>30</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F29" s="67"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="46"/>
-    </row>
-    <row r="31" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F31" s="10">
-        <v>2</v>
-      </c>
-      <c r="G31" s="9">
-        <v>0.2838</v>
-      </c>
-      <c r="H31" s="9">
-        <v>7.9600000000000004E-2</v>
-      </c>
-      <c r="I31" s="9">
-        <f t="shared" si="4"/>
-        <v>0.1243284534947716</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0.22339999999999999</v>
-      </c>
-      <c r="K31" s="9">
-        <v>1000</v>
-      </c>
-      <c r="L31" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M31" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N31" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O31" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P31" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="9">
-        <v>35</v>
-      </c>
-      <c r="R31" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F32" s="10">
-        <v>3</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0.28050000000000003</v>
-      </c>
-      <c r="H32" s="9">
-        <v>7.8700000000000006E-2</v>
-      </c>
-      <c r="I32" s="9">
-        <f t="shared" ref="I32" si="5">(2*G32*H32)/(G32+H32)</f>
-        <v>0.1229139755011136</v>
-      </c>
-      <c r="J32" s="9">
-        <v>0.21940000000000001</v>
-      </c>
-      <c r="K32" s="9">
-        <v>950</v>
-      </c>
-      <c r="L32" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M32" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N32" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O32" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P32" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q32" s="9">
-        <v>35</v>
-      </c>
-      <c r="R32" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F33" s="10">
-        <v>4</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0.27479999999999999</v>
-      </c>
-      <c r="H33" s="9">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="I33" s="9">
-        <f t="shared" ref="I33" si="6">(2*G33*H33)/(G33+H33)</f>
-        <v>0.12029334849346218</v>
-      </c>
-      <c r="J33" s="9">
-        <v>0.21329999999999999</v>
-      </c>
-      <c r="K33" s="9">
-        <v>1000</v>
-      </c>
-      <c r="L33" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M33" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N33" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="O33" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="P33" s="9">
-        <v>15</v>
-      </c>
-      <c r="Q33" s="9">
-        <v>35</v>
-      </c>
-      <c r="R33" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F34" s="67"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-    </row>
-    <row r="36" spans="6:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="F36" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-    </row>
-    <row r="37" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="F37" s="10">
-        <v>2</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0.2757</v>
-      </c>
-      <c r="H37" s="9">
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="I37" s="9">
-        <f t="shared" ref="I37" si="7">(2*G37*H37)/(G37+H37)</f>
-        <v>0.1214764140271493</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0.22009999999999999</v>
-      </c>
-      <c r="K37" s="9">
-        <v>980</v>
-      </c>
-      <c r="L37" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M37" s="33">
-        <v>1E-3</v>
-      </c>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-    </row>
-    <row r="38" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="6:18" x14ac:dyDescent="0.2">
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-    </row>
-    <row r="44" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="J44" s="14">
-        <f>J24-J31</f>
-        <v>1.5000000000000013E-3</v>
-      </c>
-      <c r="K44" s="20"/>
-    </row>
-    <row r="45" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="J45" s="9">
-        <f>J27-J32</f>
-        <v>3.2999999999999974E-3</v>
-      </c>
-      <c r="K45" s="20"/>
-    </row>
-    <row r="46" spans="6:18" ht="22" x14ac:dyDescent="0.3">
-      <c r="J46" s="9">
-        <f>J28-J33</f>
-        <v>3.2000000000000084E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F36:Q36"/>
-    <mergeCell ref="F19:R19"/>
-    <mergeCell ref="F6:R6"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J9:J16">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J18">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J25">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J29">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J33">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:J29">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:J46">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>